--- a/Bazaraki.xlsx
+++ b/Bazaraki.xlsx
@@ -34,6 +34,30 @@
     <t>Дата создания объявления</t>
   </si>
   <si>
+    <t>Exceptional office space in limassol center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4717864_exceptional-office-space-in-limassol-center/</t>
+  </si>
+  <si>
+    <t>Γραφειο στο κέντρο της πολης</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4717648_grapheio-sto-kentro-tes-poles/</t>
+  </si>
+  <si>
+    <t>Office in agias zonis area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4717282_office-in-agias-zonis-area/</t>
+  </si>
+  <si>
+    <t>177m² office space</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4716944_177m2-office-space/</t>
+  </si>
+  <si>
     <t>Office in zakaki</t>
   </si>
   <si>
@@ -196,6 +220,12 @@
     <t>https://www.bazaraki.com/adv/4686827_shop-in-katholiki/</t>
   </si>
   <si>
+    <t>2nd floor office in the oval</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4684174_2nd-floor-office-in-the-oval/</t>
+  </si>
+  <si>
     <t>149sqm office in zakaki, limassol</t>
   </si>
   <si>
@@ -529,6 +559,12 @@
     <t>https://www.bazaraki.com/adv/4413895_office-in-mesa-geitonia-limassol/</t>
   </si>
   <si>
+    <t>160sqm office in historical center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4381872_160sqm-office-in-historical-center/</t>
+  </si>
+  <si>
     <t>159sqm office in historical center</t>
   </si>
   <si>
@@ -659,42 +695,6 @@
   </si>
   <si>
     <t>https://www.bazaraki.com/adv/4169238_shop-in-germasogeia/</t>
-  </si>
-  <si>
-    <t>120sqm office in agios nikolaos, limassol</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4088917_120sqm-office-in-agios-nikolaos-limassol/</t>
-  </si>
-  <si>
-    <t>Commercial store in limassol centre</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/3868167_commercial-store-in-limassol-centre/</t>
-  </si>
-  <si>
-    <t>Offices at makarios avenue near enaerios</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/3838209_shops-offices-at-makarios-avenue-near-enaerios/</t>
-  </si>
-  <si>
-    <t>2 shops/offices next to limassol zoo, 75 sq m in total</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/3790051_3-shops-next-to-limassol-zoo-110-square-meters/</t>
-  </si>
-  <si>
-    <t>New spacious modern shop with mezzanine - kato polemidia</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/3702715_new-spacious-modern-shop-with-mezzanine-kato-polemidia/</t>
-  </si>
-  <si>
-    <t>107m2, ground floor shop at fayza house limassol</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/2798457_shop-at-fayza-house-limassol/</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>4714020</v>
+        <v>4717864</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1038,138 +1038,138 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="E2">
-        <v>660000</v>
+        <v>368000</v>
       </c>
       <c r="F2" s="1">
-        <v>45066.25599537037</v>
+        <v>45068.51038194444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>4714009</v>
+        <v>4717648</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>910000</v>
+        <v>240000</v>
       </c>
       <c r="F3" s="1">
-        <v>45066.254953703705</v>
+        <v>45068.432442129626</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4714008</v>
+        <v>4717282</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="E4">
-        <v>880000</v>
+        <v>368000</v>
       </c>
       <c r="F4" s="1">
-        <v>45066.25488425926</v>
+        <v>45068.34438657408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4712422</v>
+        <v>4716944</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="E5">
-        <v>265000</v>
+        <v>368000</v>
       </c>
       <c r="F5" s="1">
-        <v>45064.75734953704</v>
+        <v>45067.76037037037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>4710450</v>
+        <v>4714020</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="E6">
-        <v>280000</v>
+        <v>660000</v>
       </c>
       <c r="F6" s="1">
-        <v>45063.50707175926</v>
+        <v>45066.25599537037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>4707466</v>
+        <v>4714009</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="E7">
-        <v>611000</v>
+        <v>910000</v>
       </c>
       <c r="F7" s="1">
-        <v>45062.751608796294</v>
+        <v>45066.254953703705</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>4707211</v>
+        <v>4714008</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E8">
-        <v>299000</v>
+        <v>880000</v>
       </c>
       <c r="F8" s="1">
-        <v>45062.64388888889</v>
+        <v>45066.25488425926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>4707171</v>
+        <v>4712422</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1178,18 +1178,18 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="E9">
-        <v>370000</v>
+        <v>265000</v>
       </c>
       <c r="F9" s="1">
-        <v>45062.64212962963</v>
+        <v>45064.75734953704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>4707148</v>
+        <v>4710450</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1198,18 +1198,18 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10">
-        <v>550000</v>
+        <v>280000</v>
       </c>
       <c r="F10" s="1">
-        <v>45062.640752314815</v>
+        <v>45063.50707175926</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>4704575</v>
+        <v>4707466</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1218,18 +1218,18 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="E11">
-        <v>368000</v>
+        <v>611000</v>
       </c>
       <c r="F11" s="1">
-        <v>45061.41887731481</v>
+        <v>45062.751608796294</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>4701709</v>
+        <v>4707211</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1238,18 +1238,18 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="E12">
-        <v>1600000</v>
+        <v>299000</v>
       </c>
       <c r="F12" s="1">
-        <v>45058.62601851852</v>
+        <v>45062.64388888889</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>4701313</v>
+        <v>4707171</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1258,18 +1258,18 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E13">
-        <v>660000</v>
+        <v>370000</v>
       </c>
       <c r="F13" s="1">
-        <v>45058.42391203704</v>
+        <v>45062.64212962963</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>4701114</v>
+        <v>4707148</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -1278,18 +1278,18 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E14">
-        <v>1600000</v>
+        <v>550000</v>
       </c>
       <c r="F14" s="1">
-        <v>45058.37673611111</v>
+        <v>45062.640752314815</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>4700356</v>
+        <v>4704575</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1298,18 +1298,18 @@
         <v>31</v>
       </c>
       <c r="D15">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="E15">
-        <v>280000</v>
+        <v>368000</v>
       </c>
       <c r="F15" s="1">
-        <v>45057.62741898148</v>
+        <v>45061.41887731481</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>4699442</v>
+        <v>4701709</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -1318,18 +1318,18 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E16">
-        <v>280000</v>
+        <v>1600000</v>
       </c>
       <c r="F16" s="1">
-        <v>45057.377222222225</v>
+        <v>45058.62601851852</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>4699342</v>
+        <v>4701313</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1338,18 +1338,18 @@
         <v>35</v>
       </c>
       <c r="D17">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="E17">
-        <v>500000</v>
+        <v>660000</v>
       </c>
       <c r="F17" s="1">
-        <v>45057.33484953704</v>
+        <v>45058.42391203704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>4698805</v>
+        <v>4701114</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -1358,118 +1358,118 @@
         <v>37</v>
       </c>
       <c r="D18">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="E18">
-        <v>850000</v>
+        <v>1600000</v>
       </c>
       <c r="F18" s="1">
-        <v>45056.751655092594</v>
+        <v>45058.37673611111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>4698554</v>
+        <v>4700356</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E19">
-        <v>805000</v>
+        <v>280000</v>
       </c>
       <c r="F19" s="1">
-        <v>45056.62635416666</v>
+        <v>45057.62741898148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>4697055</v>
+        <v>4699442</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E20">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="F20" s="1">
-        <v>45055.605844907404</v>
+        <v>45057.377222222225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>4696705</v>
+        <v>4699342</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="E21">
-        <v>540000</v>
+        <v>500000</v>
       </c>
       <c r="F21" s="1">
-        <v>45055.50114583333</v>
+        <v>45057.33484953704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>4696508</v>
+        <v>4698805</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="E22">
-        <v>1200000</v>
+        <v>850000</v>
       </c>
       <c r="F22" s="1">
-        <v>45055.407534722224</v>
+        <v>45056.751655092594</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>4696481</v>
+        <v>4698554</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="D23">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="E23">
-        <v>480000</v>
+        <v>805000</v>
       </c>
       <c r="F23" s="1">
-        <v>45055.40008101852</v>
+        <v>45056.62635416666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>4696385</v>
+        <v>4697055</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -1478,18 +1478,18 @@
         <v>48</v>
       </c>
       <c r="D24">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="E24">
-        <v>2200000</v>
+        <v>300000</v>
       </c>
       <c r="F24" s="1">
-        <v>45055.369791666664</v>
+        <v>45055.605844907404</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>4696376</v>
+        <v>4696705</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -1498,18 +1498,18 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="E25">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="F25" s="1">
-        <v>45055.365949074076</v>
+        <v>45055.50114583333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4696237</v>
+        <v>4696508</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -1518,18 +1518,18 @@
         <v>52</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="E26">
-        <v>360000</v>
+        <v>1200000</v>
       </c>
       <c r="F26" s="1">
-        <v>45055.29398148148</v>
+        <v>45055.407534722224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>4691228</v>
+        <v>4696481</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -1538,118 +1538,118 @@
         <v>54</v>
       </c>
       <c r="D27">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="E27">
-        <v>600000</v>
+        <v>480000</v>
       </c>
       <c r="F27" s="1">
-        <v>45051.376435185186</v>
+        <v>45055.40008101852</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>4687890</v>
+        <v>4696385</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="E28">
-        <v>1500000</v>
+        <v>2200000</v>
       </c>
       <c r="F28" s="1">
-        <v>45048.75144675926</v>
+        <v>45055.369791666664</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>4686980</v>
+        <v>4696376</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="E29">
-        <v>1237186</v>
+        <v>600000</v>
       </c>
       <c r="F29" s="1">
-        <v>45048.37636574074</v>
+        <v>45055.365949074076</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>4686827</v>
+        <v>4696237</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>95000</v>
+        <v>360000</v>
       </c>
       <c r="F30" s="1">
-        <v>45048.295949074076</v>
+        <v>45055.29398148148</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>4683331</v>
+        <v>4691228</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E31">
-        <v>2210200</v>
+        <v>600000</v>
       </c>
       <c r="F31" s="1">
-        <v>45044.62634259259</v>
+        <v>45051.376435185186</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>4682762</v>
+        <v>4687890</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
       </c>
       <c r="D32">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="E32">
-        <v>565000</v>
+        <v>1500000</v>
       </c>
       <c r="F32" s="1">
-        <v>45044.375810185185</v>
+        <v>45048.75144675926</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>4679181</v>
+        <v>4686980</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
@@ -1658,18 +1658,18 @@
         <v>65</v>
       </c>
       <c r="D33">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="E33">
-        <v>1000000</v>
+        <v>1237186</v>
       </c>
       <c r="F33" s="1">
-        <v>45041.756875</v>
+        <v>45048.37636574074</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>4676005</v>
+        <v>4686827</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
@@ -1678,138 +1678,138 @@
         <v>67</v>
       </c>
       <c r="D34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34">
-        <v>180000</v>
+        <v>95000</v>
       </c>
       <c r="F34" s="1">
-        <v>45040.37637731482</v>
+        <v>45048.295949074076</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>4676002</v>
+        <v>4684174</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D35">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E35">
-        <v>1009483</v>
+        <v>1500000</v>
       </c>
       <c r="F35" s="1">
-        <v>45040.37619212963</v>
+        <v>45045.50996527778</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>4673588</v>
+        <v>4683331</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="E36">
-        <v>611000</v>
+        <v>2210200</v>
       </c>
       <c r="F36" s="1">
-        <v>45037.75806712963</v>
+        <v>45044.62634259259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>4672684</v>
+        <v>4682762</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="E37">
-        <v>1600000</v>
+        <v>565000</v>
       </c>
       <c r="F37" s="1">
-        <v>45037.414189814815</v>
+        <v>45044.375810185185</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>4668267</v>
+        <v>4679181</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="E38">
-        <v>450000</v>
+        <v>1000000</v>
       </c>
       <c r="F38" s="1">
-        <v>45034.28559027778</v>
+        <v>45041.756875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>4664079</v>
+        <v>4676005</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="E39">
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="F39" s="1">
-        <v>45029.50099537037</v>
+        <v>45040.37637731482</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4662382</v>
+        <v>4676002</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
         <v>78</v>
       </c>
       <c r="D40">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="E40">
-        <v>360000</v>
+        <v>1009483</v>
       </c>
       <c r="F40" s="1">
-        <v>45028.376388888886</v>
+        <v>45040.37619212963</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>4654221</v>
+        <v>4673588</v>
       </c>
       <c r="B41" t="s">
         <v>79</v>
@@ -1818,18 +1818,18 @@
         <v>80</v>
       </c>
       <c r="D41">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="E41">
-        <v>565000</v>
+        <v>611000</v>
       </c>
       <c r="F41" s="1">
-        <v>45022.37645833333</v>
+        <v>45037.75806712963</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>4652937</v>
+        <v>4672684</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
@@ -1838,18 +1838,18 @@
         <v>82</v>
       </c>
       <c r="D42">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="E42">
-        <v>565000</v>
+        <v>1600000</v>
       </c>
       <c r="F42" s="1">
-        <v>45021.500972222224</v>
+        <v>45037.414189814815</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>4646972</v>
+        <v>4668267</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -1858,18 +1858,18 @@
         <v>84</v>
       </c>
       <c r="D43">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E43">
-        <v>210000</v>
+        <v>450000</v>
       </c>
       <c r="F43" s="1">
-        <v>45016.7515625</v>
+        <v>45034.28559027778</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>4644332</v>
+        <v>4664079</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
@@ -1878,18 +1878,18 @@
         <v>86</v>
       </c>
       <c r="D44">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="E44">
-        <v>1517000</v>
+        <v>360000</v>
       </c>
       <c r="F44" s="1">
-        <v>45015.38422453704</v>
+        <v>45029.50099537037</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>4644331</v>
+        <v>4662382</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -1898,18 +1898,18 @@
         <v>88</v>
       </c>
       <c r="D45">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="E45">
-        <v>1532000</v>
+        <v>360000</v>
       </c>
       <c r="F45" s="1">
-        <v>45015.38422453704</v>
+        <v>45028.376388888886</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>4644329</v>
+        <v>4654221</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
@@ -1918,18 +1918,18 @@
         <v>90</v>
       </c>
       <c r="D46">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="E46">
-        <v>1215000</v>
+        <v>565000</v>
       </c>
       <c r="F46" s="1">
-        <v>45015.384201388886</v>
+        <v>45022.37645833333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>4644328</v>
+        <v>4652937</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
@@ -1938,158 +1938,158 @@
         <v>92</v>
       </c>
       <c r="D47">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="E47">
-        <v>611000</v>
+        <v>565000</v>
       </c>
       <c r="F47" s="1">
-        <v>45015.384201388886</v>
+        <v>45021.500972222224</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>4633169</v>
+        <v>4646972</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D48">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="E48">
-        <v>1115000</v>
+        <v>210000</v>
       </c>
       <c r="F48" s="1">
-        <v>45013.75430555556</v>
+        <v>45016.7515625</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>4633167</v>
+        <v>4644332</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D49">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="E49">
-        <v>920000</v>
+        <v>1517000</v>
       </c>
       <c r="F49" s="1">
-        <v>45013.754270833335</v>
+        <v>45015.38422453704</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>4632180</v>
+        <v>4644331</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D50">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="E50">
-        <v>540000</v>
+        <v>1532000</v>
       </c>
       <c r="F50" s="1">
-        <v>45013.63730324074</v>
+        <v>45015.38422453704</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>4617232</v>
+        <v>4644329</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D51">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="E51">
-        <v>2527435</v>
+        <v>1215000</v>
       </c>
       <c r="F51" s="1">
-        <v>45009.50215277778</v>
+        <v>45015.384201388886</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>4617230</v>
+        <v>4644328</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D52">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="E52">
-        <v>3188280</v>
+        <v>611000</v>
       </c>
       <c r="F52" s="1">
-        <v>45009.502071759256</v>
+        <v>45015.384201388886</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>4611644</v>
+        <v>4633169</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D53">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="E53">
-        <v>1047434</v>
+        <v>1115000</v>
       </c>
       <c r="F53" s="1">
-        <v>45008.37600694445</v>
+        <v>45013.75430555556</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>4604346</v>
+        <v>4633167</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
         <v>104</v>
       </c>
       <c r="D54">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="E54">
-        <v>2500000</v>
+        <v>920000</v>
       </c>
       <c r="F54" s="1">
-        <v>45005.37855324074</v>
+        <v>45013.754270833335</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>4601359</v>
+        <v>4632180</v>
       </c>
       <c r="B55" t="s">
         <v>105</v>
@@ -2098,18 +2098,18 @@
         <v>106</v>
       </c>
       <c r="D55">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E55">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="F55" s="1">
-        <v>45002.758472222224</v>
+        <v>45013.63730324074</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>4591859</v>
+        <v>4617232</v>
       </c>
       <c r="B56" t="s">
         <v>107</v>
@@ -2118,18 +2118,18 @@
         <v>108</v>
       </c>
       <c r="D56">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E56">
-        <v>750000</v>
+        <v>2527435</v>
       </c>
       <c r="F56" s="1">
-        <v>45000.357881944445</v>
+        <v>45009.50215277778</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>4591367</v>
+        <v>4617230</v>
       </c>
       <c r="B57" t="s">
         <v>109</v>
@@ -2138,18 +2138,18 @@
         <v>110</v>
       </c>
       <c r="D57">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="E57">
-        <v>2012000</v>
+        <v>3188280</v>
       </c>
       <c r="F57" s="1">
-        <v>44999.756898148145</v>
+        <v>45009.502071759256</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>4582432</v>
+        <v>4611644</v>
       </c>
       <c r="B58" t="s">
         <v>111</v>
@@ -2158,18 +2158,18 @@
         <v>112</v>
       </c>
       <c r="D58">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="E58">
-        <v>360000</v>
+        <v>1047434</v>
       </c>
       <c r="F58" s="1">
-        <v>44994.38015046297</v>
+        <v>45008.37600694445</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>4579437</v>
+        <v>4604346</v>
       </c>
       <c r="B59" t="s">
         <v>113</v>
@@ -2178,18 +2178,18 @@
         <v>114</v>
       </c>
       <c r="D59">
-        <v>223</v>
+        <v>86</v>
       </c>
       <c r="E59">
-        <v>520000</v>
+        <v>2500000</v>
       </c>
       <c r="F59" s="1">
-        <v>44992.501493055555</v>
+        <v>45005.37855324074</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>4559059</v>
+        <v>4601359</v>
       </c>
       <c r="B60" t="s">
         <v>115</v>
@@ -2198,18 +2198,18 @@
         <v>116</v>
       </c>
       <c r="D60">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="E60">
-        <v>395000</v>
+        <v>600000</v>
       </c>
       <c r="F60" s="1">
-        <v>44977.801782407405</v>
+        <v>45002.758472222224</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>4558998</v>
+        <v>4591859</v>
       </c>
       <c r="B61" t="s">
         <v>117</v>
@@ -2218,18 +2218,18 @@
         <v>118</v>
       </c>
       <c r="D61">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E61">
-        <v>495000</v>
+        <v>750000</v>
       </c>
       <c r="F61" s="1">
-        <v>44977.76740740741</v>
+        <v>45000.357881944445</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>4535313</v>
+        <v>4591367</v>
       </c>
       <c r="B62" t="s">
         <v>119</v>
@@ -2238,18 +2238,18 @@
         <v>120</v>
       </c>
       <c r="D62">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="E62">
-        <v>495000</v>
+        <v>2012000</v>
       </c>
       <c r="F62" s="1">
-        <v>44960.231261574074</v>
+        <v>44999.756898148145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>4524871</v>
+        <v>4582432</v>
       </c>
       <c r="B63" t="s">
         <v>121</v>
@@ -2258,18 +2258,18 @@
         <v>122</v>
       </c>
       <c r="D63">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E63">
-        <v>110000</v>
+        <v>360000</v>
       </c>
       <c r="F63" s="1">
-        <v>44952.604837962965</v>
+        <v>44994.38015046297</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>4522275</v>
+        <v>4579437</v>
       </c>
       <c r="B64" t="s">
         <v>123</v>
@@ -2278,424 +2278,424 @@
         <v>124</v>
       </c>
       <c r="D64">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="E64">
-        <v>2015000</v>
+        <v>520000</v>
       </c>
       <c r="F64" s="1">
-        <v>44950.8783912037</v>
+        <v>44992.501493055555</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>4521842</v>
+        <v>4559059</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D65">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E65">
-        <v>607000</v>
+        <v>395000</v>
       </c>
       <c r="F65" s="1">
-        <v>44950.769791666666</v>
+        <v>44977.801782407405</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>4521833</v>
+        <v>4558998</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D66">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="E66">
-        <v>632000</v>
+        <v>495000</v>
       </c>
       <c r="F66" s="1">
-        <v>44950.76898148148</v>
+        <v>44977.76740740741</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>4521832</v>
+        <v>4535313</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D67">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E67">
-        <v>688000</v>
+        <v>495000</v>
       </c>
       <c r="F67" s="1">
-        <v>44950.76887731482</v>
+        <v>44960.231261574074</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>4521826</v>
+        <v>4524871</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E68">
-        <v>698000</v>
+        <v>110000</v>
       </c>
       <c r="F68" s="1">
-        <v>44950.76829861111</v>
+        <v>44952.604837962965</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>4521821</v>
+        <v>4522275</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D69">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="E69">
-        <v>622000</v>
+        <v>2015000</v>
       </c>
       <c r="F69" s="1">
-        <v>44950.7678125</v>
+        <v>44950.8783912037</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>4521820</v>
+        <v>4521842</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D70">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E70">
-        <v>2016000</v>
+        <v>607000</v>
       </c>
       <c r="F70" s="1">
-        <v>44950.767696759256</v>
+        <v>44950.769791666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>4521817</v>
+        <v>4521833</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D71">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E71">
-        <v>1245000</v>
+        <v>632000</v>
       </c>
       <c r="F71" s="1">
-        <v>44950.7674537037</v>
+        <v>44950.76898148148</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>4521808</v>
+        <v>4521832</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D72">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>725000</v>
+        <v>688000</v>
       </c>
       <c r="F72" s="1">
-        <v>44950.76645833333</v>
+        <v>44950.76887731482</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>4521800</v>
+        <v>4521826</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D73">
         <v>100</v>
       </c>
       <c r="E73">
-        <v>673000</v>
+        <v>698000</v>
       </c>
       <c r="F73" s="1">
-        <v>44950.7659375</v>
+        <v>44950.76829861111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>4521781</v>
+        <v>4521821</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D74">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E74">
-        <v>735037</v>
+        <v>622000</v>
       </c>
       <c r="F74" s="1">
-        <v>44950.76415509259</v>
+        <v>44950.7678125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>4521774</v>
+        <v>4521820</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D75">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E75">
-        <v>1243000</v>
+        <v>2016000</v>
       </c>
       <c r="F75" s="1">
-        <v>44950.76336805556</v>
+        <v>44950.767696759256</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>4521767</v>
+        <v>4521817</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D76">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E76">
-        <v>710000</v>
+        <v>1245000</v>
       </c>
       <c r="F76" s="1">
-        <v>44950.762777777774</v>
+        <v>44950.7674537037</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>4520216</v>
+        <v>4521808</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D77">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="E77">
-        <v>220000</v>
+        <v>725000</v>
       </c>
       <c r="F77" s="1">
-        <v>44950.326840277776</v>
+        <v>44950.76645833333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>4516435</v>
+        <v>4521800</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D78">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="E78">
-        <v>2460000</v>
+        <v>673000</v>
       </c>
       <c r="F78" s="1">
-        <v>44946.761608796296</v>
+        <v>44950.7659375</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>4516434</v>
+        <v>4521781</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D79">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="E79">
-        <v>1410000</v>
+        <v>735037</v>
       </c>
       <c r="F79" s="1">
-        <v>44946.7615625</v>
+        <v>44950.76415509259</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>4516433</v>
+        <v>4521774</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D80">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="E80">
-        <v>1648000</v>
+        <v>1243000</v>
       </c>
       <c r="F80" s="1">
-        <v>44946.76150462963</v>
+        <v>44950.76336805556</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>4516432</v>
+        <v>4521767</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D81">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="E81">
-        <v>1660000</v>
+        <v>710000</v>
       </c>
       <c r="F81" s="1">
-        <v>44946.76144675926</v>
+        <v>44950.762777777774</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>4514111</v>
+        <v>4520216</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D82">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="E82">
-        <v>350000</v>
+        <v>220000</v>
       </c>
       <c r="F82" s="1">
-        <v>44945.50115740741</v>
+        <v>44950.326840277776</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>4506739</v>
+        <v>4516435</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D83">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="E83">
-        <v>170000</v>
+        <v>2460000</v>
       </c>
       <c r="F83" s="1">
-        <v>44939.50289351852</v>
+        <v>44946.761608796296</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>4499649</v>
+        <v>4516434</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D84">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="E84">
-        <v>698000</v>
+        <v>1410000</v>
       </c>
       <c r="F84" s="1">
-        <v>44933.751296296294</v>
+        <v>44946.7615625</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>4497393</v>
+        <v>4516433</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D85">
         <v>173</v>
@@ -2704,92 +2704,92 @@
         <v>1648000</v>
       </c>
       <c r="F85" s="1">
-        <v>44931.56686342593</v>
+        <v>44946.76150462963</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>4497223</v>
+        <v>4516432</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D86">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="E86">
-        <v>345000</v>
+        <v>1660000</v>
       </c>
       <c r="F86" s="1">
-        <v>44931.50104166667</v>
+        <v>44946.76144675926</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>4496890</v>
+        <v>4514111</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D87">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="E87">
-        <v>600000</v>
+        <v>350000</v>
       </c>
       <c r="F87" s="1">
-        <v>44931.35283564815</v>
+        <v>44945.50115740741</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>4496881</v>
+        <v>4506739</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D88">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="E88">
-        <v>1100000</v>
+        <v>170000</v>
       </c>
       <c r="F88" s="1">
-        <v>44931.34831018518</v>
+        <v>44939.50289351852</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>4496874</v>
+        <v>4499649</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="C89" t="s">
         <v>160</v>
       </c>
       <c r="D89">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="E89">
-        <v>600000</v>
+        <v>698000</v>
       </c>
       <c r="F89" s="1">
-        <v>44931.34423611111</v>
+        <v>44933.751296296294</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>4488254</v>
+        <v>4497393</v>
       </c>
       <c r="B90" t="s">
         <v>161</v>
@@ -2798,18 +2798,18 @@
         <v>162</v>
       </c>
       <c r="D90">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="E90">
-        <v>1539683</v>
+        <v>1648000</v>
       </c>
       <c r="F90" s="1">
-        <v>44922.62599537037</v>
+        <v>44931.56686342593</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>4484881</v>
+        <v>4497223</v>
       </c>
       <c r="B91" t="s">
         <v>163</v>
@@ -2818,18 +2818,18 @@
         <v>164</v>
       </c>
       <c r="D91">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="E91">
-        <v>500000</v>
+        <v>345000</v>
       </c>
       <c r="F91" s="1">
-        <v>44917.88123842593</v>
+        <v>44931.50104166667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>4434038</v>
+        <v>4496890</v>
       </c>
       <c r="B92" t="s">
         <v>165</v>
@@ -2838,18 +2838,18 @@
         <v>166</v>
       </c>
       <c r="D92">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="E92">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="F92" s="1">
-        <v>44890.362222222226</v>
+        <v>44931.35283564815</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>4429787</v>
+        <v>4496881</v>
       </c>
       <c r="B93" t="s">
         <v>167</v>
@@ -2858,158 +2858,158 @@
         <v>168</v>
       </c>
       <c r="D93">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="E93">
-        <v>70000</v>
+        <v>1100000</v>
       </c>
       <c r="F93" s="1">
-        <v>44888.7127662037</v>
+        <v>44931.34831018518</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>4418604</v>
+        <v>4496874</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D94">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="E94">
-        <v>320000</v>
+        <v>600000</v>
       </c>
       <c r="F94" s="1">
-        <v>44880.50134259259</v>
+        <v>44931.34423611111</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>4413895</v>
+        <v>4488254</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D95">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E95">
-        <v>2020000</v>
+        <v>1539683</v>
       </c>
       <c r="F95" s="1">
-        <v>44876.37604166667</v>
+        <v>44922.62599537037</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>4381871</v>
+        <v>4484881</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D96">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="E96">
-        <v>1001849</v>
+        <v>500000</v>
       </c>
       <c r="F96" s="1">
-        <v>44852.6440162037</v>
+        <v>44917.88123842593</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>4381322</v>
+        <v>4434038</v>
       </c>
       <c r="B97" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D97">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="E97">
-        <v>380000</v>
+        <v>1200000</v>
       </c>
       <c r="F97" s="1">
-        <v>44852.37667824074</v>
+        <v>44890.362222222226</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>4373595</v>
+        <v>4429787</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D98">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E98">
-        <v>980000</v>
+        <v>70000</v>
       </c>
       <c r="F98" s="1">
-        <v>44846.53739583334</v>
+        <v>44888.7127662037</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>4373594</v>
+        <v>4418604</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D99">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E99">
-        <v>1025000</v>
+        <v>320000</v>
       </c>
       <c r="F99" s="1">
-        <v>44846.53738425926</v>
+        <v>44880.50134259259</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>4373543</v>
+        <v>4413895</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
         <v>180</v>
       </c>
       <c r="D100">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E100">
-        <v>1800000</v>
+        <v>2020000</v>
       </c>
       <c r="F100" s="1">
-        <v>44846.53538194444</v>
+        <v>44876.37604166667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>4372789</v>
+        <v>4381872</v>
       </c>
       <c r="B101" t="s">
         <v>181</v>
@@ -3021,15 +3021,15 @@
         <v>160</v>
       </c>
       <c r="E101">
-        <v>1000000</v>
+        <v>1275137</v>
       </c>
       <c r="F101" s="1">
-        <v>44846.38212962963</v>
+        <v>44852.6440625</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>4371249</v>
+        <v>4381871</v>
       </c>
       <c r="B102" t="s">
         <v>183</v>
@@ -3038,18 +3038,18 @@
         <v>184</v>
       </c>
       <c r="D102">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E102">
         <v>1001849</v>
       </c>
       <c r="F102" s="1">
-        <v>44845.36756944445</v>
+        <v>44852.6440162037</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>4371208</v>
+        <v>4381322</v>
       </c>
       <c r="B103" t="s">
         <v>185</v>
@@ -3058,18 +3058,18 @@
         <v>186</v>
       </c>
       <c r="D103">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="E103">
-        <v>1200000</v>
+        <v>380000</v>
       </c>
       <c r="F103" s="1">
-        <v>44845.363530092596</v>
+        <v>44852.37667824074</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>4368905</v>
+        <v>4373595</v>
       </c>
       <c r="B104" t="s">
         <v>187</v>
@@ -3078,398 +3078,398 @@
         <v>188</v>
       </c>
       <c r="D104">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E104">
-        <v>805000</v>
+        <v>980000</v>
       </c>
       <c r="F104" s="1">
-        <v>44844.39549768518</v>
+        <v>44846.53739583334</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>4320354</v>
+        <v>4373594</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="C105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D105">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E105">
-        <v>340000</v>
+        <v>1025000</v>
       </c>
       <c r="F105" s="1">
-        <v>44809.51527777778</v>
+        <v>44846.53738425926</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>4320275</v>
+        <v>4373543</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D106">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="E106">
-        <v>380000</v>
+        <v>1800000</v>
       </c>
       <c r="F106" s="1">
-        <v>44809.50917824074</v>
+        <v>44846.53538194444</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>4320244</v>
+        <v>4372789</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D107">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E107">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="F107" s="1">
-        <v>44809.507372685184</v>
+        <v>44846.38212962963</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>4320241</v>
+        <v>4371249</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C108" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D108">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="E108">
-        <v>790000</v>
+        <v>1001849</v>
       </c>
       <c r="F108" s="1">
-        <v>44809.50716435185</v>
+        <v>44845.36756944445</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>4320234</v>
+        <v>4371208</v>
       </c>
       <c r="B109" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="C109" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D109">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="E109">
-        <v>558000</v>
+        <v>1200000</v>
       </c>
       <c r="F109" s="1">
-        <v>44809.506261574075</v>
+        <v>44845.363530092596</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4320208</v>
+        <v>4368905</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C110" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D110">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E110">
-        <v>684000</v>
+        <v>805000</v>
       </c>
       <c r="F110" s="1">
-        <v>44809.50413194444</v>
+        <v>44844.39549768518</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>4320206</v>
+        <v>4320354</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="C111" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D111">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E111">
-        <v>270000</v>
+        <v>340000</v>
       </c>
       <c r="F111" s="1">
-        <v>44809.504108796296</v>
+        <v>44809.51527777778</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>4320205</v>
+        <v>4320275</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C112" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D112">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E112">
-        <v>1613000</v>
+        <v>380000</v>
       </c>
       <c r="F112" s="1">
-        <v>44809.50409722222</v>
+        <v>44809.50917824074</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>4320181</v>
+        <v>4320244</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C113" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D113">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="E113">
-        <v>1350000</v>
+        <v>1100000</v>
       </c>
       <c r="F113" s="1">
-        <v>44809.50266203703</v>
+        <v>44809.507372685184</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>4319975</v>
+        <v>4320241</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D114">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="E114">
-        <v>875000</v>
+        <v>790000</v>
       </c>
       <c r="F114" s="1">
-        <v>44809.382685185185</v>
+        <v>44809.50716435185</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>4319904</v>
+        <v>4320234</v>
       </c>
       <c r="B115" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C115" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D115">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="E115">
-        <v>600000</v>
+        <v>558000</v>
       </c>
       <c r="F115" s="1">
-        <v>44809.376875</v>
+        <v>44809.506261574075</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>4289884</v>
+        <v>4320208</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C116" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D116">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="E116">
-        <v>240000</v>
+        <v>684000</v>
       </c>
       <c r="F116" s="1">
-        <v>44784.44188657407</v>
+        <v>44809.50413194444</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>4243364</v>
+        <v>4320206</v>
       </c>
       <c r="B117" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="C117" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D117">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E117">
-        <v>1000000</v>
+        <v>270000</v>
       </c>
       <c r="F117" s="1">
-        <v>44750.76640046296</v>
+        <v>44809.504108796296</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>4238463</v>
+        <v>4320205</v>
       </c>
       <c r="B118" t="s">
         <v>209</v>
       </c>
       <c r="C118" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D118">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="E118">
-        <v>100000</v>
+        <v>1613000</v>
       </c>
       <c r="F118" s="1">
-        <v>44747.54550925926</v>
+        <v>44809.50409722222</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>4232186</v>
+        <v>4320181</v>
       </c>
       <c r="B119" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C119" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D119">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="E119">
-        <v>275000</v>
+        <v>1350000</v>
       </c>
       <c r="F119" s="1">
-        <v>44743.36004629629</v>
+        <v>44809.50266203703</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4169238</v>
+        <v>4319975</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C120" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D120">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="E120">
-        <v>1750000</v>
+        <v>875000</v>
       </c>
       <c r="F120" s="1">
-        <v>44694.63559027778</v>
+        <v>44809.382685185185</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>4088917</v>
+        <v>4319904</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="C121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D121">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="E121">
-        <v>345000</v>
+        <v>600000</v>
       </c>
       <c r="F121" s="1">
-        <v>44641.631574074076</v>
+        <v>44809.376875</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>3868167</v>
+        <v>4289884</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C122" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D122">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="E122">
-        <v>520000</v>
+        <v>240000</v>
       </c>
       <c r="F122" s="1">
-        <v>44490.56721064815</v>
+        <v>44784.44188657407</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>3838209</v>
+        <v>4243364</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
         <v>220</v>
       </c>
       <c r="D123">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="E123">
-        <v>995000</v>
+        <v>1000000</v>
       </c>
       <c r="F123" s="1">
-        <v>44472.749930555554</v>
+        <v>44750.76640046296</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>3790051</v>
+        <v>4238463</v>
       </c>
       <c r="B124" t="s">
         <v>221</v>
@@ -3478,18 +3478,18 @@
         <v>222</v>
       </c>
       <c r="D124">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="E124">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="F124" s="1">
-        <v>44430.71445601852</v>
+        <v>44747.54550925926</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>3702715</v>
+        <v>4232186</v>
       </c>
       <c r="B125" t="s">
         <v>223</v>
@@ -3498,18 +3498,18 @@
         <v>224</v>
       </c>
       <c r="D125">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E125">
-        <v>531000</v>
+        <v>275000</v>
       </c>
       <c r="F125" s="1">
-        <v>44362.63402777778</v>
+        <v>44743.36004629629</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>2798457</v>
+        <v>4169238</v>
       </c>
       <c r="B126" t="s">
         <v>225</v>
@@ -3518,13 +3518,13 @@
         <v>226</v>
       </c>
       <c r="D126">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="E126">
-        <v>280000</v>
+        <v>1750000</v>
       </c>
       <c r="F126" s="1">
-        <v>43916.36009259259</v>
+        <v>44694.63559027778</v>
       </c>
     </row>
   </sheetData>

--- a/Bazaraki.xlsx
+++ b/Bazaraki.xlsx
@@ -34,18 +34,18 @@
     <t>Дата создания объявления</t>
   </si>
   <si>
+    <t>Shop in leoforos omonoias limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4721374_shop-in-leoforos-omonoias/</t>
+  </si>
+  <si>
     <t>Exceptional office space in limassol center</t>
   </si>
   <si>
     <t>https://www.bazaraki.com/adv/4717864_exceptional-office-space-in-limassol-center/</t>
   </si>
   <si>
-    <t>Γραφειο στο κέντρο της πολης</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4717648_grapheio-sto-kentro-tes-poles/</t>
-  </si>
-  <si>
     <t>Office in agias zonis area</t>
   </si>
   <si>
@@ -88,12 +88,6 @@
     <t>https://www.bazaraki.com/adv/4707466_shop-in-limassol-cyprus/</t>
   </si>
   <si>
-    <t>Shop, retail, central location</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4707211_shop-retail-central-location/</t>
-  </si>
-  <si>
     <t>Office, near new port</t>
   </si>
   <si>
@@ -295,12 +289,6 @@
     <t>https://www.bazaraki.com/adv/4652937_commercial-office-in-katholiki-limassol/</t>
   </si>
   <si>
-    <t>120m office space in kato polemidia, limassol</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4646972_120m-office-space-in-kato-polemidia-limassol/</t>
-  </si>
-  <si>
     <t>231sqm office in agios athanasios</t>
   </si>
   <si>
@@ -403,7 +391,7 @@
     <t>https://www.bazaraki.com/adv/4558998_shop-a-at-agias-fylaxeos/</t>
   </si>
   <si>
-    <t>Famous restaurant</t>
+    <t>Ресторан - caffe с лицензией технического директора</t>
   </si>
   <si>
     <t>https://www.bazaraki.com/adv/4535313_restorant-in-tourist-area/</t>
@@ -695,6 +683,18 @@
   </si>
   <si>
     <t>https://www.bazaraki.com/adv/4169238_shop-in-germasogeia/</t>
+  </si>
+  <si>
+    <t>120sqm office in agios nikolaos, limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4088917_120sqm-office-in-agios-nikolaos-limassol/</t>
+  </si>
+  <si>
+    <t>Commercial store in limassol centre</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/3868167_commercial-store-in-limassol-centre/</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>4717864</v>
+        <v>4721374</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1038,18 +1038,18 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="E2">
-        <v>368000</v>
+        <v>120000</v>
       </c>
       <c r="F2" s="1">
-        <v>45068.51038194444</v>
+        <v>45070.55881944444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>4717648</v>
+        <v>4717864</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1058,13 +1058,13 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="E3">
-        <v>240000</v>
+        <v>368000</v>
       </c>
       <c r="F3" s="1">
-        <v>45068.432442129626</v>
+        <v>45068.51038194444</v>
       </c>
     </row>
     <row r="4">
@@ -1229,7 +1229,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4707211</v>
+        <v>4707171</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1238,18 +1238,18 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="E12">
-        <v>299000</v>
+        <v>370000</v>
       </c>
       <c r="F12" s="1">
-        <v>45062.64388888889</v>
+        <v>45062.64212962963</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>4707171</v>
+        <v>4707148</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1258,18 +1258,18 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E13">
-        <v>370000</v>
+        <v>550000</v>
       </c>
       <c r="F13" s="1">
-        <v>45062.64212962963</v>
+        <v>45062.640752314815</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>4707148</v>
+        <v>4704575</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -1278,18 +1278,18 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E14">
-        <v>550000</v>
+        <v>368000</v>
       </c>
       <c r="F14" s="1">
-        <v>45062.640752314815</v>
+        <v>45061.41887731481</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>4704575</v>
+        <v>4701709</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1298,18 +1298,18 @@
         <v>31</v>
       </c>
       <c r="D15">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="E15">
-        <v>368000</v>
+        <v>1600000</v>
       </c>
       <c r="F15" s="1">
-        <v>45061.41887731481</v>
+        <v>45058.62601851852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>4701709</v>
+        <v>4701313</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -1318,18 +1318,18 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="E16">
-        <v>1600000</v>
+        <v>660000</v>
       </c>
       <c r="F16" s="1">
-        <v>45058.62601851852</v>
+        <v>45058.42391203704</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>4701313</v>
+        <v>4701114</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1338,18 +1338,18 @@
         <v>35</v>
       </c>
       <c r="D17">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E17">
-        <v>660000</v>
+        <v>1600000</v>
       </c>
       <c r="F17" s="1">
-        <v>45058.42391203704</v>
+        <v>45058.37673611111</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>4701114</v>
+        <v>4700356</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -1358,18 +1358,18 @@
         <v>37</v>
       </c>
       <c r="D18">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="E18">
-        <v>1600000</v>
+        <v>280000</v>
       </c>
       <c r="F18" s="1">
-        <v>45058.37673611111</v>
+        <v>45057.62741898148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>4700356</v>
+        <v>4699442</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -1384,12 +1384,12 @@
         <v>280000</v>
       </c>
       <c r="F19" s="1">
-        <v>45057.62741898148</v>
+        <v>45057.377222222225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>4699442</v>
+        <v>4699342</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -1398,18 +1398,18 @@
         <v>41</v>
       </c>
       <c r="D20">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="E20">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="F20" s="1">
-        <v>45057.377222222225</v>
+        <v>45057.33484953704</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>4699342</v>
+        <v>4698805</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -1418,58 +1418,58 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="E21">
-        <v>500000</v>
+        <v>850000</v>
       </c>
       <c r="F21" s="1">
-        <v>45057.33484953704</v>
+        <v>45056.751655092594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>4698805</v>
+        <v>4698554</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
       </c>
       <c r="D22">
         <v>138</v>
       </c>
       <c r="E22">
-        <v>850000</v>
+        <v>805000</v>
       </c>
       <c r="F22" s="1">
-        <v>45056.751655092594</v>
+        <v>45056.62635416666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>4698554</v>
+        <v>4697055</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="D23">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E23">
-        <v>805000</v>
+        <v>300000</v>
       </c>
       <c r="F23" s="1">
-        <v>45056.62635416666</v>
+        <v>45055.605844907404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>4697055</v>
+        <v>4696705</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -1478,18 +1478,18 @@
         <v>48</v>
       </c>
       <c r="D24">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="E24">
-        <v>300000</v>
+        <v>540000</v>
       </c>
       <c r="F24" s="1">
-        <v>45055.605844907404</v>
+        <v>45055.50114583333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>4696705</v>
+        <v>4696508</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -1498,18 +1498,18 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E25">
-        <v>540000</v>
+        <v>1200000</v>
       </c>
       <c r="F25" s="1">
-        <v>45055.50114583333</v>
+        <v>45055.407534722224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4696508</v>
+        <v>4696481</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -1518,18 +1518,18 @@
         <v>52</v>
       </c>
       <c r="D26">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="E26">
-        <v>1200000</v>
+        <v>480000</v>
       </c>
       <c r="F26" s="1">
-        <v>45055.407534722224</v>
+        <v>45055.40008101852</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>4696481</v>
+        <v>4696385</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -1538,18 +1538,18 @@
         <v>54</v>
       </c>
       <c r="D27">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="E27">
-        <v>480000</v>
+        <v>2200000</v>
       </c>
       <c r="F27" s="1">
-        <v>45055.40008101852</v>
+        <v>45055.369791666664</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>4696385</v>
+        <v>4696376</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
@@ -1558,18 +1558,18 @@
         <v>56</v>
       </c>
       <c r="D28">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="E28">
-        <v>2200000</v>
+        <v>600000</v>
       </c>
       <c r="F28" s="1">
-        <v>45055.369791666664</v>
+        <v>45055.365949074076</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>4696376</v>
+        <v>4696237</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -1578,18 +1578,18 @@
         <v>58</v>
       </c>
       <c r="D29">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>600000</v>
+        <v>360000</v>
       </c>
       <c r="F29" s="1">
-        <v>45055.365949074076</v>
+        <v>45055.29398148148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>4696237</v>
+        <v>4691228</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -1598,58 +1598,58 @@
         <v>60</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E30">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="F30" s="1">
-        <v>45055.29398148148</v>
+        <v>45051.376435185186</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>4691228</v>
+        <v>4687890</v>
       </c>
       <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
       <c r="D31">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E31">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="F31" s="1">
-        <v>45051.376435185186</v>
+        <v>45048.75144675926</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>4687890</v>
+        <v>4686980</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
       </c>
       <c r="D32">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="E32">
-        <v>1500000</v>
+        <v>1237186</v>
       </c>
       <c r="F32" s="1">
-        <v>45048.75144675926</v>
+        <v>45048.37636574074</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>4686980</v>
+        <v>4686827</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
@@ -1658,18 +1658,18 @@
         <v>65</v>
       </c>
       <c r="D33">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="E33">
-        <v>1237186</v>
+        <v>95000</v>
       </c>
       <c r="F33" s="1">
-        <v>45048.37636574074</v>
+        <v>45048.295949074076</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>4686827</v>
+        <v>4684174</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
@@ -1678,18 +1678,18 @@
         <v>67</v>
       </c>
       <c r="D34">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="E34">
-        <v>95000</v>
+        <v>1500000</v>
       </c>
       <c r="F34" s="1">
-        <v>45048.295949074076</v>
+        <v>45045.50996527778</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>4684174</v>
+        <v>4683331</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
@@ -1698,18 +1698,18 @@
         <v>69</v>
       </c>
       <c r="D35">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E35">
-        <v>1500000</v>
+        <v>2210200</v>
       </c>
       <c r="F35" s="1">
-        <v>45045.50996527778</v>
+        <v>45044.62634259259</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>4683331</v>
+        <v>4682762</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
@@ -1718,18 +1718,18 @@
         <v>71</v>
       </c>
       <c r="D36">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="E36">
-        <v>2210200</v>
+        <v>565000</v>
       </c>
       <c r="F36" s="1">
-        <v>45044.62634259259</v>
+        <v>45044.375810185185</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>4682762</v>
+        <v>4679181</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -1738,18 +1738,18 @@
         <v>73</v>
       </c>
       <c r="D37">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="E37">
-        <v>565000</v>
+        <v>1000000</v>
       </c>
       <c r="F37" s="1">
-        <v>45044.375810185185</v>
+        <v>45041.756875</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>4679181</v>
+        <v>4676005</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
@@ -1758,58 +1758,58 @@
         <v>75</v>
       </c>
       <c r="D38">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="E38">
-        <v>1000000</v>
+        <v>180000</v>
       </c>
       <c r="F38" s="1">
-        <v>45041.756875</v>
+        <v>45040.37637731482</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>4676005</v>
+        <v>4676002</v>
       </c>
       <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
         <v>76</v>
       </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
       <c r="D39">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="E39">
-        <v>180000</v>
+        <v>1009483</v>
       </c>
       <c r="F39" s="1">
-        <v>45040.37637731482</v>
+        <v>45040.37619212963</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4676002</v>
+        <v>4673588</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>78</v>
       </c>
       <c r="D40">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="E40">
-        <v>1009483</v>
+        <v>611000</v>
       </c>
       <c r="F40" s="1">
-        <v>45040.37619212963</v>
+        <v>45037.75806712963</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>4673588</v>
+        <v>4672684</v>
       </c>
       <c r="B41" t="s">
         <v>79</v>
@@ -1818,18 +1818,18 @@
         <v>80</v>
       </c>
       <c r="D41">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="E41">
-        <v>611000</v>
+        <v>1600000</v>
       </c>
       <c r="F41" s="1">
-        <v>45037.75806712963</v>
+        <v>45037.414189814815</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>4672684</v>
+        <v>4668267</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
@@ -1838,18 +1838,18 @@
         <v>82</v>
       </c>
       <c r="D42">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="E42">
-        <v>1600000</v>
+        <v>450000</v>
       </c>
       <c r="F42" s="1">
-        <v>45037.414189814815</v>
+        <v>45034.28559027778</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>4668267</v>
+        <v>4664079</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -1858,18 +1858,18 @@
         <v>84</v>
       </c>
       <c r="D43">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="E43">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="F43" s="1">
-        <v>45034.28559027778</v>
+        <v>45029.50099537037</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>4664079</v>
+        <v>4662382</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
@@ -1878,18 +1878,18 @@
         <v>86</v>
       </c>
       <c r="D44">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E44">
         <v>360000</v>
       </c>
       <c r="F44" s="1">
-        <v>45029.50099537037</v>
+        <v>45028.376388888886</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>4662382</v>
+        <v>4654221</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -1898,18 +1898,18 @@
         <v>88</v>
       </c>
       <c r="D45">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c r="E45">
-        <v>360000</v>
+        <v>565000</v>
       </c>
       <c r="F45" s="1">
-        <v>45028.376388888886</v>
+        <v>45022.37645833333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>4654221</v>
+        <v>4652937</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
@@ -1924,12 +1924,12 @@
         <v>565000</v>
       </c>
       <c r="F46" s="1">
-        <v>45022.37645833333</v>
+        <v>45021.500972222224</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>4652937</v>
+        <v>4644332</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
@@ -1938,18 +1938,18 @@
         <v>92</v>
       </c>
       <c r="D47">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E47">
-        <v>565000</v>
+        <v>1517000</v>
       </c>
       <c r="F47" s="1">
-        <v>45021.500972222224</v>
+        <v>45015.38422453704</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>4646972</v>
+        <v>4644331</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -1958,18 +1958,18 @@
         <v>94</v>
       </c>
       <c r="D48">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E48">
-        <v>210000</v>
+        <v>1532000</v>
       </c>
       <c r="F48" s="1">
-        <v>45016.7515625</v>
+        <v>45015.38422453704</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>4644332</v>
+        <v>4644329</v>
       </c>
       <c r="B49" t="s">
         <v>95</v>
@@ -1978,18 +1978,18 @@
         <v>96</v>
       </c>
       <c r="D49">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E49">
-        <v>1517000</v>
+        <v>1215000</v>
       </c>
       <c r="F49" s="1">
-        <v>45015.38422453704</v>
+        <v>45015.384201388886</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>4644331</v>
+        <v>4644328</v>
       </c>
       <c r="B50" t="s">
         <v>97</v>
@@ -1998,98 +1998,98 @@
         <v>98</v>
       </c>
       <c r="D50">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="E50">
-        <v>1532000</v>
+        <v>611000</v>
       </c>
       <c r="F50" s="1">
-        <v>45015.38422453704</v>
+        <v>45015.384201388886</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>4644329</v>
+        <v>4633169</v>
       </c>
       <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="C51" t="s">
-        <v>100</v>
-      </c>
       <c r="D51">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="E51">
-        <v>1215000</v>
+        <v>1115000</v>
       </c>
       <c r="F51" s="1">
-        <v>45015.384201388886</v>
+        <v>45013.75430555556</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>4644328</v>
+        <v>4633167</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D52">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="E52">
-        <v>611000</v>
+        <v>920000</v>
       </c>
       <c r="F52" s="1">
-        <v>45015.384201388886</v>
+        <v>45013.754270833335</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>4633169</v>
+        <v>4632180</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D53">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E53">
-        <v>1115000</v>
+        <v>540000</v>
       </c>
       <c r="F53" s="1">
-        <v>45013.75430555556</v>
+        <v>45013.63730324074</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>4633167</v>
+        <v>4617232</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
         <v>104</v>
       </c>
       <c r="D54">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="E54">
-        <v>920000</v>
+        <v>2527435</v>
       </c>
       <c r="F54" s="1">
-        <v>45013.754270833335</v>
+        <v>45009.50215277778</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>4632180</v>
+        <v>4617230</v>
       </c>
       <c r="B55" t="s">
         <v>105</v>
@@ -2098,18 +2098,18 @@
         <v>106</v>
       </c>
       <c r="D55">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E55">
-        <v>540000</v>
+        <v>3188280</v>
       </c>
       <c r="F55" s="1">
-        <v>45013.63730324074</v>
+        <v>45009.502071759256</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>4617232</v>
+        <v>4611644</v>
       </c>
       <c r="B56" t="s">
         <v>107</v>
@@ -2118,18 +2118,18 @@
         <v>108</v>
       </c>
       <c r="D56">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E56">
-        <v>2527435</v>
+        <v>1047434</v>
       </c>
       <c r="F56" s="1">
-        <v>45009.50215277778</v>
+        <v>45008.37600694445</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>4617230</v>
+        <v>4604346</v>
       </c>
       <c r="B57" t="s">
         <v>109</v>
@@ -2138,18 +2138,18 @@
         <v>110</v>
       </c>
       <c r="D57">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="E57">
-        <v>3188280</v>
+        <v>2500000</v>
       </c>
       <c r="F57" s="1">
-        <v>45009.502071759256</v>
+        <v>45005.37855324074</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>4611644</v>
+        <v>4601359</v>
       </c>
       <c r="B58" t="s">
         <v>111</v>
@@ -2158,18 +2158,18 @@
         <v>112</v>
       </c>
       <c r="D58">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E58">
-        <v>1047434</v>
+        <v>600000</v>
       </c>
       <c r="F58" s="1">
-        <v>45008.37600694445</v>
+        <v>45002.758472222224</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>4604346</v>
+        <v>4591859</v>
       </c>
       <c r="B59" t="s">
         <v>113</v>
@@ -2178,18 +2178,18 @@
         <v>114</v>
       </c>
       <c r="D59">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="E59">
-        <v>2500000</v>
+        <v>750000</v>
       </c>
       <c r="F59" s="1">
-        <v>45005.37855324074</v>
+        <v>45000.357881944445</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>4601359</v>
+        <v>4591367</v>
       </c>
       <c r="B60" t="s">
         <v>115</v>
@@ -2198,18 +2198,18 @@
         <v>116</v>
       </c>
       <c r="D60">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="E60">
-        <v>600000</v>
+        <v>2012000</v>
       </c>
       <c r="F60" s="1">
-        <v>45002.758472222224</v>
+        <v>44999.756898148145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>4591859</v>
+        <v>4582432</v>
       </c>
       <c r="B61" t="s">
         <v>117</v>
@@ -2218,18 +2218,18 @@
         <v>118</v>
       </c>
       <c r="D61">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="E61">
-        <v>750000</v>
+        <v>360000</v>
       </c>
       <c r="F61" s="1">
-        <v>45000.357881944445</v>
+        <v>44994.38015046297</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>4591367</v>
+        <v>4579437</v>
       </c>
       <c r="B62" t="s">
         <v>119</v>
@@ -2238,18 +2238,18 @@
         <v>120</v>
       </c>
       <c r="D62">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E62">
-        <v>2012000</v>
+        <v>520000</v>
       </c>
       <c r="F62" s="1">
-        <v>44999.756898148145</v>
+        <v>44992.501493055555</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>4582432</v>
+        <v>4559059</v>
       </c>
       <c r="B63" t="s">
         <v>121</v>
@@ -2258,18 +2258,18 @@
         <v>122</v>
       </c>
       <c r="D63">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E63">
-        <v>360000</v>
+        <v>395000</v>
       </c>
       <c r="F63" s="1">
-        <v>44994.38015046297</v>
+        <v>44977.801782407405</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>4579437</v>
+        <v>4558998</v>
       </c>
       <c r="B64" t="s">
         <v>123</v>
@@ -2278,18 +2278,18 @@
         <v>124</v>
       </c>
       <c r="D64">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="E64">
-        <v>520000</v>
+        <v>495000</v>
       </c>
       <c r="F64" s="1">
-        <v>44992.501493055555</v>
+        <v>44977.76740740741</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>4559059</v>
+        <v>4535313</v>
       </c>
       <c r="B65" t="s">
         <v>125</v>
@@ -2298,18 +2298,18 @@
         <v>126</v>
       </c>
       <c r="D65">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="E65">
-        <v>395000</v>
+        <v>495000</v>
       </c>
       <c r="F65" s="1">
-        <v>44977.801782407405</v>
+        <v>44960.231261574074</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>4558998</v>
+        <v>4524871</v>
       </c>
       <c r="B66" t="s">
         <v>127</v>
@@ -2318,18 +2318,18 @@
         <v>128</v>
       </c>
       <c r="D66">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="E66">
-        <v>495000</v>
+        <v>110000</v>
       </c>
       <c r="F66" s="1">
-        <v>44977.76740740741</v>
+        <v>44952.604837962965</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>4535313</v>
+        <v>4522275</v>
       </c>
       <c r="B67" t="s">
         <v>129</v>
@@ -2338,358 +2338,358 @@
         <v>130</v>
       </c>
       <c r="D67">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E67">
-        <v>495000</v>
+        <v>2015000</v>
       </c>
       <c r="F67" s="1">
-        <v>44960.231261574074</v>
+        <v>44950.8783912037</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>4524871</v>
+        <v>4521842</v>
       </c>
       <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
         <v>131</v>
       </c>
-      <c r="C68" t="s">
-        <v>132</v>
-      </c>
       <c r="D68">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E68">
-        <v>110000</v>
+        <v>607000</v>
       </c>
       <c r="F68" s="1">
-        <v>44952.604837962965</v>
+        <v>44950.769791666666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>4522275</v>
+        <v>4521833</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D69">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E69">
-        <v>2015000</v>
+        <v>632000</v>
       </c>
       <c r="F69" s="1">
-        <v>44950.8783912037</v>
+        <v>44950.76898148148</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>4521842</v>
+        <v>4521832</v>
       </c>
       <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
         <v>133</v>
       </c>
-      <c r="C70" t="s">
-        <v>135</v>
-      </c>
       <c r="D70">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E70">
-        <v>607000</v>
+        <v>688000</v>
       </c>
       <c r="F70" s="1">
-        <v>44950.769791666666</v>
+        <v>44950.76887731482</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>4521833</v>
+        <v>4521826</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D71">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E71">
-        <v>632000</v>
+        <v>698000</v>
       </c>
       <c r="F71" s="1">
-        <v>44950.76898148148</v>
+        <v>44950.76829861111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>4521832</v>
+        <v>4521821</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D72">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E72">
-        <v>688000</v>
+        <v>622000</v>
       </c>
       <c r="F72" s="1">
-        <v>44950.76887731482</v>
+        <v>44950.7678125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>4521826</v>
+        <v>4521820</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D73">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E73">
-        <v>698000</v>
+        <v>2016000</v>
       </c>
       <c r="F73" s="1">
-        <v>44950.76829861111</v>
+        <v>44950.767696759256</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>4521821</v>
+        <v>4521817</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D74">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E74">
-        <v>622000</v>
+        <v>1245000</v>
       </c>
       <c r="F74" s="1">
-        <v>44950.7678125</v>
+        <v>44950.7674537037</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>4521820</v>
+        <v>4521808</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D75">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E75">
-        <v>2016000</v>
+        <v>725000</v>
       </c>
       <c r="F75" s="1">
-        <v>44950.767696759256</v>
+        <v>44950.76645833333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>4521817</v>
+        <v>4521800</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D76">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E76">
-        <v>1245000</v>
+        <v>673000</v>
       </c>
       <c r="F76" s="1">
-        <v>44950.7674537037</v>
+        <v>44950.7659375</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>4521808</v>
+        <v>4521781</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D77">
         <v>101</v>
       </c>
       <c r="E77">
-        <v>725000</v>
+        <v>735037</v>
       </c>
       <c r="F77" s="1">
-        <v>44950.76645833333</v>
+        <v>44950.76415509259</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>4521800</v>
+        <v>4521774</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D78">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E78">
-        <v>673000</v>
+        <v>1243000</v>
       </c>
       <c r="F78" s="1">
-        <v>44950.7659375</v>
+        <v>44950.76336805556</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>4521781</v>
+        <v>4521767</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D79">
         <v>101</v>
       </c>
       <c r="E79">
-        <v>735037</v>
+        <v>710000</v>
       </c>
       <c r="F79" s="1">
-        <v>44950.76415509259</v>
+        <v>44950.762777777774</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>4521774</v>
+        <v>4520216</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="E80">
-        <v>1243000</v>
+        <v>220000</v>
       </c>
       <c r="F80" s="1">
-        <v>44950.76336805556</v>
+        <v>44950.326840277776</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>4521767</v>
+        <v>4516435</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
         <v>146</v>
       </c>
       <c r="D81">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="E81">
-        <v>710000</v>
+        <v>2460000</v>
       </c>
       <c r="F81" s="1">
-        <v>44950.762777777774</v>
+        <v>44946.761608796296</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>4520216</v>
+        <v>4516434</v>
       </c>
       <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" t="s">
         <v>147</v>
       </c>
-      <c r="C82" t="s">
-        <v>148</v>
-      </c>
       <c r="D82">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="E82">
-        <v>220000</v>
+        <v>1410000</v>
       </c>
       <c r="F82" s="1">
-        <v>44950.326840277776</v>
+        <v>44946.7615625</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>4516435</v>
+        <v>4516433</v>
       </c>
       <c r="B83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" t="s">
         <v>149</v>
       </c>
-      <c r="C83" t="s">
-        <v>150</v>
-      </c>
       <c r="D83">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E83">
-        <v>2460000</v>
+        <v>1648000</v>
       </c>
       <c r="F83" s="1">
-        <v>44946.761608796296</v>
+        <v>44946.76150462963</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>4516434</v>
+        <v>4516432</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
         <v>151</v>
       </c>
       <c r="D84">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="E84">
-        <v>1410000</v>
+        <v>1660000</v>
       </c>
       <c r="F84" s="1">
-        <v>44946.7615625</v>
+        <v>44946.76144675926</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>4516433</v>
+        <v>4514111</v>
       </c>
       <c r="B85" t="s">
         <v>152</v>
@@ -2698,18 +2698,18 @@
         <v>153</v>
       </c>
       <c r="D85">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="E85">
-        <v>1648000</v>
+        <v>350000</v>
       </c>
       <c r="F85" s="1">
-        <v>44946.76150462963</v>
+        <v>44945.50115740741</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>4516432</v>
+        <v>4506739</v>
       </c>
       <c r="B86" t="s">
         <v>154</v>
@@ -2718,78 +2718,78 @@
         <v>155</v>
       </c>
       <c r="D86">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="E86">
-        <v>1660000</v>
+        <v>170000</v>
       </c>
       <c r="F86" s="1">
-        <v>44946.76144675926</v>
+        <v>44939.50289351852</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>4514111</v>
+        <v>4499649</v>
       </c>
       <c r="B87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" t="s">
         <v>156</v>
       </c>
-      <c r="C87" t="s">
-        <v>157</v>
-      </c>
       <c r="D87">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E87">
-        <v>350000</v>
+        <v>698000</v>
       </c>
       <c r="F87" s="1">
-        <v>44945.50115740741</v>
+        <v>44933.751296296294</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>4506739</v>
+        <v>4497393</v>
       </c>
       <c r="B88" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" t="s">
         <v>158</v>
       </c>
-      <c r="C88" t="s">
-        <v>159</v>
-      </c>
       <c r="D88">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="E88">
-        <v>170000</v>
+        <v>1648000</v>
       </c>
       <c r="F88" s="1">
-        <v>44939.50289351852</v>
+        <v>44931.56686342593</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>4499649</v>
+        <v>4497223</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
         <v>160</v>
       </c>
       <c r="D89">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E89">
-        <v>698000</v>
+        <v>345000</v>
       </c>
       <c r="F89" s="1">
-        <v>44933.751296296294</v>
+        <v>44931.50104166667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>4497393</v>
+        <v>4496890</v>
       </c>
       <c r="B90" t="s">
         <v>161</v>
@@ -2798,18 +2798,18 @@
         <v>162</v>
       </c>
       <c r="D90">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E90">
-        <v>1648000</v>
+        <v>600000</v>
       </c>
       <c r="F90" s="1">
-        <v>44931.56686342593</v>
+        <v>44931.35283564815</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>4497223</v>
+        <v>4496881</v>
       </c>
       <c r="B91" t="s">
         <v>163</v>
@@ -2818,18 +2818,18 @@
         <v>164</v>
       </c>
       <c r="D91">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="E91">
-        <v>345000</v>
+        <v>1100000</v>
       </c>
       <c r="F91" s="1">
-        <v>44931.50104166667</v>
+        <v>44931.34831018518</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>4496890</v>
+        <v>4496874</v>
       </c>
       <c r="B92" t="s">
         <v>165</v>
@@ -2838,18 +2838,18 @@
         <v>166</v>
       </c>
       <c r="D92">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E92">
         <v>600000</v>
       </c>
       <c r="F92" s="1">
-        <v>44931.35283564815</v>
+        <v>44931.34423611111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>4496881</v>
+        <v>4488254</v>
       </c>
       <c r="B93" t="s">
         <v>167</v>
@@ -2858,18 +2858,18 @@
         <v>168</v>
       </c>
       <c r="D93">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="E93">
-        <v>1100000</v>
+        <v>1539683</v>
       </c>
       <c r="F93" s="1">
-        <v>44931.34831018518</v>
+        <v>44922.62599537037</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>4496874</v>
+        <v>4484881</v>
       </c>
       <c r="B94" t="s">
         <v>169</v>
@@ -2878,18 +2878,18 @@
         <v>170</v>
       </c>
       <c r="D94">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="E94">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="F94" s="1">
-        <v>44931.34423611111</v>
+        <v>44917.88123842593</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>4488254</v>
+        <v>4434038</v>
       </c>
       <c r="B95" t="s">
         <v>171</v>
@@ -2898,18 +2898,18 @@
         <v>172</v>
       </c>
       <c r="D95">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E95">
-        <v>1539683</v>
+        <v>1200000</v>
       </c>
       <c r="F95" s="1">
-        <v>44922.62599537037</v>
+        <v>44890.362222222226</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>4484881</v>
+        <v>4429787</v>
       </c>
       <c r="B96" t="s">
         <v>173</v>
@@ -2918,98 +2918,98 @@
         <v>174</v>
       </c>
       <c r="D96">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="E96">
-        <v>500000</v>
+        <v>70000</v>
       </c>
       <c r="F96" s="1">
-        <v>44917.88123842593</v>
+        <v>44888.7127662037</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>4434038</v>
+        <v>4418604</v>
       </c>
       <c r="B97" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" t="s">
         <v>175</v>
       </c>
-      <c r="C97" t="s">
-        <v>176</v>
-      </c>
       <c r="D97">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="E97">
-        <v>1200000</v>
+        <v>320000</v>
       </c>
       <c r="F97" s="1">
-        <v>44890.362222222226</v>
+        <v>44880.50134259259</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>4429787</v>
+        <v>4413895</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D98">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="E98">
-        <v>70000</v>
+        <v>2020000</v>
       </c>
       <c r="F98" s="1">
-        <v>44888.7127662037</v>
+        <v>44876.37604166667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>4418604</v>
+        <v>4381872</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D99">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="E99">
-        <v>320000</v>
+        <v>1275137</v>
       </c>
       <c r="F99" s="1">
-        <v>44880.50134259259</v>
+        <v>44852.6440625</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>4413895</v>
+        <v>4381871</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C100" t="s">
         <v>180</v>
       </c>
       <c r="D100">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="E100">
-        <v>2020000</v>
+        <v>1001849</v>
       </c>
       <c r="F100" s="1">
-        <v>44876.37604166667</v>
+        <v>44852.6440162037</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>4381872</v>
+        <v>4381322</v>
       </c>
       <c r="B101" t="s">
         <v>181</v>
@@ -3018,18 +3018,18 @@
         <v>182</v>
       </c>
       <c r="D101">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E101">
-        <v>1275137</v>
+        <v>380000</v>
       </c>
       <c r="F101" s="1">
-        <v>44852.6440625</v>
+        <v>44852.37667824074</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>4381871</v>
+        <v>4373595</v>
       </c>
       <c r="B102" t="s">
         <v>183</v>
@@ -3038,18 +3038,18 @@
         <v>184</v>
       </c>
       <c r="D102">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="E102">
-        <v>1001849</v>
+        <v>980000</v>
       </c>
       <c r="F102" s="1">
-        <v>44852.6440162037</v>
+        <v>44846.53739583334</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>4381322</v>
+        <v>4373594</v>
       </c>
       <c r="B103" t="s">
         <v>185</v>
@@ -3058,18 +3058,18 @@
         <v>186</v>
       </c>
       <c r="D103">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="E103">
-        <v>380000</v>
+        <v>1025000</v>
       </c>
       <c r="F103" s="1">
-        <v>44852.37667824074</v>
+        <v>44846.53738425926</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>4373595</v>
+        <v>4373543</v>
       </c>
       <c r="B104" t="s">
         <v>187</v>
@@ -3078,18 +3078,18 @@
         <v>188</v>
       </c>
       <c r="D104">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="E104">
-        <v>980000</v>
+        <v>1800000</v>
       </c>
       <c r="F104" s="1">
-        <v>44846.53739583334</v>
+        <v>44846.53538194444</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>4373594</v>
+        <v>4372789</v>
       </c>
       <c r="B105" t="s">
         <v>189</v>
@@ -3098,18 +3098,18 @@
         <v>190</v>
       </c>
       <c r="D105">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="E105">
-        <v>1025000</v>
+        <v>1000000</v>
       </c>
       <c r="F105" s="1">
-        <v>44846.53738425926</v>
+        <v>44846.38212962963</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>4373543</v>
+        <v>4371249</v>
       </c>
       <c r="B106" t="s">
         <v>191</v>
@@ -3118,18 +3118,18 @@
         <v>192</v>
       </c>
       <c r="D106">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="E106">
-        <v>1800000</v>
+        <v>1001849</v>
       </c>
       <c r="F106" s="1">
-        <v>44846.53538194444</v>
+        <v>44845.36756944445</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>4372789</v>
+        <v>4371208</v>
       </c>
       <c r="B107" t="s">
         <v>193</v>
@@ -3138,18 +3138,18 @@
         <v>194</v>
       </c>
       <c r="D107">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="E107">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="F107" s="1">
-        <v>44846.38212962963</v>
+        <v>44845.363530092596</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>4371249</v>
+        <v>4368905</v>
       </c>
       <c r="B108" t="s">
         <v>195</v>
@@ -3158,78 +3158,78 @@
         <v>196</v>
       </c>
       <c r="D108">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="E108">
-        <v>1001849</v>
+        <v>805000</v>
       </c>
       <c r="F108" s="1">
-        <v>44845.36756944445</v>
+        <v>44844.39549768518</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>4371208</v>
+        <v>4320354</v>
       </c>
       <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" t="s">
         <v>197</v>
       </c>
-      <c r="C109" t="s">
-        <v>198</v>
-      </c>
       <c r="D109">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="E109">
-        <v>1200000</v>
+        <v>340000</v>
       </c>
       <c r="F109" s="1">
-        <v>44845.363530092596</v>
+        <v>44809.51527777778</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4368905</v>
+        <v>4320275</v>
       </c>
       <c r="B110" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" t="s">
         <v>199</v>
       </c>
-      <c r="C110" t="s">
-        <v>200</v>
-      </c>
       <c r="D110">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E110">
-        <v>805000</v>
+        <v>380000</v>
       </c>
       <c r="F110" s="1">
-        <v>44844.39549768518</v>
+        <v>44809.50917824074</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>4320354</v>
+        <v>4320244</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C111" t="s">
         <v>201</v>
       </c>
       <c r="D111">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E111">
-        <v>340000</v>
+        <v>1100000</v>
       </c>
       <c r="F111" s="1">
-        <v>44809.51527777778</v>
+        <v>44809.507372685184</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>4320275</v>
+        <v>4320241</v>
       </c>
       <c r="B112" t="s">
         <v>202</v>
@@ -3238,238 +3238,238 @@
         <v>203</v>
       </c>
       <c r="D112">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E112">
-        <v>380000</v>
+        <v>790000</v>
       </c>
       <c r="F112" s="1">
-        <v>44809.50917824074</v>
+        <v>44809.50716435185</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>4320244</v>
+        <v>4320234</v>
       </c>
       <c r="B113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" t="s">
         <v>204</v>
       </c>
-      <c r="C113" t="s">
-        <v>205</v>
-      </c>
       <c r="D113">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="E113">
-        <v>1100000</v>
+        <v>558000</v>
       </c>
       <c r="F113" s="1">
-        <v>44809.507372685184</v>
+        <v>44809.506261574075</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>4320241</v>
+        <v>4320208</v>
       </c>
       <c r="B114" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" t="s">
         <v>206</v>
       </c>
-      <c r="C114" t="s">
-        <v>207</v>
-      </c>
       <c r="D114">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="E114">
-        <v>790000</v>
+        <v>684000</v>
       </c>
       <c r="F114" s="1">
-        <v>44809.50716435185</v>
+        <v>44809.50413194444</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>4320234</v>
+        <v>4320206</v>
       </c>
       <c r="B115" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D115">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E115">
-        <v>558000</v>
+        <v>270000</v>
       </c>
       <c r="F115" s="1">
-        <v>44809.506261574075</v>
+        <v>44809.504108796296</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>4320208</v>
+        <v>4320205</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C116" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D116">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E116">
-        <v>684000</v>
+        <v>1613000</v>
       </c>
       <c r="F116" s="1">
-        <v>44809.50413194444</v>
+        <v>44809.50409722222</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>4320206</v>
+        <v>4320181</v>
       </c>
       <c r="B117" t="s">
         <v>209</v>
       </c>
       <c r="C117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D117">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="E117">
-        <v>270000</v>
+        <v>1350000</v>
       </c>
       <c r="F117" s="1">
-        <v>44809.504108796296</v>
+        <v>44809.50266203703</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>4320205</v>
+        <v>4319975</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C118" t="s">
         <v>212</v>
       </c>
       <c r="D118">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E118">
-        <v>1613000</v>
+        <v>875000</v>
       </c>
       <c r="F118" s="1">
-        <v>44809.50409722222</v>
+        <v>44809.382685185185</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>4320181</v>
+        <v>4319904</v>
       </c>
       <c r="B119" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" t="s">
         <v>213</v>
       </c>
-      <c r="C119" t="s">
-        <v>214</v>
-      </c>
       <c r="D119">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E119">
-        <v>1350000</v>
+        <v>600000</v>
       </c>
       <c r="F119" s="1">
-        <v>44809.50266203703</v>
+        <v>44809.376875</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>4319975</v>
+        <v>4289884</v>
       </c>
       <c r="B120" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" t="s">
         <v>215</v>
       </c>
-      <c r="C120" t="s">
-        <v>216</v>
-      </c>
       <c r="D120">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E120">
-        <v>875000</v>
+        <v>240000</v>
       </c>
       <c r="F120" s="1">
-        <v>44809.382685185185</v>
+        <v>44784.44188657407</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>4319904</v>
+        <v>4243364</v>
       </c>
       <c r="B121" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="C121" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D121">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="E121">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="F121" s="1">
-        <v>44809.376875</v>
+        <v>44750.76640046296</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>4289884</v>
+        <v>4238463</v>
       </c>
       <c r="B122" t="s">
+        <v>217</v>
+      </c>
+      <c r="C122" t="s">
         <v>218</v>
       </c>
-      <c r="C122" t="s">
-        <v>219</v>
-      </c>
       <c r="D122">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="E122">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="F122" s="1">
-        <v>44784.44188657407</v>
+        <v>44747.54550925926</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>4243364</v>
+        <v>4232186</v>
       </c>
       <c r="B123" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="C123" t="s">
         <v>220</v>
       </c>
       <c r="D123">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E123">
-        <v>1000000</v>
+        <v>275000</v>
       </c>
       <c r="F123" s="1">
-        <v>44750.76640046296</v>
+        <v>44743.36004629629</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>4238463</v>
+        <v>4169238</v>
       </c>
       <c r="B124" t="s">
         <v>221</v>
@@ -3478,18 +3478,18 @@
         <v>222</v>
       </c>
       <c r="D124">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="E124">
-        <v>100000</v>
+        <v>1750000</v>
       </c>
       <c r="F124" s="1">
-        <v>44747.54550925926</v>
+        <v>44694.63559027778</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>4232186</v>
+        <v>4088917</v>
       </c>
       <c r="B125" t="s">
         <v>223</v>
@@ -3498,18 +3498,18 @@
         <v>224</v>
       </c>
       <c r="D125">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E125">
-        <v>275000</v>
+        <v>345000</v>
       </c>
       <c r="F125" s="1">
-        <v>44743.36004629629</v>
+        <v>44641.631574074076</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>4169238</v>
+        <v>3868167</v>
       </c>
       <c r="B126" t="s">
         <v>225</v>
@@ -3518,13 +3518,13 @@
         <v>226</v>
       </c>
       <c r="D126">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="E126">
-        <v>1750000</v>
+        <v>520000</v>
       </c>
       <c r="F126" s="1">
-        <v>44694.63559027778</v>
+        <v>44490.56721064815</v>
       </c>
     </row>
   </sheetData>

--- a/Bazaraki.xlsx
+++ b/Bazaraki.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="637">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,12 @@
     <t>https://www.bazaraki.com/adv/4721374_shop-in-leoforos-omonoias/</t>
   </si>
   <si>
+    <t>Office in molos area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4719261_seafront-office/</t>
+  </si>
+  <si>
     <t>Exceptional office space in limassol center</t>
   </si>
   <si>
@@ -391,18 +397,12 @@
     <t>https://www.bazaraki.com/adv/4558998_shop-a-at-agias-fylaxeos/</t>
   </si>
   <si>
-    <t>Ресторан - caffe с лицензией технического директора</t>
+    <t>Caffe</t>
   </si>
   <si>
     <t>https://www.bazaraki.com/adv/4535313_restorant-in-tourist-area/</t>
   </si>
   <si>
-    <t>Shop with mezzanine centrally located</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4524871_shop-with-mezzanine-centrally-located/</t>
-  </si>
-  <si>
     <t>Office in limassol</t>
   </si>
   <si>
@@ -658,21 +658,9 @@
     <t>https://www.bazaraki.com/adv/4319904_commercial-shop-in-city-center-limassol/</t>
   </si>
   <si>
-    <t>Εμπορικό κατάστημα ή χώρος για γραφείο αυτοεργοδοτούμενου -</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4289884_emporiko-katastema-e-khoros-gia-grapheio-autoergodotoumenou/</t>
-  </si>
-  <si>
     <t>https://www.bazaraki.com/adv/4243364_shops-and-restaurant-business-at-neapolis/</t>
   </si>
   <si>
-    <t>Restaurant-business</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4238463_restaurant/</t>
-  </si>
-  <si>
     <t>Office 75sqm, molos area, close to limassol marina.</t>
   </si>
   <si>
@@ -695,6 +683,1248 @@
   </si>
   <si>
     <t>https://www.bazaraki.com/adv/3868167_commercial-store-in-limassol-centre/</t>
+  </si>
+  <si>
+    <t>Offices at makarios avenue near enaerios</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/3838209_shops-offices-at-makarios-avenue-near-enaerios/</t>
+  </si>
+  <si>
+    <t>New spacious modern shop with mezzanine - kato polemidia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/3702715_new-spacious-modern-shop-with-mezzanine-kato-polemidia/</t>
+  </si>
+  <si>
+    <t>107m2, ground floor shop at fayza house limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/2798457_shop-at-fayza-house-limassol/</t>
+  </si>
+  <si>
+    <t>Modern office space in neapolis area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4723936_modern-office-space-in-neapolis-area/</t>
+  </si>
+  <si>
+    <t>Office for renton the beach road</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4722495_office-for-renton-the-beach-road/</t>
+  </si>
+  <si>
+    <t>Office of 100 sqm in a city centre</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4722195_office-of-100-sqm-in-a-city-centre/</t>
+  </si>
+  <si>
+    <t>220sqm sea front office in limassol city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4721795_220sqm-sea-front-office-in-limassol-city-center/</t>
+  </si>
+  <si>
+    <t>137sqm sea front office in limassol city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4721794_137sqm-sea-front-office-in-limassol-city-center/</t>
+  </si>
+  <si>
+    <t>230sqm sea front office in limassol city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4721793_230sqm-sea-front-office-in-limassol-city-center/</t>
+  </si>
+  <si>
+    <t>184sqm sea front office in limassol city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4721790_184sqm-sea-front-office-in-limassol-city-center/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4721789_220sqm-sea-front-office-in-limassol-city-center/</t>
+  </si>
+  <si>
+    <t>New designed luxury office building in central location, 200 sqm</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4721613_new-designed-luxury-office-building-in-central-location/</t>
+  </si>
+  <si>
+    <t>Prime office space for your business</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4721480_prime-office-space-for-your-business/</t>
+  </si>
+  <si>
+    <t>Office in enaerios</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4721253_office-in-enaerios/</t>
+  </si>
+  <si>
+    <t>Office ground floor with mezzanine</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4721119_office-ground-floor-with-mezzanine/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4720915_office-in-enaerios/</t>
+  </si>
+  <si>
+    <t>Office in katholiki, limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4720588_office-in-katholiki-limassol/</t>
+  </si>
+  <si>
+    <t>Shop of 129sqm in arch. leontiou a street</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4720201_shop-of-129sqm-in-arch-leontiou-a-street/</t>
+  </si>
+  <si>
+    <t>Modern office space</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4720140_modern-office-space/</t>
+  </si>
+  <si>
+    <t>Offices in nafi area, limassol_id4531</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4719731_offices-in-nafi-area-limassol-id4531/</t>
+  </si>
+  <si>
+    <t>Office in agia zoni limassol cyprus</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4719650_office-in-agia-zoni-limassol-cyprus/</t>
+  </si>
+  <si>
+    <t>150 τ.μ στην θεκλας λυσιωτου 23α</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4719420_enoikiazetai-e-polete-150-t-m-sten-theklas-lusiotou-23a/</t>
+  </si>
+  <si>
+    <t>Αίθουσες διδασκαλίας μέσα γειτονιά λεμεσός</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4719366_aithouses-didaskalias-mesa-geitonia-lemesos/</t>
+  </si>
+  <si>
+    <t>Office potamos germasogias</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4719188_office-potamos-germasogias/</t>
+  </si>
+  <si>
+    <t>Office in agia zoni</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4718330_office-in-agia-zoni/</t>
+  </si>
+  <si>
+    <t>Office or shop</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4718101_office-or-shop/</t>
+  </si>
+  <si>
+    <t>110m2 office city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4717320_110m2-office-city-center/</t>
+  </si>
+  <si>
+    <t>Office in agios nicolaos area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4717225_office-in-agios-nicolaos-area/</t>
+  </si>
+  <si>
+    <t>Prime location office space in central limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4717061_prime-location-office-space-in-central-limassol/</t>
+  </si>
+  <si>
+    <t>Ground floor office in limassol, makariou avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4713887_ground-floor-office-in-limassol-makariou-avenue/</t>
+  </si>
+  <si>
+    <t>Restaurant/bar in limassol, agios tychonas</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4713524_restaurant-bar-in-limassol-agios-tychonas/</t>
+  </si>
+  <si>
+    <t>Renovated office space of 53sq.m.+23sq.m. in agias zonis area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4713087_renovated-office-space-of-53sq-m-23sq-m-in-agias-zonis-area/</t>
+  </si>
+  <si>
+    <t>Offices in neapolis area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4712769_offices-in-neapolis-area/</t>
+  </si>
+  <si>
+    <t>Immaculate</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4712137_immaculate/</t>
+  </si>
+  <si>
+    <t>Office in kapsalos limassol cyprus</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711882_office-in-kapsalos-limassol-cyprus/</t>
+  </si>
+  <si>
+    <t>Office space in limassol, omonia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711596_office-space-in-limassol-omonia/</t>
+  </si>
+  <si>
+    <t>Office in kapsalos</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711560_office-in-kapsalos/</t>
+  </si>
+  <si>
+    <t>Shop / office in monovolikos area, kato polemidia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711460_shop-office-in-monovolikos-area-kato-polemidia/</t>
+  </si>
+  <si>
+    <t>Modern office in ayios nicolaos area limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711429_modern-office-in-ayios-nicolaos-area-limassol/</t>
+  </si>
+  <si>
+    <t>Office spaces in limassol, agias zonis</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711167_office-spaces-in-limassol-agias-zonis/</t>
+  </si>
+  <si>
+    <t>Luxury commercial office</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711152_luxury-commercial-office/</t>
+  </si>
+  <si>
+    <t>Luxury commercial office on business centre</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711102_luxury-commercial-office-on-business-centre/</t>
+  </si>
+  <si>
+    <t>Office 60 sq. meters</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4710626_office-60-sq-meters/</t>
+  </si>
+  <si>
+    <t>Ενοικιάζετε γραφειακός χώρος στο κέντρο λεμεσού/ αγία ζώνη.</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4710542_enoikiazete-grapheiakos-khoros-sto-kentro-lemesou-agia-zone/</t>
+  </si>
+  <si>
+    <t>Office in katholiki limassol cyprus</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4710432_office-in-katholiki-limassol-cyprus/</t>
+  </si>
+  <si>
+    <t>Shop in agia zoni limassol cyprus</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4710431_shop-in-agia-zoni-limassol-cyprus/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4710416_office-in-agia-zoni-limassol-cyprus/</t>
+  </si>
+  <si>
+    <t>Office 135sqm for long term - agias fylaxeos</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4710166_office-135sqm-for-long-term-agias-fylaxeos/</t>
+  </si>
+  <si>
+    <t>Office, sea-front</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4707269_office-sea-front/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4707268_office-sea-front/</t>
+  </si>
+  <si>
+    <t>Office, central location</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4707237_office-central-location/</t>
+  </si>
+  <si>
+    <t>Office, open plan</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4707168_office-open-plan/</t>
+  </si>
+  <si>
+    <t>Shop, office, main road</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4707116_shop-office-main-road/</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4706499_office/</t>
+  </si>
+  <si>
+    <t>Office/ germasogia /tourist area/ limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4706408_office-germasogia-tourist-area-limassol/</t>
+  </si>
+  <si>
+    <t>Office space of 138 sq.m in the center of limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4706383_office-space-of-138-sq-m-in-the-center-of-limassol/</t>
+  </si>
+  <si>
+    <t>Ενοικιαζεται ιατρειο στην οδο θεσσαλονικης</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4706268_enoikiazetai-iatreio-sten-odo-thessalonikes/</t>
+  </si>
+  <si>
+    <t>Office of 90sqm in mesa geitonia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4705490_office-of-90sqm-in-mesa-geitonia/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4705267_office/</t>
+  </si>
+  <si>
+    <t>Office space in limassol, tourist area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4705092_office-space-in-limassol-tourist-area/</t>
+  </si>
+  <si>
+    <t>Luxury office 250 sqm in limassol, city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4704936_luxury-office-250-sqm-in-limassol-city-center/</t>
+  </si>
+  <si>
+    <t>Office space with 1bed room flat</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4703810_office-space-with-1bed-room-flat/</t>
+  </si>
+  <si>
+    <t>Fully furnished office in limassolcity center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4703525_fully-furnished-office-in-city-center/</t>
+  </si>
+  <si>
+    <t>Aίθουσες διδασκαλίας</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4703191_aithouses-didaskalias/</t>
+  </si>
+  <si>
+    <t>Just renovated brand new office in glastonos avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4702337_just-renovated-brand-new-office-in-glastonos-avenue/</t>
+  </si>
+  <si>
+    <t>Spacious modern shop with mezzanine - ypsonas</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4701751_spacious-modern-shop-with-mezzanine-ypsonas/</t>
+  </si>
+  <si>
+    <t>Shop/show room in germassogia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4700643_shop-show-room-in-germassogia/</t>
+  </si>
+  <si>
+    <t>Shop in trachoni main street</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4700582_shop-in-trachoni-main-street/</t>
+  </si>
+  <si>
+    <t>Shop in pyrgos lemesou limassol cyprus</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4699992_shop-in-pyrgos-lemesou-limassol-cyprus/</t>
+  </si>
+  <si>
+    <t>Office space with walking distance to the beach - city centre</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4698292_office-space-with-walking-distance-to-the-beach-city-centre/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4698269_shop-in-agia-zoni-limassol-cyprus/</t>
+  </si>
+  <si>
+    <t>220sqm top floor office in anexartisias, limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4697928_220sqm-top-floor-office-in-anexartisias-limassol/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4697766_office/</t>
+  </si>
+  <si>
+    <t>Office 140 sqm next to district court and municipality park</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4697052_office-140-sqm-next-to-district-court-and-municipality-park/</t>
+  </si>
+  <si>
+    <t>Shop/office space potamos germasogeia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4696462_shop-office-space-potamos-germasogeia/</t>
+  </si>
+  <si>
+    <t>Office in agios nicolaos</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4696446_office-in-agios-nicolaos/</t>
+  </si>
+  <si>
+    <t>250sqm office in enaerios, limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4696407_250sqm-office-in-enaerios-limassol/</t>
+  </si>
+  <si>
+    <t>Καταστημα</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4696360_katastema/</t>
+  </si>
+  <si>
+    <t>Office of 100sqm located in agios nikolaos</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4695763_office-of-100sqm-located-in-agios-nikolaos/</t>
+  </si>
+  <si>
+    <t>Shop or office or show room ground floor</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4695387_shop-or-office-or-show-room-by-year/</t>
+  </si>
+  <si>
+    <t>Shop - agia zoni area - limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4695084_shop-agia-zoni-area-limassol/</t>
+  </si>
+  <si>
+    <t>Office 120 sqm center limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4692710_office-120-sqm-center-limassol/</t>
+  </si>
+  <si>
+    <t>Retail, shop, limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4692100_retail-shop-limassol/</t>
+  </si>
+  <si>
+    <t>Kataστημα - shop</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4690701_katastema-shop/</t>
+  </si>
+  <si>
+    <t>Brand new ofice,150 square meters with 80 square meters balcony</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4689993_brand-new-ofice-150-square-meters-with-80-square-meters-balcony/</t>
+  </si>
+  <si>
+    <t>Office space near new port</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4688816_office-space-near-new-port/</t>
+  </si>
+  <si>
+    <t>Office space in limassol, germasogeia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4688684_office-space-in-limassol-germasogeia/</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4688454_enoikiase/</t>
+  </si>
+  <si>
+    <t>Office space - limassol neapolis</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4688449_office-space-limassol-neapolis/</t>
+  </si>
+  <si>
+    <t>Office space - anexartisias street 3rd floor</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4687591_office-space-anexartisias-street-3rd-floor/</t>
+  </si>
+  <si>
+    <t>Office space in limassol, city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4686986_office-space-in-limassol-city-center/</t>
+  </si>
+  <si>
+    <t>Office/shop at makedonias avenue - kato polemidia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4686838_office-shop-at-makedonias-avenue-kato-polemidia/</t>
+  </si>
+  <si>
+    <t>Office space in the center of limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4686637_office-space-in-the-center-of-limassol/</t>
+  </si>
+  <si>
+    <t>Shop naafi</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4683654_shop-naafi/</t>
+  </si>
+  <si>
+    <t>Modern 243sqm office in agia zoni city centre</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4683579_modern-243sqm-office-in-agia-zoni-city-centre/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4683575_modern-243sqm-office-in-agia-zoni-city-centre/</t>
+  </si>
+  <si>
+    <t>50sqm office in nikolaou pentadromos center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4683254_50sqm-office-in-nikolaou-pentadromos-center/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4683110_office-sea-front/</t>
+  </si>
+  <si>
+    <t>80 sqm office space</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4681967_80-sqm-office-space/</t>
+  </si>
+  <si>
+    <t>Shop in germasogeia tourist area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4681409_shop-in-germasogeia-tourist-area/</t>
+  </si>
+  <si>
+    <t>Office space available on nora court at anexartisias junction with athinon str</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4681336_office-space-available-on-nora-court-at-anexartisias-junction-with-athinon-str/</t>
+  </si>
+  <si>
+    <t>New shop in franklin roosevelt area, limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4681110_new-shop-in-franklin-roosevelt-area-limassol/</t>
+  </si>
+  <si>
+    <t>Office located in mesa geitonia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4680521_office-located-in-mesa-geitonia/</t>
+  </si>
+  <si>
+    <t>Luxury office 250 sqm in limassol, city centre</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4680392_office-in-limassol-city-centre/</t>
+  </si>
+  <si>
+    <t>Γραφειο/ιατρειο</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4679953_grapheio-iatreio/</t>
+  </si>
+  <si>
+    <t>Office space in limassol, historical center area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4679729_office-space-in-limassol-historical-center-area/</t>
+  </si>
+  <si>
+    <t>Serviced office central library old town</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4679670_servied-office-central-library-old-town/</t>
+  </si>
+  <si>
+    <t>Office under renovation in the historic area of limassol city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4679434_office-under-renovation-in-the-historic-area-of-limassol-city-center/</t>
+  </si>
+  <si>
+    <t>Showroom in the city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4679189_showroom-in-the-city-center/</t>
+  </si>
+  <si>
+    <t>City centre offices - st nicholas, makarios avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4678899_city-centre-offices-st-nicholas-makarios-avenue/</t>
+  </si>
+  <si>
+    <t>Available office in glastonos area center of the city</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4678319_available-office-in-glastonos-area-center-of-the-city/</t>
+  </si>
+  <si>
+    <t>Top floor offices of 90sqm with amazing views</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4677573_top-floor-offices-of-90sqm-with-amazing-views/</t>
+  </si>
+  <si>
+    <t>Office space in limassol , agia zoni</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4676001_office-space-in-limassol-agia-zoni/</t>
+  </si>
+  <si>
+    <t>Brand new office or showroom of110 sqm</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4673759_brand-new-office-or-showroom-of110-sqm/</t>
+  </si>
+  <si>
+    <t>Office - mesa geitonia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4673259_office-mesa-geitonia/</t>
+  </si>
+  <si>
+    <t>Fully renovated 250m office- enaerios- parking</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4673033_fully-renovated-250m-office-enaerios-parking/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4672532_fully-renovated-office-building-in-the-city-center/</t>
+  </si>
+  <si>
+    <t>Gym class-room</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4671703_gym-class-room/</t>
+  </si>
+  <si>
+    <t>Office in limassol central location</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4668330_office-in-limassol-central-location/</t>
+  </si>
+  <si>
+    <t>Office of 190 sqm with seaview</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4665935_office-of-190-sqm-with-seaview/</t>
+  </si>
+  <si>
+    <t>Office separated into 9 office spaces</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4663856_office-separated-into-9-office-spaces/</t>
+  </si>
+  <si>
+    <t>Modern luxury office</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4663757_modern-luxury-office/</t>
+  </si>
+  <si>
+    <t>Office space</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4662532_office-space/</t>
+  </si>
+  <si>
+    <t>Office space in limassol center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4662181_office-space-in-limassol-center/</t>
+  </si>
+  <si>
+    <t>Showroom / office - 200m²</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4660560_showroom-at-vassileos-konstantinou-200sqm/</t>
+  </si>
+  <si>
+    <t>95sqm office in agios nikolaos, limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4659959_95sqm-office-in-agios-nikolaos-limassol/</t>
+  </si>
+  <si>
+    <t>Υπόγεια αποθήκη 60τμ. στην περιοχή της ομονοίας.</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4659345_enoikiazetai-upogeia-apotheke-60tm-sten-periokhe-tes-omonoias/</t>
+  </si>
+  <si>
+    <t>Office with furniture included</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4658506_office-with-furniture-incluted/</t>
+  </si>
+  <si>
+    <t>Office - 50sqm molos area limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4657742_office-molos-area-limassol/</t>
+  </si>
+  <si>
+    <t>Independent two stores building, 4 bathrooms ανεξαρτητο δυοροφο κτηριο, 4 μπανια</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4655383_independent-two-stores-building-4-bathrooms-anexarteto-duoropho-kterio-4-mpania/</t>
+  </si>
+  <si>
+    <t>Superb showroom 350 sqm - makariou avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4654874_superb-showroom-350-sqm-makariou-avenue/</t>
+  </si>
+  <si>
+    <t>Office space of 156 sqm in mesa geitonia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4653732_office-space-of-156-sqm-in-mesa-geitonia/</t>
+  </si>
+  <si>
+    <t>Office in limassol, anexartisias avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4652665_office-in-limassol-anexartisias-avenue/</t>
+  </si>
+  <si>
+    <t>Office / coaching school - γραφείο/φροντιστήριο</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4647865_office-coaching-school-grapheio-phrontisterio/</t>
+  </si>
+  <si>
+    <t>Modern office near the beach</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4647012_modern-office-near-the-beach/</t>
+  </si>
+  <si>
+    <t>Co-working office in limassol center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4646748_office-building-in-limassol-center/</t>
+  </si>
+  <si>
+    <t>95 square meters ofice area near jumbo</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4645054_95-square-meters-ofice-area-near-jumbo/</t>
+  </si>
+  <si>
+    <t>Showroom in prime location - makariou avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4640217_showroom-in-prime-location-makariou-avenue/</t>
+  </si>
+  <si>
+    <t>Office in limassol - agios nicolaos</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4639367_office-in-limassol-agios-nicolaos/</t>
+  </si>
+  <si>
+    <t>Brand new office space in limassol, city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4637617_brand-new-office-space-in-limassol-city-center/</t>
+  </si>
+  <si>
+    <t>Fully furnished office 200 sqm next to district court</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4632407_office-200-sqm-next-to-district-court/</t>
+  </si>
+  <si>
+    <t>Office in agia zoni, limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4631962_office-in-agia-zoni-limassol/</t>
+  </si>
+  <si>
+    <t>Office, whole top floor, corner, main road</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4631439_office-whole-top-floor-corner-main-road/</t>
+  </si>
+  <si>
+    <t>Office, whole floor, corner, main road</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4631438_office-whole-floor-corner-main-road/</t>
+  </si>
+  <si>
+    <t>Large property available as an office in ayia fyla area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4631270_large-property-available-as-an-office-in-ayia-fyla-area/</t>
+  </si>
+  <si>
+    <t>Office d. nicolaou building 100sqm limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4628767_office-d-nicolaou-building-100sqm-limassol/</t>
+  </si>
+  <si>
+    <t>Office, whole floor, main road</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4628489_office-whole-floor-main-road/</t>
+  </si>
+  <si>
+    <t>Office space spirou kiprianou avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4619919_office-space-spirou-kiprianou-avenue/</t>
+  </si>
+  <si>
+    <t>Office in limassol, dasoudi area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4616926_office-in-limassol-dasoudi-area/</t>
+  </si>
+  <si>
+    <t>Office in limassol, city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4611646_office-in-limassol-city-center/</t>
+  </si>
+  <si>
+    <t>Office space near the new port in omonia area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4607495_office-space-near-the-new-port-in-omonia-area/</t>
+  </si>
+  <si>
+    <t>Office in limassol, cyprus</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4606874_office-in-limassol-cyprus/</t>
+  </si>
+  <si>
+    <t>200sqm office in linopetra, limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4601404_200sqm-office-in-linopetra-limassol/</t>
+  </si>
+  <si>
+    <t>Office space 150sqm</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4601171_office-space-150sqm/</t>
+  </si>
+  <si>
+    <t>Office on makariou</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4594442_office-on-makariou/</t>
+  </si>
+  <si>
+    <t>Luxury office of 250 sqm on makariou avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4593204_luxury-office-of-250-sqm-on-makariou-avenue/</t>
+  </si>
+  <si>
+    <t>90sqm office space in limassol, makariou avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4592891_90sqm-office-space-in-limassol-makariou-avenue/</t>
+  </si>
+  <si>
+    <t>Fully furnished office in agios ioannis</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4590061_fully-furnished-office-in-agios-ioannis/</t>
+  </si>
+  <si>
+    <t>Ground floor office in limassol center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4588392_ground-floor-office-in-limassol-center/</t>
+  </si>
+  <si>
+    <t>Neapolis - fully furnitured office space/cabinets for professional individuals</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4587429_great-serviced-office-space-on-georgia-griva-digeni/</t>
+  </si>
+  <si>
+    <t>Fully-renovated office at arch.makariou avenue iii - enaerios area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4585142_fully-renovated-office-at-arch-makariou-avenue-iii-enaerios-area/</t>
+  </si>
+  <si>
+    <t>Brand new 220 sqm office in the city centre</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4585039_almost-ready-220sqm-office-in-the-city-centre/</t>
+  </si>
+  <si>
+    <t>Modern office in the heart of the limassol city</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4582065_modern-office-in-the-heart-of-the-limassol-city/</t>
+  </si>
+  <si>
+    <t>Luxury spacious office</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4580931_luxury-spacious-office/</t>
+  </si>
+  <si>
+    <t>Shop, showroom, prime location</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4579554_shop-showroom-prime-location/</t>
+  </si>
+  <si>
+    <t>Office space in agios nicolaos area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4579140_office-space-in-agios-nicolaos-area/</t>
+  </si>
+  <si>
+    <t>Brand new office in limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4578282_brand-new-office-in-limassol/</t>
+  </si>
+  <si>
+    <t>Office 220m- 9th floor- fully renovated- modern- 4 parking spots</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4577534_office-220m-9th-floor-fully-renovated-modenrn-4-parking-spots/</t>
+  </si>
+  <si>
+    <t>Offices 220m- kato polemidia-parking- fully renovated</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4577518_offices-220m-kato-polemidia-parking-fully-renovated/</t>
+  </si>
+  <si>
+    <t>Shop/office</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4575205_shop-office/</t>
+  </si>
+  <si>
+    <t>Fully refurbished ground floor office</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4571212_fully-refurbished-ground-floor-office/</t>
+  </si>
+  <si>
+    <t>Fully renovated office in agios nicholaos limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4569368_fully-renovated-office-in-agios-nicholaos-limassol/</t>
+  </si>
+  <si>
+    <t>Office 9th floor city centre limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4563228_office-9th-floor-city-centre-limassol/</t>
+  </si>
+  <si>
+    <t>Top floor office - amazing seaviews - fully renovated</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4561774_top-floor-office-city-center-fully-renovated/</t>
+  </si>
+  <si>
+    <t>250m2 office on makarios avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4561195_250m2-office-on-makarios-avenue/</t>
+  </si>
+  <si>
+    <t>Office in mesa geitonia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4560400_office-in-mesa-geitonia/</t>
+  </si>
+  <si>
+    <t>130m2 luxury office, on makarios avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4557524_130m2-luxury-office-on-makarios-avenue/</t>
+  </si>
+  <si>
+    <t>Modern space for office or cafe</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4555943_modern-space-for-office-or-cafe/</t>
+  </si>
+  <si>
+    <t>Office in agia zoni area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4551277_office-in-agia-zoni-area/</t>
+  </si>
+  <si>
+    <t>Office next to st.nicolas roundabout .</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4544179_office-next-to-st-nicolas-roundabout/</t>
+  </si>
+  <si>
+    <t>Office in katholiki</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4540806_office-in-katholiki/</t>
+  </si>
+  <si>
+    <t>Shop in the center of limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4539710_shop-in-the-center-of-limassol/</t>
+  </si>
+  <si>
+    <t>70m2 office in the city centre, 250m from the sea, anexartisias</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4539288_70m2-office-in-the-city-centre-250m-from-the-sea-anexartisias/</t>
+  </si>
+  <si>
+    <t>Renovated show room/office of 80 sqm in agia zoni</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4536675_renovated-show-room-office-of-80-sqm-in-agia-zoni/</t>
+  </si>
+  <si>
+    <t>Furnished office of 180 sqm in omonia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4535243_furnished-office-of-180-sqm-in-omonia/</t>
+  </si>
+  <si>
+    <t>Furnished office of 150 sqm in omonia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4535242_furnished-office-of-150-sqm-in-omonia/</t>
+  </si>
+  <si>
+    <t>Office in town center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4533322_office-in-town-center/</t>
+  </si>
+  <si>
+    <t>Offices at makarios avenue near enaerios area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4529400_offices-at-makarios-avenue-near-enaerios-area/</t>
+  </si>
+  <si>
+    <t>Office, centrally located, near beach</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4511395_office-centrally-located-near-beach/</t>
+  </si>
+  <si>
+    <t>Office, recently renovated</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4511392_office-recently-renovated/</t>
+  </si>
+  <si>
+    <t>Office space in potamos germasogeia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4510556_office-space-in-potamon-germasogeia/</t>
+  </si>
+  <si>
+    <t>Renovated offices city centre , limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4509683_renovated-offices-city-centre-limassol/</t>
+  </si>
+  <si>
+    <t>Office in germasogeia tourist area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4505502_office-in-germasogeia-tourist-area/</t>
+  </si>
+  <si>
+    <t>City center offices 250sq.meters</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4505275_city-center-offices-250sq-meters/</t>
+  </si>
+  <si>
+    <t>Fully furnished serviced offices</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4501342_fully-furnished-serviced-offices/</t>
+  </si>
+  <si>
+    <t>Office, top floor, whole floor, central location</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4494784_office-top-floor-whole-floor-central-location/</t>
+  </si>
+  <si>
+    <t>Office, seafront, city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4494774_office-seafront-city-center/</t>
+  </si>
+  <si>
+    <t>Shop, sea-front</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4494715_shop-sea-front/</t>
+  </si>
+  <si>
+    <t>Office in glastonos limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4476243_office-in-glastonos-limassol/</t>
+  </si>
+  <si>
+    <t>Office of 90 sqm in neapoli area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4467237_office-of-90-sqm-in-neapoli-area/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4459839_brand-new-office-or-showroom-of110-sqm/</t>
+  </si>
+  <si>
+    <t>Shop near polikliniki</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4445170_versatile-office-space-of-180sq-m-in/</t>
+  </si>
+  <si>
+    <t>Office of 180sqm in arch makariou iii street</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4422479_office-of-180sqm-in-arch-makariou-iii-street/</t>
+  </si>
+  <si>
+    <t>Shop of 87 sqm in arch. leontiou a street</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4422478_shop-of-87-sqm-in-arch-leontiou-a-street/</t>
+  </si>
+  <si>
+    <t>Whole floor office in limassol town</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4420748_whole-floor-office-in-limassol-town/</t>
+  </si>
+  <si>
+    <t>New offices near limassol marina</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4404117_new-offices-near-limassol-marina/</t>
+  </si>
+  <si>
+    <t>170m² office for by the sea</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4391971_170m2-office-for-by-the-sea/</t>
+  </si>
+  <si>
+    <t>Whole floor office of 124sqm in agia zoni</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4374399_whole-floor-medical-office-of-120sqm-in-agia-zoni/</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4248799_office-in-limassol/</t>
+  </si>
+  <si>
+    <t>Υπογειο</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4182284_upogeio/</t>
+  </si>
+  <si>
+    <t>Best area of limassol-luxurious seaside office - molos , 171 sq.m1</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/3661363_best-area-of-limassol-luxurious-office/</t>
+  </si>
+  <si>
+    <t>Brand new shop 232 sqm on the heart of limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/3259755_brand-new-shop-232-sqm-on-the-heart-of-limassol/</t>
+  </si>
+  <si>
+    <t>Space in multipurpose center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/2931028_space-in-multipurpose-center/</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +2279,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>4717864</v>
+        <v>4719261</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1058,18 +2288,18 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="E3">
-        <v>368000</v>
+        <v>1200000</v>
       </c>
       <c r="F3" s="1">
-        <v>45068.51038194444</v>
+        <v>45069.36518518518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4717282</v>
+        <v>4717864</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1084,12 +2314,12 @@
         <v>368000</v>
       </c>
       <c r="F4" s="1">
-        <v>45068.34438657408</v>
+        <v>45068.51038194444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4716944</v>
+        <v>4717282</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1104,12 +2334,12 @@
         <v>368000</v>
       </c>
       <c r="F5" s="1">
-        <v>45067.76037037037</v>
+        <v>45068.34438657408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>4714020</v>
+        <v>4716944</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1118,78 +2348,78 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="E6">
-        <v>660000</v>
+        <v>368000</v>
       </c>
       <c r="F6" s="1">
-        <v>45066.25599537037</v>
+        <v>45067.76037037037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>4714009</v>
+        <v>4714020</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>910000</v>
+        <v>660000</v>
       </c>
       <c r="F7" s="1">
-        <v>45066.254953703705</v>
+        <v>45066.25599537037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>4714008</v>
+        <v>4714009</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="E8">
-        <v>880000</v>
+        <v>910000</v>
       </c>
       <c r="F8" s="1">
-        <v>45066.25488425926</v>
+        <v>45066.254953703705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>4712422</v>
+        <v>4714008</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="E9">
-        <v>265000</v>
+        <v>880000</v>
       </c>
       <c r="F9" s="1">
-        <v>45064.75734953704</v>
+        <v>45066.25488425926</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>4710450</v>
+        <v>4712422</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1198,18 +2428,18 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="E10">
-        <v>280000</v>
+        <v>265000</v>
       </c>
       <c r="F10" s="1">
-        <v>45063.50707175926</v>
+        <v>45064.75734953704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>4707466</v>
+        <v>4710450</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1218,18 +2448,18 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="E11">
-        <v>611000</v>
+        <v>280000</v>
       </c>
       <c r="F11" s="1">
-        <v>45062.751608796294</v>
+        <v>45063.50707175926</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>4707171</v>
+        <v>4707466</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1238,18 +2468,18 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="E12">
-        <v>370000</v>
+        <v>611000</v>
       </c>
       <c r="F12" s="1">
-        <v>45062.64212962963</v>
+        <v>45062.751608796294</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>4707148</v>
+        <v>4707171</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1258,18 +2488,18 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E13">
-        <v>550000</v>
+        <v>370000</v>
       </c>
       <c r="F13" s="1">
-        <v>45062.640752314815</v>
+        <v>45062.64212962963</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>4704575</v>
+        <v>4707148</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -1278,18 +2508,18 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="E14">
-        <v>368000</v>
+        <v>550000</v>
       </c>
       <c r="F14" s="1">
-        <v>45061.41887731481</v>
+        <v>45062.640752314815</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>4701709</v>
+        <v>4704575</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1298,18 +2528,18 @@
         <v>31</v>
       </c>
       <c r="D15">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="E15">
-        <v>1600000</v>
+        <v>368000</v>
       </c>
       <c r="F15" s="1">
-        <v>45058.62601851852</v>
+        <v>45061.41887731481</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>4701313</v>
+        <v>4701709</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -1318,18 +2548,18 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="E16">
-        <v>660000</v>
+        <v>1600000</v>
       </c>
       <c r="F16" s="1">
-        <v>45058.42391203704</v>
+        <v>45058.62601851852</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>4701114</v>
+        <v>4701313</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1338,18 +2568,18 @@
         <v>35</v>
       </c>
       <c r="D17">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E17">
-        <v>1600000</v>
+        <v>660000</v>
       </c>
       <c r="F17" s="1">
-        <v>45058.37673611111</v>
+        <v>45058.42391203704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>4700356</v>
+        <v>4701114</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -1358,18 +2588,18 @@
         <v>37</v>
       </c>
       <c r="D18">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="E18">
-        <v>280000</v>
+        <v>1600000</v>
       </c>
       <c r="F18" s="1">
-        <v>45057.62741898148</v>
+        <v>45058.37673611111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>4699442</v>
+        <v>4700356</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -1384,12 +2614,12 @@
         <v>280000</v>
       </c>
       <c r="F19" s="1">
-        <v>45057.377222222225</v>
+        <v>45057.62741898148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>4699342</v>
+        <v>4699442</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -1398,18 +2628,18 @@
         <v>41</v>
       </c>
       <c r="D20">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="E20">
-        <v>500000</v>
+        <v>280000</v>
       </c>
       <c r="F20" s="1">
-        <v>45057.33484953704</v>
+        <v>45057.377222222225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>4698805</v>
+        <v>4699342</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -1418,58 +2648,58 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="E21">
-        <v>850000</v>
+        <v>500000</v>
       </c>
       <c r="F21" s="1">
-        <v>45056.751655092594</v>
+        <v>45057.33484953704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>4698554</v>
+        <v>4698805</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>138</v>
       </c>
       <c r="E22">
-        <v>805000</v>
+        <v>850000</v>
       </c>
       <c r="F22" s="1">
-        <v>45056.62635416666</v>
+        <v>45056.751655092594</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>4697055</v>
+        <v>4698554</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="D23">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E23">
-        <v>300000</v>
+        <v>805000</v>
       </c>
       <c r="F23" s="1">
-        <v>45055.605844907404</v>
+        <v>45056.62635416666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>4696705</v>
+        <v>4697055</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -1478,18 +2708,18 @@
         <v>48</v>
       </c>
       <c r="D24">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="E24">
-        <v>540000</v>
+        <v>300000</v>
       </c>
       <c r="F24" s="1">
-        <v>45055.50114583333</v>
+        <v>45055.605844907404</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>4696508</v>
+        <v>4696705</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -1498,18 +2728,18 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="E25">
-        <v>1200000</v>
+        <v>540000</v>
       </c>
       <c r="F25" s="1">
-        <v>45055.407534722224</v>
+        <v>45055.50114583333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4696481</v>
+        <v>4696508</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -1518,18 +2748,18 @@
         <v>52</v>
       </c>
       <c r="D26">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="E26">
-        <v>480000</v>
+        <v>1200000</v>
       </c>
       <c r="F26" s="1">
-        <v>45055.40008101852</v>
+        <v>45055.407534722224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>4696385</v>
+        <v>4696481</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -1538,18 +2768,18 @@
         <v>54</v>
       </c>
       <c r="D27">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="E27">
-        <v>2200000</v>
+        <v>480000</v>
       </c>
       <c r="F27" s="1">
-        <v>45055.369791666664</v>
+        <v>45055.40008101852</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>4696376</v>
+        <v>4696385</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
@@ -1558,18 +2788,18 @@
         <v>56</v>
       </c>
       <c r="D28">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="E28">
-        <v>600000</v>
+        <v>2200000</v>
       </c>
       <c r="F28" s="1">
-        <v>45055.365949074076</v>
+        <v>45055.369791666664</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>4696237</v>
+        <v>4696376</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -1578,18 +2808,18 @@
         <v>58</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E29">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="F29" s="1">
-        <v>45055.29398148148</v>
+        <v>45055.365949074076</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>4691228</v>
+        <v>4696237</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -1598,58 +2828,58 @@
         <v>60</v>
       </c>
       <c r="D30">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>600000</v>
+        <v>360000</v>
       </c>
       <c r="F30" s="1">
-        <v>45051.376435185186</v>
+        <v>45055.29398148148</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>4687890</v>
+        <v>4691228</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E31">
-        <v>1500000</v>
+        <v>600000</v>
       </c>
       <c r="F31" s="1">
-        <v>45048.75144675926</v>
+        <v>45051.376435185186</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>4686980</v>
+        <v>4687890</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
       </c>
       <c r="D32">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="E32">
-        <v>1237186</v>
+        <v>1500000</v>
       </c>
       <c r="F32" s="1">
-        <v>45048.37636574074</v>
+        <v>45048.75144675926</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>4686827</v>
+        <v>4686980</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
@@ -1658,18 +2888,18 @@
         <v>65</v>
       </c>
       <c r="D33">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="E33">
-        <v>95000</v>
+        <v>1237186</v>
       </c>
       <c r="F33" s="1">
-        <v>45048.295949074076</v>
+        <v>45048.37636574074</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>4684174</v>
+        <v>4686827</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
@@ -1678,18 +2908,18 @@
         <v>67</v>
       </c>
       <c r="D34">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="E34">
-        <v>1500000</v>
+        <v>95000</v>
       </c>
       <c r="F34" s="1">
-        <v>45045.50996527778</v>
+        <v>45048.295949074076</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>4683331</v>
+        <v>4684174</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
@@ -1698,18 +2928,18 @@
         <v>69</v>
       </c>
       <c r="D35">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="E35">
-        <v>2210200</v>
+        <v>1500000</v>
       </c>
       <c r="F35" s="1">
-        <v>45044.62634259259</v>
+        <v>45045.50996527778</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>4682762</v>
+        <v>4683331</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
@@ -1718,18 +2948,18 @@
         <v>71</v>
       </c>
       <c r="D36">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="E36">
-        <v>565000</v>
+        <v>2210200</v>
       </c>
       <c r="F36" s="1">
-        <v>45044.375810185185</v>
+        <v>45044.62634259259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>4679181</v>
+        <v>4682762</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -1738,18 +2968,18 @@
         <v>73</v>
       </c>
       <c r="D37">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="E37">
-        <v>1000000</v>
+        <v>565000</v>
       </c>
       <c r="F37" s="1">
-        <v>45041.756875</v>
+        <v>45044.375810185185</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>4676005</v>
+        <v>4679181</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
@@ -1758,58 +2988,58 @@
         <v>75</v>
       </c>
       <c r="D38">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E38">
-        <v>180000</v>
+        <v>1000000</v>
       </c>
       <c r="F38" s="1">
-        <v>45040.37637731482</v>
+        <v>45041.756875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>4676002</v>
+        <v>4676005</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E39">
-        <v>1009483</v>
+        <v>180000</v>
       </c>
       <c r="F39" s="1">
-        <v>45040.37619212963</v>
+        <v>45040.37637731482</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4673588</v>
+        <v>4676002</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
         <v>78</v>
       </c>
       <c r="D40">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="E40">
-        <v>611000</v>
+        <v>1009483</v>
       </c>
       <c r="F40" s="1">
-        <v>45037.75806712963</v>
+        <v>45040.37619212963</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>4672684</v>
+        <v>4673588</v>
       </c>
       <c r="B41" t="s">
         <v>79</v>
@@ -1818,18 +3048,18 @@
         <v>80</v>
       </c>
       <c r="D41">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="E41">
-        <v>1600000</v>
+        <v>611000</v>
       </c>
       <c r="F41" s="1">
-        <v>45037.414189814815</v>
+        <v>45037.75806712963</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>4668267</v>
+        <v>4672684</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
@@ -1838,18 +3068,18 @@
         <v>82</v>
       </c>
       <c r="D42">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E42">
-        <v>450000</v>
+        <v>1600000</v>
       </c>
       <c r="F42" s="1">
-        <v>45034.28559027778</v>
+        <v>45037.414189814815</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>4664079</v>
+        <v>4668267</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -1858,18 +3088,18 @@
         <v>84</v>
       </c>
       <c r="D43">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="E43">
-        <v>360000</v>
+        <v>450000</v>
       </c>
       <c r="F43" s="1">
-        <v>45029.50099537037</v>
+        <v>45034.28559027778</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>4662382</v>
+        <v>4664079</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
@@ -1878,18 +3108,18 @@
         <v>86</v>
       </c>
       <c r="D44">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E44">
         <v>360000</v>
       </c>
       <c r="F44" s="1">
-        <v>45028.376388888886</v>
+        <v>45029.50099537037</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>4654221</v>
+        <v>4662382</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -1898,18 +3128,18 @@
         <v>88</v>
       </c>
       <c r="D45">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="E45">
-        <v>565000</v>
+        <v>360000</v>
       </c>
       <c r="F45" s="1">
-        <v>45022.37645833333</v>
+        <v>45028.376388888886</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>4652937</v>
+        <v>4654221</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
@@ -1924,12 +3154,12 @@
         <v>565000</v>
       </c>
       <c r="F46" s="1">
-        <v>45021.500972222224</v>
+        <v>45022.37645833333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>4644332</v>
+        <v>4652937</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
@@ -1938,18 +3168,18 @@
         <v>92</v>
       </c>
       <c r="D47">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E47">
-        <v>1517000</v>
+        <v>565000</v>
       </c>
       <c r="F47" s="1">
-        <v>45015.38422453704</v>
+        <v>45021.500972222224</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>4644331</v>
+        <v>4644332</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -1958,10 +3188,10 @@
         <v>94</v>
       </c>
       <c r="D48">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E48">
-        <v>1532000</v>
+        <v>1517000</v>
       </c>
       <c r="F48" s="1">
         <v>45015.38422453704</v>
@@ -1969,7 +3199,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>4644329</v>
+        <v>4644331</v>
       </c>
       <c r="B49" t="s">
         <v>95</v>
@@ -1978,18 +3208,18 @@
         <v>96</v>
       </c>
       <c r="D49">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E49">
-        <v>1215000</v>
+        <v>1532000</v>
       </c>
       <c r="F49" s="1">
-        <v>45015.384201388886</v>
+        <v>45015.38422453704</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>4644328</v>
+        <v>4644329</v>
       </c>
       <c r="B50" t="s">
         <v>97</v>
@@ -1998,10 +3228,10 @@
         <v>98</v>
       </c>
       <c r="D50">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="E50">
-        <v>611000</v>
+        <v>1215000</v>
       </c>
       <c r="F50" s="1">
         <v>45015.384201388886</v>
@@ -2009,67 +3239,67 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>4633169</v>
+        <v>4644328</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D51">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="E51">
-        <v>1115000</v>
+        <v>611000</v>
       </c>
       <c r="F51" s="1">
-        <v>45013.75430555556</v>
+        <v>45015.384201388886</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>4633167</v>
+        <v>4633169</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D52">
         <v>206</v>
       </c>
       <c r="E52">
-        <v>920000</v>
+        <v>1115000</v>
       </c>
       <c r="F52" s="1">
-        <v>45013.754270833335</v>
+        <v>45013.75430555556</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>4632180</v>
+        <v>4633167</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
         <v>102</v>
       </c>
       <c r="D53">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E53">
-        <v>540000</v>
+        <v>920000</v>
       </c>
       <c r="F53" s="1">
-        <v>45013.63730324074</v>
+        <v>45013.754270833335</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>4617232</v>
+        <v>4632180</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
@@ -2078,18 +3308,18 @@
         <v>104</v>
       </c>
       <c r="D54">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E54">
-        <v>2527435</v>
+        <v>540000</v>
       </c>
       <c r="F54" s="1">
-        <v>45009.50215277778</v>
+        <v>45013.63730324074</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>4617230</v>
+        <v>4617232</v>
       </c>
       <c r="B55" t="s">
         <v>105</v>
@@ -2098,18 +3328,18 @@
         <v>106</v>
       </c>
       <c r="D55">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E55">
-        <v>3188280</v>
+        <v>2527435</v>
       </c>
       <c r="F55" s="1">
-        <v>45009.502071759256</v>
+        <v>45009.50215277778</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>4611644</v>
+        <v>4617230</v>
       </c>
       <c r="B56" t="s">
         <v>107</v>
@@ -2118,18 +3348,18 @@
         <v>108</v>
       </c>
       <c r="D56">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="E56">
-        <v>1047434</v>
+        <v>3188280</v>
       </c>
       <c r="F56" s="1">
-        <v>45008.37600694445</v>
+        <v>45009.502071759256</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>4604346</v>
+        <v>4611644</v>
       </c>
       <c r="B57" t="s">
         <v>109</v>
@@ -2138,18 +3368,18 @@
         <v>110</v>
       </c>
       <c r="D57">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="E57">
-        <v>2500000</v>
+        <v>1047434</v>
       </c>
       <c r="F57" s="1">
-        <v>45005.37855324074</v>
+        <v>45008.37600694445</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>4601359</v>
+        <v>4604346</v>
       </c>
       <c r="B58" t="s">
         <v>111</v>
@@ -2158,18 +3388,18 @@
         <v>112</v>
       </c>
       <c r="D58">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="E58">
-        <v>600000</v>
+        <v>2500000</v>
       </c>
       <c r="F58" s="1">
-        <v>45002.758472222224</v>
+        <v>45005.37855324074</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>4591859</v>
+        <v>4601359</v>
       </c>
       <c r="B59" t="s">
         <v>113</v>
@@ -2178,18 +3408,18 @@
         <v>114</v>
       </c>
       <c r="D59">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E59">
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="F59" s="1">
-        <v>45000.357881944445</v>
+        <v>45002.758472222224</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>4591367</v>
+        <v>4591859</v>
       </c>
       <c r="B60" t="s">
         <v>115</v>
@@ -2198,18 +3428,18 @@
         <v>116</v>
       </c>
       <c r="D60">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="E60">
-        <v>2012000</v>
+        <v>750000</v>
       </c>
       <c r="F60" s="1">
-        <v>44999.756898148145</v>
+        <v>45000.357881944445</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>4582432</v>
+        <v>4591367</v>
       </c>
       <c r="B61" t="s">
         <v>117</v>
@@ -2218,18 +3448,18 @@
         <v>118</v>
       </c>
       <c r="D61">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="E61">
-        <v>360000</v>
+        <v>2012000</v>
       </c>
       <c r="F61" s="1">
-        <v>44994.38015046297</v>
+        <v>44999.756898148145</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>4579437</v>
+        <v>4582432</v>
       </c>
       <c r="B62" t="s">
         <v>119</v>
@@ -2238,18 +3468,18 @@
         <v>120</v>
       </c>
       <c r="D62">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="E62">
-        <v>520000</v>
+        <v>360000</v>
       </c>
       <c r="F62" s="1">
-        <v>44992.501493055555</v>
+        <v>44994.38015046297</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>4559059</v>
+        <v>4579437</v>
       </c>
       <c r="B63" t="s">
         <v>121</v>
@@ -2258,18 +3488,18 @@
         <v>122</v>
       </c>
       <c r="D63">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="E63">
-        <v>395000</v>
+        <v>520000</v>
       </c>
       <c r="F63" s="1">
-        <v>44977.801782407405</v>
+        <v>44992.501493055555</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>4558998</v>
+        <v>4559059</v>
       </c>
       <c r="B64" t="s">
         <v>123</v>
@@ -2278,18 +3508,18 @@
         <v>124</v>
       </c>
       <c r="D64">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E64">
-        <v>495000</v>
+        <v>395000</v>
       </c>
       <c r="F64" s="1">
-        <v>44977.76740740741</v>
+        <v>44977.801782407405</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>4535313</v>
+        <v>4558998</v>
       </c>
       <c r="B65" t="s">
         <v>125</v>
@@ -2298,18 +3528,18 @@
         <v>126</v>
       </c>
       <c r="D65">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E65">
         <v>495000</v>
       </c>
       <c r="F65" s="1">
-        <v>44960.231261574074</v>
+        <v>44977.76740740741</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>4524871</v>
+        <v>4535313</v>
       </c>
       <c r="B66" t="s">
         <v>127</v>
@@ -2318,13 +3548,13 @@
         <v>128</v>
       </c>
       <c r="D66">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E66">
-        <v>110000</v>
+        <v>495000</v>
       </c>
       <c r="F66" s="1">
-        <v>44952.604837962965</v>
+        <v>44960.231261574074</v>
       </c>
     </row>
     <row r="67">
@@ -2732,7 +3962,7 @@
         <v>4499649</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
         <v>156</v>
@@ -2952,7 +4182,7 @@
         <v>4413895</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C98" t="s">
         <v>176</v>
@@ -3252,7 +4482,7 @@
         <v>4320234</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C113" t="s">
         <v>204</v>
@@ -3389,47 +4619,47 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>4289884</v>
+        <v>4243364</v>
       </c>
       <c r="B120" t="s">
+        <v>74</v>
+      </c>
+      <c r="C120" t="s">
         <v>214</v>
       </c>
-      <c r="C120" t="s">
-        <v>215</v>
-      </c>
       <c r="D120">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="E120">
-        <v>240000</v>
+        <v>1000000</v>
       </c>
       <c r="F120" s="1">
-        <v>44784.44188657407</v>
+        <v>44750.76640046296</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>4243364</v>
+        <v>4232186</v>
       </c>
       <c r="B121" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="C121" t="s">
         <v>216</v>
       </c>
       <c r="D121">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E121">
-        <v>1000000</v>
+        <v>275000</v>
       </c>
       <c r="F121" s="1">
-        <v>44750.76640046296</v>
+        <v>44743.36004629629</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>4238463</v>
+        <v>4169238</v>
       </c>
       <c r="B122" t="s">
         <v>217</v>
@@ -3438,18 +4668,18 @@
         <v>218</v>
       </c>
       <c r="D122">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="E122">
-        <v>100000</v>
+        <v>1750000</v>
       </c>
       <c r="F122" s="1">
-        <v>44747.54550925926</v>
+        <v>44694.63559027778</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>4232186</v>
+        <v>4088917</v>
       </c>
       <c r="B123" t="s">
         <v>219</v>
@@ -3458,18 +4688,18 @@
         <v>220</v>
       </c>
       <c r="D123">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E123">
-        <v>275000</v>
+        <v>345000</v>
       </c>
       <c r="F123" s="1">
-        <v>44743.36004629629</v>
+        <v>44641.631574074076</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>4169238</v>
+        <v>3868167</v>
       </c>
       <c r="B124" t="s">
         <v>221</v>
@@ -3478,18 +4708,18 @@
         <v>222</v>
       </c>
       <c r="D124">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="E124">
-        <v>1750000</v>
+        <v>520000</v>
       </c>
       <c r="F124" s="1">
-        <v>44694.63559027778</v>
+        <v>44490.56721064815</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>4088917</v>
+        <v>3838209</v>
       </c>
       <c r="B125" t="s">
         <v>223</v>
@@ -3498,18 +4728,18 @@
         <v>224</v>
       </c>
       <c r="D125">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E125">
-        <v>345000</v>
+        <v>995000</v>
       </c>
       <c r="F125" s="1">
-        <v>44641.631574074076</v>
+        <v>44472.749930555554</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>3868167</v>
+        <v>3702715</v>
       </c>
       <c r="B126" t="s">
         <v>225</v>
@@ -3518,13 +4748,4233 @@
         <v>226</v>
       </c>
       <c r="D126">
+        <v>184</v>
+      </c>
+      <c r="E126">
+        <v>531000</v>
+      </c>
+      <c r="F126" s="1">
+        <v>44362.63402777778</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>2798457</v>
+      </c>
+      <c r="B127" t="s">
+        <v>227</v>
+      </c>
+      <c r="C127" t="s">
+        <v>228</v>
+      </c>
+      <c r="D127">
+        <v>107</v>
+      </c>
+      <c r="E127">
+        <v>280000</v>
+      </c>
+      <c r="F127" s="1">
+        <v>43916.36009259259</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>4723936</v>
+      </c>
+      <c r="B128" t="s">
+        <v>229</v>
+      </c>
+      <c r="C128" t="s">
+        <v>230</v>
+      </c>
+      <c r="D128">
+        <v>135</v>
+      </c>
+      <c r="E128">
+        <v>5000</v>
+      </c>
+      <c r="F128" s="1">
+        <v>45072.41087962963</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>4722495</v>
+      </c>
+      <c r="B129" t="s">
+        <v>231</v>
+      </c>
+      <c r="C129" t="s">
+        <v>232</v>
+      </c>
+      <c r="D129">
+        <v>200</v>
+      </c>
+      <c r="E129">
+        <v>8000</v>
+      </c>
+      <c r="F129" s="1">
+        <v>45071.471030092594</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>4722195</v>
+      </c>
+      <c r="B130" t="s">
+        <v>233</v>
+      </c>
+      <c r="C130" t="s">
+        <v>234</v>
+      </c>
+      <c r="D130">
+        <v>100</v>
+      </c>
+      <c r="E130">
+        <v>1750</v>
+      </c>
+      <c r="F130" s="1">
+        <v>45071.33652777778</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>4721795</v>
+      </c>
+      <c r="B131" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131">
+        <v>220</v>
+      </c>
+      <c r="E131">
+        <v>14500</v>
+      </c>
+      <c r="F131" s="1">
+        <v>45070.755902777775</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>4721794</v>
+      </c>
+      <c r="B132" t="s">
+        <v>237</v>
+      </c>
+      <c r="C132" t="s">
+        <v>238</v>
+      </c>
+      <c r="D132">
+        <v>137</v>
+      </c>
+      <c r="E132">
+        <v>12000</v>
+      </c>
+      <c r="F132" s="1">
+        <v>45070.75587962963</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>4721793</v>
+      </c>
+      <c r="B133" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" t="s">
+        <v>240</v>
+      </c>
+      <c r="D133">
+        <v>230</v>
+      </c>
+      <c r="E133">
+        <v>15300</v>
+      </c>
+      <c r="F133" s="1">
+        <v>45070.75585648148</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>4721790</v>
+      </c>
+      <c r="B134" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" t="s">
+        <v>242</v>
+      </c>
+      <c r="D134">
+        <v>184</v>
+      </c>
+      <c r="E134">
+        <v>14500</v>
+      </c>
+      <c r="F134" s="1">
+        <v>45070.75576388889</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>4721789</v>
+      </c>
+      <c r="B135" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" t="s">
+        <v>243</v>
+      </c>
+      <c r="D135">
+        <v>220</v>
+      </c>
+      <c r="E135">
+        <v>14500</v>
+      </c>
+      <c r="F135" s="1">
+        <v>45070.755740740744</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>4721613</v>
+      </c>
+      <c r="B136" t="s">
+        <v>244</v>
+      </c>
+      <c r="C136" t="s">
+        <v>245</v>
+      </c>
+      <c r="D136">
+        <v>200</v>
+      </c>
+      <c r="E136">
+        <v>12000</v>
+      </c>
+      <c r="F136" s="1">
+        <v>45070.64524305556</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>4721480</v>
+      </c>
+      <c r="B137" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" t="s">
+        <v>247</v>
+      </c>
+      <c r="D137">
+        <v>144</v>
+      </c>
+      <c r="E137">
+        <v>2800</v>
+      </c>
+      <c r="F137" s="1">
+        <v>45070.614120370374</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>4721253</v>
+      </c>
+      <c r="B138" t="s">
+        <v>248</v>
+      </c>
+      <c r="C138" t="s">
+        <v>249</v>
+      </c>
+      <c r="D138">
+        <v>140</v>
+      </c>
+      <c r="E138">
+        <v>3800</v>
+      </c>
+      <c r="F138" s="1">
+        <v>45070.507199074076</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>4721119</v>
+      </c>
+      <c r="B139" t="s">
+        <v>250</v>
+      </c>
+      <c r="C139" t="s">
+        <v>251</v>
+      </c>
+      <c r="D139">
+        <v>80</v>
+      </c>
+      <c r="E139">
+        <v>1000</v>
+      </c>
+      <c r="F139" s="1">
+        <v>45070.45096064815</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>4720915</v>
+      </c>
+      <c r="B140" t="s">
+        <v>248</v>
+      </c>
+      <c r="C140" t="s">
+        <v>252</v>
+      </c>
+      <c r="D140">
+        <v>250</v>
+      </c>
+      <c r="E140">
+        <v>7500</v>
+      </c>
+      <c r="F140" s="1">
+        <v>45070.38480324074</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>4720588</v>
+      </c>
+      <c r="B141" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141" t="s">
+        <v>254</v>
+      </c>
+      <c r="D141">
+        <v>140</v>
+      </c>
+      <c r="E141">
+        <v>3300</v>
+      </c>
+      <c r="F141" s="1">
+        <v>45070.279375</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>4720201</v>
+      </c>
+      <c r="B142" t="s">
+        <v>255</v>
+      </c>
+      <c r="C142" t="s">
+        <v>256</v>
+      </c>
+      <c r="D142">
+        <v>129</v>
+      </c>
+      <c r="E142">
+        <v>1650</v>
+      </c>
+      <c r="F142" s="1">
+        <v>45069.75818287037</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>4720140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>257</v>
+      </c>
+      <c r="C143" t="s">
+        <v>258</v>
+      </c>
+      <c r="D143">
+        <v>230</v>
+      </c>
+      <c r="E143">
+        <v>8500</v>
+      </c>
+      <c r="F143" s="1">
+        <v>45069.72641203704</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>4719731</v>
+      </c>
+      <c r="B144" t="s">
+        <v>259</v>
+      </c>
+      <c r="C144" t="s">
+        <v>260</v>
+      </c>
+      <c r="D144">
+        <v>250</v>
+      </c>
+      <c r="E144">
+        <v>5000</v>
+      </c>
+      <c r="F144" s="1">
+        <v>45069.54398148148</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>4719650</v>
+      </c>
+      <c r="B145" t="s">
+        <v>261</v>
+      </c>
+      <c r="C145" t="s">
+        <v>262</v>
+      </c>
+      <c r="D145">
+        <v>70</v>
+      </c>
+      <c r="E145">
+        <v>1200</v>
+      </c>
+      <c r="F145" s="1">
+        <v>45069.504849537036</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>4719420</v>
+      </c>
+      <c r="B146" t="s">
+        <v>263</v>
+      </c>
+      <c r="C146" t="s">
+        <v>264</v>
+      </c>
+      <c r="D146">
+        <v>150</v>
+      </c>
+      <c r="E146">
+        <v>3000</v>
+      </c>
+      <c r="F146" s="1">
+        <v>45069.41135416667</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>4719366</v>
+      </c>
+      <c r="B147" t="s">
+        <v>265</v>
+      </c>
+      <c r="C147" t="s">
+        <v>266</v>
+      </c>
+      <c r="D147">
+        <v>120</v>
+      </c>
+      <c r="E147">
+        <v>500</v>
+      </c>
+      <c r="F147" s="1">
+        <v>45069.389918981484</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>4719188</v>
+      </c>
+      <c r="B148" t="s">
+        <v>267</v>
+      </c>
+      <c r="C148" t="s">
+        <v>268</v>
+      </c>
+      <c r="D148">
+        <v>150</v>
+      </c>
+      <c r="E148">
+        <v>2900</v>
+      </c>
+      <c r="F148" s="1">
+        <v>45069.339583333334</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>4718330</v>
+      </c>
+      <c r="B149" t="s">
+        <v>269</v>
+      </c>
+      <c r="C149" t="s">
+        <v>270</v>
+      </c>
+      <c r="D149">
+        <v>150</v>
+      </c>
+      <c r="E149">
+        <v>3000</v>
+      </c>
+      <c r="F149" s="1">
+        <v>45068.63511574074</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>4718101</v>
+      </c>
+      <c r="B150" t="s">
+        <v>271</v>
+      </c>
+      <c r="C150" t="s">
+        <v>272</v>
+      </c>
+      <c r="D150">
+        <v>168</v>
+      </c>
+      <c r="E150">
+        <v>3000</v>
+      </c>
+      <c r="F150" s="1">
+        <v>45068.57240740741</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>4717320</v>
+      </c>
+      <c r="B151" t="s">
+        <v>273</v>
+      </c>
+      <c r="C151" t="s">
+        <v>274</v>
+      </c>
+      <c r="D151">
+        <v>110</v>
+      </c>
+      <c r="E151">
+        <v>2200</v>
+      </c>
+      <c r="F151" s="1">
+        <v>45068.35759259259</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>4717225</v>
+      </c>
+      <c r="B152" t="s">
+        <v>275</v>
+      </c>
+      <c r="C152" t="s">
+        <v>276</v>
+      </c>
+      <c r="D152">
+        <v>110</v>
+      </c>
+      <c r="E152">
+        <v>2200</v>
+      </c>
+      <c r="F152" s="1">
+        <v>45068.305289351854</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>4717061</v>
+      </c>
+      <c r="B153" t="s">
+        <v>277</v>
+      </c>
+      <c r="C153" t="s">
+        <v>278</v>
+      </c>
+      <c r="D153">
+        <v>130</v>
+      </c>
+      <c r="E153">
+        <v>1500</v>
+      </c>
+      <c r="F153" s="1">
+        <v>45067.88045138889</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>4713887</v>
+      </c>
+      <c r="B154" t="s">
+        <v>279</v>
+      </c>
+      <c r="C154" t="s">
+        <v>280</v>
+      </c>
+      <c r="D154">
+        <v>100</v>
+      </c>
+      <c r="E154">
+        <v>4000</v>
+      </c>
+      <c r="F154" s="1">
+        <v>45065.87633101852</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>4713524</v>
+      </c>
+      <c r="B155" t="s">
+        <v>281</v>
+      </c>
+      <c r="C155" t="s">
+        <v>282</v>
+      </c>
+      <c r="D155">
+        <v>200</v>
+      </c>
+      <c r="E155">
+        <v>4500</v>
+      </c>
+      <c r="F155" s="1">
+        <v>45065.62619212963</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>4713087</v>
+      </c>
+      <c r="B156" t="s">
+        <v>283</v>
+      </c>
+      <c r="C156" t="s">
+        <v>284</v>
+      </c>
+      <c r="D156">
+        <v>76</v>
+      </c>
+      <c r="E156">
+        <v>1000</v>
+      </c>
+      <c r="F156" s="1">
+        <v>45065.39444444444</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>4712769</v>
+      </c>
+      <c r="B157" t="s">
+        <v>285</v>
+      </c>
+      <c r="C157" t="s">
+        <v>286</v>
+      </c>
+      <c r="D157">
+        <v>200</v>
+      </c>
+      <c r="E157">
+        <v>5900</v>
+      </c>
+      <c r="F157" s="1">
+        <v>45065.30401620371</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>4712137</v>
+      </c>
+      <c r="B158" t="s">
+        <v>287</v>
+      </c>
+      <c r="C158" t="s">
+        <v>288</v>
+      </c>
+      <c r="D158">
+        <v>150</v>
+      </c>
+      <c r="E158">
+        <v>3000</v>
+      </c>
+      <c r="F158" s="1">
+        <v>45064.60967592592</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>4711882</v>
+      </c>
+      <c r="B159" t="s">
+        <v>289</v>
+      </c>
+      <c r="C159" t="s">
+        <v>290</v>
+      </c>
+      <c r="D159">
+        <v>69</v>
+      </c>
+      <c r="E159">
+        <v>2500</v>
+      </c>
+      <c r="F159" s="1">
+        <v>45064.504016203704</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>4711596</v>
+      </c>
+      <c r="B160" t="s">
+        <v>291</v>
+      </c>
+      <c r="C160" t="s">
+        <v>292</v>
+      </c>
+      <c r="D160">
+        <v>215</v>
+      </c>
+      <c r="E160">
+        <v>3800</v>
+      </c>
+      <c r="F160" s="1">
+        <v>45064.37658564815</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>4711560</v>
+      </c>
+      <c r="B161" t="s">
+        <v>293</v>
+      </c>
+      <c r="C161" t="s">
+        <v>294</v>
+      </c>
+      <c r="D161">
+        <v>192</v>
+      </c>
+      <c r="E161">
+        <v>5500</v>
+      </c>
+      <c r="F161" s="1">
+        <v>45064.36488425926</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>4711460</v>
+      </c>
+      <c r="B162" t="s">
+        <v>295</v>
+      </c>
+      <c r="C162" t="s">
+        <v>296</v>
+      </c>
+      <c r="D162">
+        <v>220</v>
+      </c>
+      <c r="E162">
+        <v>2800</v>
+      </c>
+      <c r="F162" s="1">
+        <v>45064.3052662037</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>4711429</v>
+      </c>
+      <c r="B163" t="s">
+        <v>297</v>
+      </c>
+      <c r="C163" t="s">
+        <v>298</v>
+      </c>
+      <c r="D163">
+        <v>130</v>
+      </c>
+      <c r="E163">
+        <v>3500</v>
+      </c>
+      <c r="F163" s="1">
+        <v>45064.29462962963</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>4711167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>299</v>
+      </c>
+      <c r="C164" t="s">
+        <v>300</v>
+      </c>
+      <c r="D164">
+        <v>90</v>
+      </c>
+      <c r="E164">
+        <v>1300</v>
+      </c>
+      <c r="F164" s="1">
+        <v>45063.876284722224</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>4711152</v>
+      </c>
+      <c r="B165" t="s">
+        <v>301</v>
+      </c>
+      <c r="C165" t="s">
+        <v>302</v>
+      </c>
+      <c r="D165">
+        <v>95</v>
+      </c>
+      <c r="E165">
+        <v>1900</v>
+      </c>
+      <c r="F165" s="1">
+        <v>45063.856828703705</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>4711102</v>
+      </c>
+      <c r="B166" t="s">
+        <v>303</v>
+      </c>
+      <c r="C166" t="s">
+        <v>304</v>
+      </c>
+      <c r="D166">
+        <v>120</v>
+      </c>
+      <c r="E166">
+        <v>2250</v>
+      </c>
+      <c r="F166" s="1">
+        <v>45063.81564814815</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>4710626</v>
+      </c>
+      <c r="B167" t="s">
+        <v>305</v>
+      </c>
+      <c r="C167" t="s">
+        <v>306</v>
+      </c>
+      <c r="D167">
+        <v>60</v>
+      </c>
+      <c r="E167">
+        <v>890</v>
+      </c>
+      <c r="F167" s="1">
+        <v>45063.59134259259</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>4710542</v>
+      </c>
+      <c r="B168" t="s">
+        <v>307</v>
+      </c>
+      <c r="C168" t="s">
+        <v>308</v>
+      </c>
+      <c r="D168">
+        <v>125</v>
+      </c>
+      <c r="E168">
+        <v>2000</v>
+      </c>
+      <c r="F168" s="1">
+        <v>45063.54615740741</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>4710432</v>
+      </c>
+      <c r="B169" t="s">
+        <v>309</v>
+      </c>
+      <c r="C169" t="s">
+        <v>310</v>
+      </c>
+      <c r="D169">
+        <v>75</v>
+      </c>
+      <c r="E169">
+        <v>2500</v>
+      </c>
+      <c r="F169" s="1">
+        <v>45063.50506944444</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>4710431</v>
+      </c>
+      <c r="B170" t="s">
+        <v>311</v>
+      </c>
+      <c r="C170" t="s">
+        <v>312</v>
+      </c>
+      <c r="D170">
+        <v>76</v>
+      </c>
+      <c r="E170">
+        <v>1000</v>
+      </c>
+      <c r="F170" s="1">
+        <v>45063.50498842593</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>4710416</v>
+      </c>
+      <c r="B171" t="s">
+        <v>261</v>
+      </c>
+      <c r="C171" t="s">
+        <v>313</v>
+      </c>
+      <c r="D171">
+        <v>70</v>
+      </c>
+      <c r="E171">
+        <v>2100</v>
+      </c>
+      <c r="F171" s="1">
+        <v>45063.50252314815</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>4710166</v>
+      </c>
+      <c r="B172" t="s">
+        <v>314</v>
+      </c>
+      <c r="C172" t="s">
+        <v>315</v>
+      </c>
+      <c r="D172">
+        <v>135</v>
+      </c>
+      <c r="E172">
+        <v>1900</v>
+      </c>
+      <c r="F172" s="1">
+        <v>45063.39581018518</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>4707269</v>
+      </c>
+      <c r="B173" t="s">
+        <v>316</v>
+      </c>
+      <c r="C173" t="s">
+        <v>317</v>
+      </c>
+      <c r="D173">
+        <v>167</v>
+      </c>
+      <c r="E173">
+        <v>11500</v>
+      </c>
+      <c r="F173" s="1">
+        <v>45062.646261574075</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>4707268</v>
+      </c>
+      <c r="B174" t="s">
+        <v>316</v>
+      </c>
+      <c r="C174" t="s">
+        <v>318</v>
+      </c>
+      <c r="D174">
+        <v>156</v>
+      </c>
+      <c r="E174">
+        <v>9500</v>
+      </c>
+      <c r="F174" s="1">
+        <v>45062.64623842593</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>4707237</v>
+      </c>
+      <c r="B175" t="s">
+        <v>319</v>
+      </c>
+      <c r="C175" t="s">
+        <v>320</v>
+      </c>
+      <c r="D175">
+        <v>160</v>
+      </c>
+      <c r="E175">
+        <v>5000</v>
+      </c>
+      <c r="F175" s="1">
+        <v>45062.645219907405</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>4707168</v>
+      </c>
+      <c r="B176" t="s">
+        <v>321</v>
+      </c>
+      <c r="C176" t="s">
+        <v>322</v>
+      </c>
+      <c r="D176">
+        <v>110</v>
+      </c>
+      <c r="E176">
+        <v>1500</v>
+      </c>
+      <c r="F176" s="1">
+        <v>45062.64197916666</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>4707116</v>
+      </c>
+      <c r="B177" t="s">
+        <v>323</v>
+      </c>
+      <c r="C177" t="s">
+        <v>324</v>
+      </c>
+      <c r="D177">
+        <v>60</v>
+      </c>
+      <c r="E177">
+        <v>1250</v>
+      </c>
+      <c r="F177" s="1">
+        <v>45062.63930555555</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>4706499</v>
+      </c>
+      <c r="B178" t="s">
+        <v>325</v>
+      </c>
+      <c r="C178" t="s">
+        <v>326</v>
+      </c>
+      <c r="D178">
+        <v>100</v>
+      </c>
+      <c r="E178">
+        <v>1800</v>
+      </c>
+      <c r="F178" s="1">
+        <v>45062.5291087963</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>4706408</v>
+      </c>
+      <c r="B179" t="s">
+        <v>327</v>
+      </c>
+      <c r="C179" t="s">
+        <v>328</v>
+      </c>
+      <c r="D179">
+        <v>65</v>
+      </c>
+      <c r="E179">
+        <v>1400</v>
+      </c>
+      <c r="F179" s="1">
+        <v>45062.493680555555</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>4706383</v>
+      </c>
+      <c r="B180" t="s">
+        <v>329</v>
+      </c>
+      <c r="C180" t="s">
+        <v>330</v>
+      </c>
+      <c r="D180">
+        <v>138</v>
+      </c>
+      <c r="E180">
+        <v>3500</v>
+      </c>
+      <c r="F180" s="1">
+        <v>45062.48297453704</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>4706268</v>
+      </c>
+      <c r="B181" t="s">
+        <v>331</v>
+      </c>
+      <c r="C181" t="s">
+        <v>332</v>
+      </c>
+      <c r="D181">
+        <v>70</v>
+      </c>
+      <c r="E181">
+        <v>2500</v>
+      </c>
+      <c r="F181" s="1">
+        <v>45062.41405092592</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>4705490</v>
+      </c>
+      <c r="B182" t="s">
+        <v>333</v>
+      </c>
+      <c r="C182" t="s">
+        <v>334</v>
+      </c>
+      <c r="D182">
+        <v>90</v>
+      </c>
+      <c r="E182">
+        <v>2000</v>
+      </c>
+      <c r="F182" s="1">
+        <v>45061.76017361111</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>4705267</v>
+      </c>
+      <c r="B183" t="s">
+        <v>325</v>
+      </c>
+      <c r="C183" t="s">
+        <v>335</v>
+      </c>
+      <c r="D183">
+        <v>65</v>
+      </c>
+      <c r="E183">
+        <v>1400</v>
+      </c>
+      <c r="F183" s="1">
+        <v>45061.67539351852</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>4705092</v>
+      </c>
+      <c r="B184" t="s">
+        <v>336</v>
+      </c>
+      <c r="C184" t="s">
+        <v>337</v>
+      </c>
+      <c r="D184">
+        <v>120</v>
+      </c>
+      <c r="E184">
+        <v>2800</v>
+      </c>
+      <c r="F184" s="1">
+        <v>45061.62679398148</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>4704936</v>
+      </c>
+      <c r="B185" t="s">
+        <v>338</v>
+      </c>
+      <c r="C185" t="s">
+        <v>339</v>
+      </c>
+      <c r="D185">
+        <v>250</v>
+      </c>
+      <c r="E185">
+        <v>7000</v>
+      </c>
+      <c r="F185" s="1">
+        <v>45061.55820601852</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>4703810</v>
+      </c>
+      <c r="B186" t="s">
+        <v>340</v>
+      </c>
+      <c r="C186" t="s">
+        <v>341</v>
+      </c>
+      <c r="D186">
+        <v>150</v>
+      </c>
+      <c r="E186">
+        <v>2500</v>
+      </c>
+      <c r="F186" s="1">
+        <v>45060.73459490741</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>4703525</v>
+      </c>
+      <c r="B187" t="s">
+        <v>342</v>
+      </c>
+      <c r="C187" t="s">
+        <v>343</v>
+      </c>
+      <c r="D187">
+        <v>80</v>
+      </c>
+      <c r="E187">
+        <v>1600</v>
+      </c>
+      <c r="F187" s="1">
+        <v>45060.550891203704</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>4703191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>344</v>
+      </c>
+      <c r="C188" t="s">
+        <v>345</v>
+      </c>
+      <c r="D188">
+        <v>170</v>
+      </c>
+      <c r="E188">
+        <v>60</v>
+      </c>
+      <c r="F188" s="1">
+        <v>45060.30123842593</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>4702337</v>
+      </c>
+      <c r="B189" t="s">
+        <v>346</v>
+      </c>
+      <c r="C189" t="s">
+        <v>347</v>
+      </c>
+      <c r="D189">
+        <v>130</v>
+      </c>
+      <c r="E189">
+        <v>3000</v>
+      </c>
+      <c r="F189" s="1">
+        <v>45059.365636574075</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>4701751</v>
+      </c>
+      <c r="B190" t="s">
+        <v>348</v>
+      </c>
+      <c r="C190" t="s">
+        <v>349</v>
+      </c>
+      <c r="D190">
+        <v>220</v>
+      </c>
+      <c r="E190">
+        <v>2800</v>
+      </c>
+      <c r="F190" s="1">
+        <v>45058.632731481484</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>4700643</v>
+      </c>
+      <c r="B191" t="s">
+        <v>350</v>
+      </c>
+      <c r="C191" t="s">
+        <v>351</v>
+      </c>
+      <c r="D191">
         <v>71</v>
       </c>
-      <c r="E126">
-        <v>520000</v>
-      </c>
-      <c r="F126" s="1">
-        <v>44490.56721064815</v>
+      <c r="E191">
+        <v>1000</v>
+      </c>
+      <c r="F191" s="1">
+        <v>45057.757743055554</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>4700582</v>
+      </c>
+      <c r="B192" t="s">
+        <v>352</v>
+      </c>
+      <c r="C192" t="s">
+        <v>353</v>
+      </c>
+      <c r="D192">
+        <v>120</v>
+      </c>
+      <c r="E192">
+        <v>1200</v>
+      </c>
+      <c r="F192" s="1">
+        <v>45057.73494212963</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>4699992</v>
+      </c>
+      <c r="B193" t="s">
+        <v>354</v>
+      </c>
+      <c r="C193" t="s">
+        <v>355</v>
+      </c>
+      <c r="D193">
+        <v>57</v>
+      </c>
+      <c r="E193">
+        <v>1000</v>
+      </c>
+      <c r="F193" s="1">
+        <v>45057.50497685185</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>4698292</v>
+      </c>
+      <c r="B194" t="s">
+        <v>356</v>
+      </c>
+      <c r="C194" t="s">
+        <v>357</v>
+      </c>
+      <c r="D194">
+        <v>138</v>
+      </c>
+      <c r="E194">
+        <v>2500</v>
+      </c>
+      <c r="F194" s="1">
+        <v>45056.509409722225</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>4698269</v>
+      </c>
+      <c r="B195" t="s">
+        <v>311</v>
+      </c>
+      <c r="C195" t="s">
+        <v>358</v>
+      </c>
+      <c r="D195">
+        <v>120</v>
+      </c>
+      <c r="E195">
+        <v>1100</v>
+      </c>
+      <c r="F195" s="1">
+        <v>45056.504953703705</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>4697928</v>
+      </c>
+      <c r="B196" t="s">
+        <v>359</v>
+      </c>
+      <c r="C196" t="s">
+        <v>360</v>
+      </c>
+      <c r="D196">
+        <v>220</v>
+      </c>
+      <c r="E196">
+        <v>7900</v>
+      </c>
+      <c r="F196" s="1">
+        <v>45056.3765162037</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>4697766</v>
+      </c>
+      <c r="B197" t="s">
+        <v>325</v>
+      </c>
+      <c r="C197" t="s">
+        <v>361</v>
+      </c>
+      <c r="D197">
+        <v>120</v>
+      </c>
+      <c r="E197">
+        <v>2800</v>
+      </c>
+      <c r="F197" s="1">
+        <v>45056.320914351854</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>4697052</v>
+      </c>
+      <c r="B198" t="s">
+        <v>362</v>
+      </c>
+      <c r="C198" t="s">
+        <v>363</v>
+      </c>
+      <c r="D198">
+        <v>140</v>
+      </c>
+      <c r="E198">
+        <v>3000</v>
+      </c>
+      <c r="F198" s="1">
+        <v>45055.60466435185</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>4696462</v>
+      </c>
+      <c r="B199" t="s">
+        <v>364</v>
+      </c>
+      <c r="C199" t="s">
+        <v>365</v>
+      </c>
+      <c r="D199">
+        <v>125</v>
+      </c>
+      <c r="E199">
+        <v>5000</v>
+      </c>
+      <c r="F199" s="1">
+        <v>45055.392175925925</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>4696446</v>
+      </c>
+      <c r="B200" t="s">
+        <v>366</v>
+      </c>
+      <c r="C200" t="s">
+        <v>367</v>
+      </c>
+      <c r="D200">
+        <v>200</v>
+      </c>
+      <c r="E200">
+        <v>4800</v>
+      </c>
+      <c r="F200" s="1">
+        <v>45055.38334490741</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>4696407</v>
+      </c>
+      <c r="B201" t="s">
+        <v>368</v>
+      </c>
+      <c r="C201" t="s">
+        <v>369</v>
+      </c>
+      <c r="D201">
+        <v>250</v>
+      </c>
+      <c r="E201">
+        <v>7500</v>
+      </c>
+      <c r="F201" s="1">
+        <v>45055.37633101852</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>4696360</v>
+      </c>
+      <c r="B202" t="s">
+        <v>370</v>
+      </c>
+      <c r="C202" t="s">
+        <v>371</v>
+      </c>
+      <c r="D202">
+        <v>200</v>
+      </c>
+      <c r="E202">
+        <v>2500</v>
+      </c>
+      <c r="F202" s="1">
+        <v>45055.35885416667</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>4695763</v>
+      </c>
+      <c r="B203" t="s">
+        <v>372</v>
+      </c>
+      <c r="C203" t="s">
+        <v>373</v>
+      </c>
+      <c r="D203">
+        <v>100</v>
+      </c>
+      <c r="E203">
+        <v>4000</v>
+      </c>
+      <c r="F203" s="1">
+        <v>45054.75917824074</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>4695387</v>
+      </c>
+      <c r="B204" t="s">
+        <v>374</v>
+      </c>
+      <c r="C204" t="s">
+        <v>375</v>
+      </c>
+      <c r="D204">
+        <v>55</v>
+      </c>
+      <c r="E204">
+        <v>1000</v>
+      </c>
+      <c r="F204" s="1">
+        <v>45054.5871412037</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>4695084</v>
+      </c>
+      <c r="B205" t="s">
+        <v>376</v>
+      </c>
+      <c r="C205" t="s">
+        <v>377</v>
+      </c>
+      <c r="D205">
+        <v>200</v>
+      </c>
+      <c r="E205">
+        <v>2750</v>
+      </c>
+      <c r="F205" s="1">
+        <v>45054.48168981481</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>4692710</v>
+      </c>
+      <c r="B206" t="s">
+        <v>378</v>
+      </c>
+      <c r="C206" t="s">
+        <v>379</v>
+      </c>
+      <c r="D206">
+        <v>120</v>
+      </c>
+      <c r="E206">
+        <v>1500</v>
+      </c>
+      <c r="F206" s="1">
+        <v>45052.4168287037</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>4692100</v>
+      </c>
+      <c r="B207" t="s">
+        <v>380</v>
+      </c>
+      <c r="C207" t="s">
+        <v>381</v>
+      </c>
+      <c r="D207">
+        <v>70</v>
+      </c>
+      <c r="E207">
+        <v>1200</v>
+      </c>
+      <c r="F207" s="1">
+        <v>45051.86070601852</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>4690701</v>
+      </c>
+      <c r="B208" t="s">
+        <v>382</v>
+      </c>
+      <c r="C208" t="s">
+        <v>383</v>
+      </c>
+      <c r="D208">
+        <v>75</v>
+      </c>
+      <c r="E208">
+        <v>1500</v>
+      </c>
+      <c r="F208" s="1">
+        <v>45050.74841435185</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>4689993</v>
+      </c>
+      <c r="B209" t="s">
+        <v>384</v>
+      </c>
+      <c r="C209" t="s">
+        <v>385</v>
+      </c>
+      <c r="D209">
+        <v>150</v>
+      </c>
+      <c r="E209">
+        <v>3800</v>
+      </c>
+      <c r="F209" s="1">
+        <v>45050.471284722225</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>4688816</v>
+      </c>
+      <c r="B210" t="s">
+        <v>386</v>
+      </c>
+      <c r="C210" t="s">
+        <v>387</v>
+      </c>
+      <c r="D210">
+        <v>110</v>
+      </c>
+      <c r="E210">
+        <v>2200</v>
+      </c>
+      <c r="F210" s="1">
+        <v>45049.54421296297</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>4688684</v>
+      </c>
+      <c r="B211" t="s">
+        <v>388</v>
+      </c>
+      <c r="C211" t="s">
+        <v>389</v>
+      </c>
+      <c r="D211">
+        <v>108</v>
+      </c>
+      <c r="E211">
+        <v>10000</v>
+      </c>
+      <c r="F211" s="1">
+        <v>45049.50144675926</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>4688454</v>
+      </c>
+      <c r="B212" t="s">
+        <v>390</v>
+      </c>
+      <c r="C212" t="s">
+        <v>391</v>
+      </c>
+      <c r="D212">
+        <v>60</v>
+      </c>
+      <c r="E212">
+        <v>700</v>
+      </c>
+      <c r="F212" s="1">
+        <v>45049.37850694444</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>4688449</v>
+      </c>
+      <c r="B213" t="s">
+        <v>392</v>
+      </c>
+      <c r="C213" t="s">
+        <v>393</v>
+      </c>
+      <c r="D213">
+        <v>95</v>
+      </c>
+      <c r="E213">
+        <v>2000</v>
+      </c>
+      <c r="F213" s="1">
+        <v>45049.37798611111</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>4687591</v>
+      </c>
+      <c r="B214" t="s">
+        <v>394</v>
+      </c>
+      <c r="C214" t="s">
+        <v>395</v>
+      </c>
+      <c r="D214">
+        <v>80</v>
+      </c>
+      <c r="E214">
+        <v>2000</v>
+      </c>
+      <c r="F214" s="1">
+        <v>45048.61287037037</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>4686986</v>
+      </c>
+      <c r="B215" t="s">
+        <v>396</v>
+      </c>
+      <c r="C215" t="s">
+        <v>397</v>
+      </c>
+      <c r="D215">
+        <v>200</v>
+      </c>
+      <c r="E215">
+        <v>5500</v>
+      </c>
+      <c r="F215" s="1">
+        <v>45048.37650462963</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>4686838</v>
+      </c>
+      <c r="B216" t="s">
+        <v>398</v>
+      </c>
+      <c r="C216" t="s">
+        <v>399</v>
+      </c>
+      <c r="D216">
+        <v>105</v>
+      </c>
+      <c r="E216">
+        <v>1600</v>
+      </c>
+      <c r="F216" s="1">
+        <v>45048.30594907407</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>4686637</v>
+      </c>
+      <c r="B217" t="s">
+        <v>400</v>
+      </c>
+      <c r="C217" t="s">
+        <v>401</v>
+      </c>
+      <c r="D217">
+        <v>180</v>
+      </c>
+      <c r="E217">
+        <v>3500</v>
+      </c>
+      <c r="F217" s="1">
+        <v>45047.88444444445</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>4683654</v>
+      </c>
+      <c r="B218" t="s">
+        <v>402</v>
+      </c>
+      <c r="C218" t="s">
+        <v>403</v>
+      </c>
+      <c r="D218">
+        <v>78</v>
+      </c>
+      <c r="E218">
+        <v>700</v>
+      </c>
+      <c r="F218" s="1">
+        <v>45044.832094907404</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>4683579</v>
+      </c>
+      <c r="B219" t="s">
+        <v>404</v>
+      </c>
+      <c r="C219" t="s">
+        <v>405</v>
+      </c>
+      <c r="D219">
+        <v>243</v>
+      </c>
+      <c r="E219">
+        <v>8000</v>
+      </c>
+      <c r="F219" s="1">
+        <v>45044.75787037037</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>4683575</v>
+      </c>
+      <c r="B220" t="s">
+        <v>404</v>
+      </c>
+      <c r="C220" t="s">
+        <v>406</v>
+      </c>
+      <c r="D220">
+        <v>243</v>
+      </c>
+      <c r="E220">
+        <v>8000</v>
+      </c>
+      <c r="F220" s="1">
+        <v>45044.75771990741</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>4683254</v>
+      </c>
+      <c r="B221" t="s">
+        <v>407</v>
+      </c>
+      <c r="C221" t="s">
+        <v>408</v>
+      </c>
+      <c r="D221">
+        <v>50</v>
+      </c>
+      <c r="E221">
+        <v>1000</v>
+      </c>
+      <c r="F221" s="1">
+        <v>45044.57325231482</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>4683110</v>
+      </c>
+      <c r="B222" t="s">
+        <v>316</v>
+      </c>
+      <c r="C222" t="s">
+        <v>409</v>
+      </c>
+      <c r="D222">
+        <v>130</v>
+      </c>
+      <c r="E222">
+        <v>9400</v>
+      </c>
+      <c r="F222" s="1">
+        <v>45044.50791666667</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>4681967</v>
+      </c>
+      <c r="B223" t="s">
+        <v>410</v>
+      </c>
+      <c r="C223" t="s">
+        <v>411</v>
+      </c>
+      <c r="D223">
+        <v>80</v>
+      </c>
+      <c r="E223">
+        <v>2200</v>
+      </c>
+      <c r="F223" s="1">
+        <v>45043.629016203704</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>4681409</v>
+      </c>
+      <c r="B224" t="s">
+        <v>412</v>
+      </c>
+      <c r="C224" t="s">
+        <v>413</v>
+      </c>
+      <c r="D224">
+        <v>90</v>
+      </c>
+      <c r="E224">
+        <v>3300</v>
+      </c>
+      <c r="F224" s="1">
+        <v>45043.40069444444</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>4681336</v>
+      </c>
+      <c r="B225" t="s">
+        <v>414</v>
+      </c>
+      <c r="C225" t="s">
+        <v>415</v>
+      </c>
+      <c r="D225">
+        <v>75</v>
+      </c>
+      <c r="E225">
+        <v>750</v>
+      </c>
+      <c r="F225" s="1">
+        <v>45043.381157407406</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>4681110</v>
+      </c>
+      <c r="B226" t="s">
+        <v>416</v>
+      </c>
+      <c r="C226" t="s">
+        <v>417</v>
+      </c>
+      <c r="D226">
+        <v>115</v>
+      </c>
+      <c r="E226">
+        <v>1750</v>
+      </c>
+      <c r="F226" s="1">
+        <v>45043.30708333333</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>4680521</v>
+      </c>
+      <c r="B227" t="s">
+        <v>418</v>
+      </c>
+      <c r="C227" t="s">
+        <v>419</v>
+      </c>
+      <c r="D227">
+        <v>90</v>
+      </c>
+      <c r="E227">
+        <v>1800</v>
+      </c>
+      <c r="F227" s="1">
+        <v>45042.679074074076</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>4680392</v>
+      </c>
+      <c r="B228" t="s">
+        <v>420</v>
+      </c>
+      <c r="C228" t="s">
+        <v>421</v>
+      </c>
+      <c r="D228">
+        <v>250</v>
+      </c>
+      <c r="E228">
+        <v>7000</v>
+      </c>
+      <c r="F228" s="1">
+        <v>45042.626238425924</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>4679953</v>
+      </c>
+      <c r="B229" t="s">
+        <v>422</v>
+      </c>
+      <c r="C229" t="s">
+        <v>423</v>
+      </c>
+      <c r="D229">
+        <v>110</v>
+      </c>
+      <c r="E229">
+        <v>1500</v>
+      </c>
+      <c r="F229" s="1">
+        <v>45042.47043981482</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>4679729</v>
+      </c>
+      <c r="B230" t="s">
+        <v>424</v>
+      </c>
+      <c r="C230" t="s">
+        <v>425</v>
+      </c>
+      <c r="D230">
+        <v>210</v>
+      </c>
+      <c r="E230">
+        <v>3500</v>
+      </c>
+      <c r="F230" s="1">
+        <v>45042.37626157407</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>4679670</v>
+      </c>
+      <c r="B231" t="s">
+        <v>426</v>
+      </c>
+      <c r="C231" t="s">
+        <v>427</v>
+      </c>
+      <c r="D231">
+        <v>60</v>
+      </c>
+      <c r="E231">
+        <v>1650</v>
+      </c>
+      <c r="F231" s="1">
+        <v>45042.347708333335</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>4679434</v>
+      </c>
+      <c r="B232" t="s">
+        <v>428</v>
+      </c>
+      <c r="C232" t="s">
+        <v>429</v>
+      </c>
+      <c r="D232">
+        <v>205</v>
+      </c>
+      <c r="E232">
+        <v>12300</v>
+      </c>
+      <c r="F232" s="1">
+        <v>45042.159004629626</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>4679189</v>
+      </c>
+      <c r="B233" t="s">
+        <v>430</v>
+      </c>
+      <c r="C233" t="s">
+        <v>431</v>
+      </c>
+      <c r="D233">
+        <v>70</v>
+      </c>
+      <c r="E233">
+        <v>1200</v>
+      </c>
+      <c r="F233" s="1">
+        <v>45041.75714120371</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>4678899</v>
+      </c>
+      <c r="B234" t="s">
+        <v>432</v>
+      </c>
+      <c r="C234" t="s">
+        <v>433</v>
+      </c>
+      <c r="D234">
+        <v>203</v>
+      </c>
+      <c r="E234">
+        <v>3800</v>
+      </c>
+      <c r="F234" s="1">
+        <v>45041.632523148146</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>4678319</v>
+      </c>
+      <c r="B235" t="s">
+        <v>434</v>
+      </c>
+      <c r="C235" t="s">
+        <v>435</v>
+      </c>
+      <c r="D235">
+        <v>190</v>
+      </c>
+      <c r="E235">
+        <v>6000</v>
+      </c>
+      <c r="F235" s="1">
+        <v>45041.423842592594</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>4677573</v>
+      </c>
+      <c r="B236" t="s">
+        <v>436</v>
+      </c>
+      <c r="C236" t="s">
+        <v>437</v>
+      </c>
+      <c r="D236">
+        <v>90</v>
+      </c>
+      <c r="E236">
+        <v>2700</v>
+      </c>
+      <c r="F236" s="1">
+        <v>45040.75896990741</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>4676001</v>
+      </c>
+      <c r="B237" t="s">
+        <v>438</v>
+      </c>
+      <c r="C237" t="s">
+        <v>439</v>
+      </c>
+      <c r="D237">
+        <v>90</v>
+      </c>
+      <c r="E237">
+        <v>2500</v>
+      </c>
+      <c r="F237" s="1">
+        <v>45040.37614583333</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>4673759</v>
+      </c>
+      <c r="B238" t="s">
+        <v>440</v>
+      </c>
+      <c r="C238" t="s">
+        <v>441</v>
+      </c>
+      <c r="D238">
+        <v>110</v>
+      </c>
+      <c r="E238">
+        <v>1800</v>
+      </c>
+      <c r="F238" s="1">
+        <v>45037.8815625</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>4673259</v>
+      </c>
+      <c r="B239" t="s">
+        <v>442</v>
+      </c>
+      <c r="C239" t="s">
+        <v>443</v>
+      </c>
+      <c r="D239">
+        <v>90</v>
+      </c>
+      <c r="E239">
+        <v>1800</v>
+      </c>
+      <c r="F239" s="1">
+        <v>45037.63260416667</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>4673033</v>
+      </c>
+      <c r="B240" t="s">
+        <v>444</v>
+      </c>
+      <c r="C240" t="s">
+        <v>445</v>
+      </c>
+      <c r="D240">
+        <v>250</v>
+      </c>
+      <c r="E240">
+        <v>7000</v>
+      </c>
+      <c r="F240" s="1">
+        <v>45037.553125</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>4672532</v>
+      </c>
+      <c r="B241" t="s">
+        <v>81</v>
+      </c>
+      <c r="C241" t="s">
+        <v>446</v>
+      </c>
+      <c r="D241">
+        <v>150</v>
+      </c>
+      <c r="E241">
+        <v>8900</v>
+      </c>
+      <c r="F241" s="1">
+        <v>45037.375763888886</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>4671703</v>
+      </c>
+      <c r="B242" t="s">
+        <v>447</v>
+      </c>
+      <c r="C242" t="s">
+        <v>448</v>
+      </c>
+      <c r="D242">
+        <v>80</v>
+      </c>
+      <c r="E242">
+        <v>800</v>
+      </c>
+      <c r="F242" s="1">
+        <v>45036.61329861111</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>4668330</v>
+      </c>
+      <c r="B243" t="s">
+        <v>449</v>
+      </c>
+      <c r="C243" t="s">
+        <v>450</v>
+      </c>
+      <c r="D243">
+        <v>100</v>
+      </c>
+      <c r="E243">
+        <v>2500</v>
+      </c>
+      <c r="F243" s="1">
+        <v>45034.33684027778</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>4665935</v>
+      </c>
+      <c r="B244" t="s">
+        <v>451</v>
+      </c>
+      <c r="C244" t="s">
+        <v>452</v>
+      </c>
+      <c r="D244">
+        <v>190</v>
+      </c>
+      <c r="E244">
+        <v>7000</v>
+      </c>
+      <c r="F244" s="1">
+        <v>45030.87898148148</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>4663856</v>
+      </c>
+      <c r="B245" t="s">
+        <v>453</v>
+      </c>
+      <c r="C245" t="s">
+        <v>454</v>
+      </c>
+      <c r="D245">
+        <v>250</v>
+      </c>
+      <c r="E245">
+        <v>5200</v>
+      </c>
+      <c r="F245" s="1">
+        <v>45029.38229166667</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>4663757</v>
+      </c>
+      <c r="B246" t="s">
+        <v>455</v>
+      </c>
+      <c r="C246" t="s">
+        <v>456</v>
+      </c>
+      <c r="D246">
+        <v>250</v>
+      </c>
+      <c r="E246">
+        <v>8000</v>
+      </c>
+      <c r="F246" s="1">
+        <v>45029.360625</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>4662532</v>
+      </c>
+      <c r="B247" t="s">
+        <v>457</v>
+      </c>
+      <c r="C247" t="s">
+        <v>458</v>
+      </c>
+      <c r="D247">
+        <v>180</v>
+      </c>
+      <c r="E247">
+        <v>8280</v>
+      </c>
+      <c r="F247" s="1">
+        <v>45028.44076388889</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>4662181</v>
+      </c>
+      <c r="B248" t="s">
+        <v>459</v>
+      </c>
+      <c r="C248" t="s">
+        <v>460</v>
+      </c>
+      <c r="D248">
+        <v>160</v>
+      </c>
+      <c r="E248">
+        <v>5000</v>
+      </c>
+      <c r="F248" s="1">
+        <v>45028.275416666664</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>4660560</v>
+      </c>
+      <c r="B249" t="s">
+        <v>461</v>
+      </c>
+      <c r="C249" t="s">
+        <v>462</v>
+      </c>
+      <c r="D249">
+        <v>200</v>
+      </c>
+      <c r="E249">
+        <v>3800</v>
+      </c>
+      <c r="F249" s="1">
+        <v>45026.819131944445</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>4659959</v>
+      </c>
+      <c r="B250" t="s">
+        <v>463</v>
+      </c>
+      <c r="C250" t="s">
+        <v>464</v>
+      </c>
+      <c r="D250">
+        <v>95</v>
+      </c>
+      <c r="E250">
+        <v>2000</v>
+      </c>
+      <c r="F250" s="1">
+        <v>45026.62637731482</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>4659345</v>
+      </c>
+      <c r="B251" t="s">
+        <v>465</v>
+      </c>
+      <c r="C251" t="s">
+        <v>466</v>
+      </c>
+      <c r="D251">
+        <v>60</v>
+      </c>
+      <c r="E251">
+        <v>450</v>
+      </c>
+      <c r="F251" s="1">
+        <v>45026.35430555556</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>4658506</v>
+      </c>
+      <c r="B252" t="s">
+        <v>467</v>
+      </c>
+      <c r="C252" t="s">
+        <v>468</v>
+      </c>
+      <c r="D252">
+        <v>90</v>
+      </c>
+      <c r="E252">
+        <v>1100</v>
+      </c>
+      <c r="F252" s="1">
+        <v>45025.460277777776</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>4657742</v>
+      </c>
+      <c r="B253" t="s">
+        <v>469</v>
+      </c>
+      <c r="C253" t="s">
+        <v>470</v>
+      </c>
+      <c r="D253">
+        <v>50</v>
+      </c>
+      <c r="E253">
+        <v>700</v>
+      </c>
+      <c r="F253" s="1">
+        <v>45024.57142361111</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>4655383</v>
+      </c>
+      <c r="B254" t="s">
+        <v>471</v>
+      </c>
+      <c r="C254" t="s">
+        <v>472</v>
+      </c>
+      <c r="D254">
+        <v>200</v>
+      </c>
+      <c r="E254">
+        <v>7000</v>
+      </c>
+      <c r="F254" s="1">
+        <v>45022.81700231481</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>4654874</v>
+      </c>
+      <c r="B255" t="s">
+        <v>473</v>
+      </c>
+      <c r="C255" t="s">
+        <v>474</v>
+      </c>
+      <c r="D255">
+        <v>250</v>
+      </c>
+      <c r="E255">
+        <v>6700</v>
+      </c>
+      <c r="F255" s="1">
+        <v>45022.6300462963</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>4653732</v>
+      </c>
+      <c r="B256" t="s">
+        <v>475</v>
+      </c>
+      <c r="C256" t="s">
+        <v>476</v>
+      </c>
+      <c r="D256">
+        <v>132</v>
+      </c>
+      <c r="E256">
+        <v>2000</v>
+      </c>
+      <c r="F256" s="1">
+        <v>45021.88130787037</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>4652665</v>
+      </c>
+      <c r="B257" t="s">
+        <v>477</v>
+      </c>
+      <c r="C257" t="s">
+        <v>478</v>
+      </c>
+      <c r="D257">
+        <v>220</v>
+      </c>
+      <c r="E257">
+        <v>7900</v>
+      </c>
+      <c r="F257" s="1">
+        <v>45021.376388888886</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>4647865</v>
+      </c>
+      <c r="B258" t="s">
+        <v>479</v>
+      </c>
+      <c r="C258" t="s">
+        <v>480</v>
+      </c>
+      <c r="D258">
+        <v>120</v>
+      </c>
+      <c r="E258">
+        <v>2200</v>
+      </c>
+      <c r="F258" s="1">
+        <v>45017.56010416667</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>4647012</v>
+      </c>
+      <c r="B259" t="s">
+        <v>481</v>
+      </c>
+      <c r="C259" t="s">
+        <v>482</v>
+      </c>
+      <c r="D259">
+        <v>100</v>
+      </c>
+      <c r="E259">
+        <v>2800</v>
+      </c>
+      <c r="F259" s="1">
+        <v>45016.758425925924</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>4646748</v>
+      </c>
+      <c r="B260" t="s">
+        <v>483</v>
+      </c>
+      <c r="C260" t="s">
+        <v>484</v>
+      </c>
+      <c r="D260">
+        <v>185</v>
+      </c>
+      <c r="E260">
+        <v>6000</v>
+      </c>
+      <c r="F260" s="1">
+        <v>45016.60166666667</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>4645054</v>
+      </c>
+      <c r="B261" t="s">
+        <v>485</v>
+      </c>
+      <c r="C261" t="s">
+        <v>486</v>
+      </c>
+      <c r="D261">
+        <v>95</v>
+      </c>
+      <c r="E261">
+        <v>1800</v>
+      </c>
+      <c r="F261" s="1">
+        <v>45015.480219907404</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>4640217</v>
+      </c>
+      <c r="B262" t="s">
+        <v>487</v>
+      </c>
+      <c r="C262" t="s">
+        <v>488</v>
+      </c>
+      <c r="D262">
+        <v>200</v>
+      </c>
+      <c r="E262">
+        <v>2500</v>
+      </c>
+      <c r="F262" s="1">
+        <v>45014.758680555555</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>4639367</v>
+      </c>
+      <c r="B263" t="s">
+        <v>489</v>
+      </c>
+      <c r="C263" t="s">
+        <v>490</v>
+      </c>
+      <c r="D263">
+        <v>250</v>
+      </c>
+      <c r="E263">
+        <v>7000</v>
+      </c>
+      <c r="F263" s="1">
+        <v>45014.62956018518</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>4637617</v>
+      </c>
+      <c r="B264" t="s">
+        <v>491</v>
+      </c>
+      <c r="C264" t="s">
+        <v>492</v>
+      </c>
+      <c r="D264">
+        <v>203</v>
+      </c>
+      <c r="E264">
+        <v>3800</v>
+      </c>
+      <c r="F264" s="1">
+        <v>45014.37644675926</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>4632407</v>
+      </c>
+      <c r="B265" t="s">
+        <v>493</v>
+      </c>
+      <c r="C265" t="s">
+        <v>494</v>
+      </c>
+      <c r="D265">
+        <v>200</v>
+      </c>
+      <c r="E265">
+        <v>4800</v>
+      </c>
+      <c r="F265" s="1">
+        <v>45013.668229166666</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>4631962</v>
+      </c>
+      <c r="B266" t="s">
+        <v>495</v>
+      </c>
+      <c r="C266" t="s">
+        <v>496</v>
+      </c>
+      <c r="D266">
+        <v>160</v>
+      </c>
+      <c r="E266">
+        <v>5500</v>
+      </c>
+      <c r="F266" s="1">
+        <v>45013.62644675926</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>4631439</v>
+      </c>
+      <c r="B267" t="s">
+        <v>497</v>
+      </c>
+      <c r="C267" t="s">
+        <v>498</v>
+      </c>
+      <c r="D267">
+        <v>140</v>
+      </c>
+      <c r="E267">
+        <v>3500</v>
+      </c>
+      <c r="F267" s="1">
+        <v>45013.50712962963</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>4631438</v>
+      </c>
+      <c r="B268" t="s">
+        <v>499</v>
+      </c>
+      <c r="C268" t="s">
+        <v>500</v>
+      </c>
+      <c r="D268">
+        <v>127</v>
+      </c>
+      <c r="E268">
+        <v>3175</v>
+      </c>
+      <c r="F268" s="1">
+        <v>45013.50711805555</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>4631270</v>
+      </c>
+      <c r="B269" t="s">
+        <v>501</v>
+      </c>
+      <c r="C269" t="s">
+        <v>502</v>
+      </c>
+      <c r="D269">
+        <v>240</v>
+      </c>
+      <c r="E269">
+        <v>3900</v>
+      </c>
+      <c r="F269" s="1">
+        <v>45013.43356481481</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>4628767</v>
+      </c>
+      <c r="B270" t="s">
+        <v>503</v>
+      </c>
+      <c r="C270" t="s">
+        <v>504</v>
+      </c>
+      <c r="D270">
+        <v>100</v>
+      </c>
+      <c r="E270">
+        <v>2000</v>
+      </c>
+      <c r="F270" s="1">
+        <v>45012.78556712963</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>4628489</v>
+      </c>
+      <c r="B271" t="s">
+        <v>505</v>
+      </c>
+      <c r="C271" t="s">
+        <v>506</v>
+      </c>
+      <c r="D271">
+        <v>125</v>
+      </c>
+      <c r="E271">
+        <v>3125</v>
+      </c>
+      <c r="F271" s="1">
+        <v>45012.632835648146</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>4619919</v>
+      </c>
+      <c r="B272" t="s">
+        <v>507</v>
+      </c>
+      <c r="C272" t="s">
+        <v>508</v>
+      </c>
+      <c r="D272">
+        <v>190</v>
+      </c>
+      <c r="E272">
+        <v>2300</v>
+      </c>
+      <c r="F272" s="1">
+        <v>45010.18960648148</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>4616926</v>
+      </c>
+      <c r="B273" t="s">
+        <v>509</v>
+      </c>
+      <c r="C273" t="s">
+        <v>510</v>
+      </c>
+      <c r="D273">
+        <v>170</v>
+      </c>
+      <c r="E273">
+        <v>7250</v>
+      </c>
+      <c r="F273" s="1">
+        <v>45009.37609953704</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>4611646</v>
+      </c>
+      <c r="B274" t="s">
+        <v>511</v>
+      </c>
+      <c r="C274" t="s">
+        <v>512</v>
+      </c>
+      <c r="D274">
+        <v>97</v>
+      </c>
+      <c r="E274">
+        <v>1800</v>
+      </c>
+      <c r="F274" s="1">
+        <v>45008.37611111111</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>4607495</v>
+      </c>
+      <c r="B275" t="s">
+        <v>513</v>
+      </c>
+      <c r="C275" t="s">
+        <v>514</v>
+      </c>
+      <c r="D275">
+        <v>215</v>
+      </c>
+      <c r="E275">
+        <v>3800</v>
+      </c>
+      <c r="F275" s="1">
+        <v>45007.40866898148</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>4606874</v>
+      </c>
+      <c r="B276" t="s">
+        <v>515</v>
+      </c>
+      <c r="C276" t="s">
+        <v>516</v>
+      </c>
+      <c r="D276">
+        <v>184</v>
+      </c>
+      <c r="E276">
+        <v>9500</v>
+      </c>
+      <c r="F276" s="1">
+        <v>45006.75342592593</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>4601404</v>
+      </c>
+      <c r="B277" t="s">
+        <v>517</v>
+      </c>
+      <c r="C277" t="s">
+        <v>518</v>
+      </c>
+      <c r="D277">
+        <v>200</v>
+      </c>
+      <c r="E277">
+        <v>1200</v>
+      </c>
+      <c r="F277" s="1">
+        <v>45002.760046296295</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>4601171</v>
+      </c>
+      <c r="B278" t="s">
+        <v>519</v>
+      </c>
+      <c r="C278" t="s">
+        <v>520</v>
+      </c>
+      <c r="D278">
+        <v>150</v>
+      </c>
+      <c r="E278">
+        <v>2000</v>
+      </c>
+      <c r="F278" s="1">
+        <v>45002.68777777778</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>4594442</v>
+      </c>
+      <c r="B279" t="s">
+        <v>521</v>
+      </c>
+      <c r="C279" t="s">
+        <v>522</v>
+      </c>
+      <c r="D279">
+        <v>210</v>
+      </c>
+      <c r="E279">
+        <v>5700</v>
+      </c>
+      <c r="F279" s="1">
+        <v>45001.714375</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>4593204</v>
+      </c>
+      <c r="B280" t="s">
+        <v>523</v>
+      </c>
+      <c r="C280" t="s">
+        <v>524</v>
+      </c>
+      <c r="D280">
+        <v>250</v>
+      </c>
+      <c r="E280">
+        <v>5000</v>
+      </c>
+      <c r="F280" s="1">
+        <v>45000.88165509259</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>4592891</v>
+      </c>
+      <c r="B281" t="s">
+        <v>525</v>
+      </c>
+      <c r="C281" t="s">
+        <v>526</v>
+      </c>
+      <c r="D281">
+        <v>90</v>
+      </c>
+      <c r="E281">
+        <v>2200</v>
+      </c>
+      <c r="F281" s="1">
+        <v>45000.75145833333</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>4590061</v>
+      </c>
+      <c r="B282" t="s">
+        <v>527</v>
+      </c>
+      <c r="C282" t="s">
+        <v>528</v>
+      </c>
+      <c r="D282">
+        <v>160</v>
+      </c>
+      <c r="E282">
+        <v>1800</v>
+      </c>
+      <c r="F282" s="1">
+        <v>44999.34207175926</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>4588392</v>
+      </c>
+      <c r="B283" t="s">
+        <v>529</v>
+      </c>
+      <c r="C283" t="s">
+        <v>530</v>
+      </c>
+      <c r="D283">
+        <v>90</v>
+      </c>
+      <c r="E283">
+        <v>1250</v>
+      </c>
+      <c r="F283" s="1">
+        <v>44998.30988425926</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>4587429</v>
+      </c>
+      <c r="B284" t="s">
+        <v>531</v>
+      </c>
+      <c r="C284" t="s">
+        <v>532</v>
+      </c>
+      <c r="D284">
+        <v>180</v>
+      </c>
+      <c r="E284">
+        <v>500</v>
+      </c>
+      <c r="F284" s="1">
+        <v>44997.573958333334</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>4585142</v>
+      </c>
+      <c r="B285" t="s">
+        <v>533</v>
+      </c>
+      <c r="C285" t="s">
+        <v>534</v>
+      </c>
+      <c r="D285">
+        <v>250</v>
+      </c>
+      <c r="E285">
+        <v>7500</v>
+      </c>
+      <c r="F285" s="1">
+        <v>44995.667708333334</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>4585039</v>
+      </c>
+      <c r="B286" t="s">
+        <v>535</v>
+      </c>
+      <c r="C286" t="s">
+        <v>536</v>
+      </c>
+      <c r="D286">
+        <v>220</v>
+      </c>
+      <c r="E286">
+        <v>4000</v>
+      </c>
+      <c r="F286" s="1">
+        <v>44995.61684027778</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>4582065</v>
+      </c>
+      <c r="B287" t="s">
+        <v>537</v>
+      </c>
+      <c r="C287" t="s">
+        <v>538</v>
+      </c>
+      <c r="D287">
+        <v>160</v>
+      </c>
+      <c r="E287">
+        <v>5500</v>
+      </c>
+      <c r="F287" s="1">
+        <v>44993.88177083333</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>4580931</v>
+      </c>
+      <c r="B288" t="s">
+        <v>539</v>
+      </c>
+      <c r="C288" t="s">
+        <v>540</v>
+      </c>
+      <c r="D288">
+        <v>154</v>
+      </c>
+      <c r="E288">
+        <v>4500</v>
+      </c>
+      <c r="F288" s="1">
+        <v>44993.426875</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>4579554</v>
+      </c>
+      <c r="B289" t="s">
+        <v>541</v>
+      </c>
+      <c r="C289" t="s">
+        <v>542</v>
+      </c>
+      <c r="D289">
+        <v>234</v>
+      </c>
+      <c r="E289">
+        <v>8500</v>
+      </c>
+      <c r="F289" s="1">
+        <v>44992.51069444444</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>4579140</v>
+      </c>
+      <c r="B290" t="s">
+        <v>543</v>
+      </c>
+      <c r="C290" t="s">
+        <v>544</v>
+      </c>
+      <c r="D290">
+        <v>110</v>
+      </c>
+      <c r="E290">
+        <v>3200</v>
+      </c>
+      <c r="F290" s="1">
+        <v>44992.37783564815</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>4578282</v>
+      </c>
+      <c r="B291" t="s">
+        <v>545</v>
+      </c>
+      <c r="C291" t="s">
+        <v>546</v>
+      </c>
+      <c r="D291">
+        <v>150</v>
+      </c>
+      <c r="E291">
+        <v>10000</v>
+      </c>
+      <c r="F291" s="1">
+        <v>44991.65756944445</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>4577534</v>
+      </c>
+      <c r="B292" t="s">
+        <v>547</v>
+      </c>
+      <c r="C292" t="s">
+        <v>548</v>
+      </c>
+      <c r="D292">
+        <v>220</v>
+      </c>
+      <c r="E292">
+        <v>7900</v>
+      </c>
+      <c r="F292" s="1">
+        <v>44991.3659837963</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>4577518</v>
+      </c>
+      <c r="B293" t="s">
+        <v>549</v>
+      </c>
+      <c r="C293" t="s">
+        <v>550</v>
+      </c>
+      <c r="D293">
+        <v>220</v>
+      </c>
+      <c r="E293">
+        <v>2800</v>
+      </c>
+      <c r="F293" s="1">
+        <v>44991.36114583333</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>4575205</v>
+      </c>
+      <c r="B294" t="s">
+        <v>551</v>
+      </c>
+      <c r="C294" t="s">
+        <v>552</v>
+      </c>
+      <c r="D294">
+        <v>200</v>
+      </c>
+      <c r="E294">
+        <v>2750</v>
+      </c>
+      <c r="F294" s="1">
+        <v>44989.5177662037</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>4571212</v>
+      </c>
+      <c r="B295" t="s">
+        <v>553</v>
+      </c>
+      <c r="C295" t="s">
+        <v>554</v>
+      </c>
+      <c r="D295">
+        <v>80</v>
+      </c>
+      <c r="E295">
+        <v>1300</v>
+      </c>
+      <c r="F295" s="1">
+        <v>44986.8334837963</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>4569368</v>
+      </c>
+      <c r="B296" t="s">
+        <v>555</v>
+      </c>
+      <c r="C296" t="s">
+        <v>556</v>
+      </c>
+      <c r="D296">
+        <v>105</v>
+      </c>
+      <c r="E296">
+        <v>3200</v>
+      </c>
+      <c r="F296" s="1">
+        <v>44985.64115740741</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>4563228</v>
+      </c>
+      <c r="B297" t="s">
+        <v>557</v>
+      </c>
+      <c r="C297" t="s">
+        <v>558</v>
+      </c>
+      <c r="D297">
+        <v>69</v>
+      </c>
+      <c r="E297">
+        <v>1600</v>
+      </c>
+      <c r="F297" s="1">
+        <v>44980.5096875</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>4561774</v>
+      </c>
+      <c r="B298" t="s">
+        <v>559</v>
+      </c>
+      <c r="C298" t="s">
+        <v>560</v>
+      </c>
+      <c r="D298">
+        <v>220</v>
+      </c>
+      <c r="E298">
+        <v>7900</v>
+      </c>
+      <c r="F298" s="1">
+        <v>44979.567928240744</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>4561195</v>
+      </c>
+      <c r="B299" t="s">
+        <v>561</v>
+      </c>
+      <c r="C299" t="s">
+        <v>562</v>
+      </c>
+      <c r="D299">
+        <v>250</v>
+      </c>
+      <c r="E299">
+        <v>5000</v>
+      </c>
+      <c r="F299" s="1">
+        <v>44979.37684027778</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>4560400</v>
+      </c>
+      <c r="B300" t="s">
+        <v>563</v>
+      </c>
+      <c r="C300" t="s">
+        <v>564</v>
+      </c>
+      <c r="D300">
+        <v>110</v>
+      </c>
+      <c r="E300">
+        <v>1500</v>
+      </c>
+      <c r="F300" s="1">
+        <v>44978.633414351854</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>4557524</v>
+      </c>
+      <c r="B301" t="s">
+        <v>565</v>
+      </c>
+      <c r="C301" t="s">
+        <v>566</v>
+      </c>
+      <c r="D301">
+        <v>130</v>
+      </c>
+      <c r="E301">
+        <v>5000</v>
+      </c>
+      <c r="F301" s="1">
+        <v>44976.737129629626</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>4555943</v>
+      </c>
+      <c r="B302" t="s">
+        <v>567</v>
+      </c>
+      <c r="C302" t="s">
+        <v>568</v>
+      </c>
+      <c r="D302">
+        <v>182</v>
+      </c>
+      <c r="E302">
+        <v>5000</v>
+      </c>
+      <c r="F302" s="1">
+        <v>44975.48908564815</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>4551277</v>
+      </c>
+      <c r="B303" t="s">
+        <v>569</v>
+      </c>
+      <c r="C303" t="s">
+        <v>570</v>
+      </c>
+      <c r="D303">
+        <v>220</v>
+      </c>
+      <c r="E303">
+        <v>4500</v>
+      </c>
+      <c r="F303" s="1">
+        <v>44972.63381944445</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>4544179</v>
+      </c>
+      <c r="B304" t="s">
+        <v>571</v>
+      </c>
+      <c r="C304" t="s">
+        <v>572</v>
+      </c>
+      <c r="D304">
+        <v>203</v>
+      </c>
+      <c r="E304">
+        <v>3800</v>
+      </c>
+      <c r="F304" s="1">
+        <v>44966.73915509259</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>4540806</v>
+      </c>
+      <c r="B305" t="s">
+        <v>573</v>
+      </c>
+      <c r="C305" t="s">
+        <v>574</v>
+      </c>
+      <c r="D305">
+        <v>153</v>
+      </c>
+      <c r="E305">
+        <v>4500</v>
+      </c>
+      <c r="F305" s="1">
+        <v>44964.51273148148</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>4539710</v>
+      </c>
+      <c r="B306" t="s">
+        <v>575</v>
+      </c>
+      <c r="C306" t="s">
+        <v>576</v>
+      </c>
+      <c r="D306">
+        <v>150</v>
+      </c>
+      <c r="E306">
+        <v>2700</v>
+      </c>
+      <c r="F306" s="1">
+        <v>44963.63670138889</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>4539288</v>
+      </c>
+      <c r="B307" t="s">
+        <v>577</v>
+      </c>
+      <c r="C307" t="s">
+        <v>578</v>
+      </c>
+      <c r="D307">
+        <v>70</v>
+      </c>
+      <c r="E307">
+        <v>1200</v>
+      </c>
+      <c r="F307" s="1">
+        <v>44963.452893518515</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>4536675</v>
+      </c>
+      <c r="B308" t="s">
+        <v>579</v>
+      </c>
+      <c r="C308" t="s">
+        <v>580</v>
+      </c>
+      <c r="D308">
+        <v>80</v>
+      </c>
+      <c r="E308">
+        <v>1300</v>
+      </c>
+      <c r="F308" s="1">
+        <v>44961.00623842593</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>4535243</v>
+      </c>
+      <c r="B309" t="s">
+        <v>581</v>
+      </c>
+      <c r="C309" t="s">
+        <v>582</v>
+      </c>
+      <c r="D309">
+        <v>180</v>
+      </c>
+      <c r="E309">
+        <v>2500</v>
+      </c>
+      <c r="F309" s="1">
+        <v>44959.878229166665</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>4535242</v>
+      </c>
+      <c r="B310" t="s">
+        <v>583</v>
+      </c>
+      <c r="C310" t="s">
+        <v>584</v>
+      </c>
+      <c r="D310">
+        <v>150</v>
+      </c>
+      <c r="E310">
+        <v>2500</v>
+      </c>
+      <c r="F310" s="1">
+        <v>44959.87820601852</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>4533322</v>
+      </c>
+      <c r="B311" t="s">
+        <v>585</v>
+      </c>
+      <c r="C311" t="s">
+        <v>586</v>
+      </c>
+      <c r="D311">
+        <v>160</v>
+      </c>
+      <c r="E311">
+        <v>5500</v>
+      </c>
+      <c r="F311" s="1">
+        <v>44958.63348379629</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>4529400</v>
+      </c>
+      <c r="B312" t="s">
+        <v>587</v>
+      </c>
+      <c r="C312" t="s">
+        <v>588</v>
+      </c>
+      <c r="D312">
+        <v>250</v>
+      </c>
+      <c r="E312">
+        <v>6500</v>
+      </c>
+      <c r="F312" s="1">
+        <v>44956.3852662037</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>4511395</v>
+      </c>
+      <c r="B313" t="s">
+        <v>589</v>
+      </c>
+      <c r="C313" t="s">
+        <v>590</v>
+      </c>
+      <c r="D313">
+        <v>90</v>
+      </c>
+      <c r="E313">
+        <v>1900</v>
+      </c>
+      <c r="F313" s="1">
+        <v>44943.632685185185</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>4511392</v>
+      </c>
+      <c r="B314" t="s">
+        <v>591</v>
+      </c>
+      <c r="C314" t="s">
+        <v>592</v>
+      </c>
+      <c r="D314">
+        <v>88</v>
+      </c>
+      <c r="E314">
+        <v>2000</v>
+      </c>
+      <c r="F314" s="1">
+        <v>44943.632569444446</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>4510556</v>
+      </c>
+      <c r="B315" t="s">
+        <v>593</v>
+      </c>
+      <c r="C315" t="s">
+        <v>594</v>
+      </c>
+      <c r="D315">
+        <v>95</v>
+      </c>
+      <c r="E315">
+        <v>2000</v>
+      </c>
+      <c r="F315" s="1">
+        <v>44943.32041666667</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>4509683</v>
+      </c>
+      <c r="B316" t="s">
+        <v>595</v>
+      </c>
+      <c r="C316" t="s">
+        <v>596</v>
+      </c>
+      <c r="D316">
+        <v>100</v>
+      </c>
+      <c r="E316">
+        <v>2300</v>
+      </c>
+      <c r="F316" s="1">
+        <v>44942.499456018515</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>4505502</v>
+      </c>
+      <c r="B317" t="s">
+        <v>597</v>
+      </c>
+      <c r="C317" t="s">
+        <v>598</v>
+      </c>
+      <c r="D317">
+        <v>150</v>
+      </c>
+      <c r="E317">
+        <v>12000</v>
+      </c>
+      <c r="F317" s="1">
+        <v>44938.511099537034</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>4505275</v>
+      </c>
+      <c r="B318" t="s">
+        <v>599</v>
+      </c>
+      <c r="C318" t="s">
+        <v>600</v>
+      </c>
+      <c r="D318">
+        <v>250</v>
+      </c>
+      <c r="E318">
+        <v>8000</v>
+      </c>
+      <c r="F318" s="1">
+        <v>44938.42350694445</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>4501342</v>
+      </c>
+      <c r="B319" t="s">
+        <v>601</v>
+      </c>
+      <c r="C319" t="s">
+        <v>602</v>
+      </c>
+      <c r="D319">
+        <v>100</v>
+      </c>
+      <c r="E319">
+        <v>350</v>
+      </c>
+      <c r="F319" s="1">
+        <v>44935.524097222224</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>4494784</v>
+      </c>
+      <c r="B320" t="s">
+        <v>603</v>
+      </c>
+      <c r="C320" t="s">
+        <v>604</v>
+      </c>
+      <c r="D320">
+        <v>210</v>
+      </c>
+      <c r="E320">
+        <v>4000</v>
+      </c>
+      <c r="F320" s="1">
+        <v>44929.52101851852</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>4494774</v>
+      </c>
+      <c r="B321" t="s">
+        <v>605</v>
+      </c>
+      <c r="C321" t="s">
+        <v>606</v>
+      </c>
+      <c r="D321">
+        <v>240</v>
+      </c>
+      <c r="E321">
+        <v>3900</v>
+      </c>
+      <c r="F321" s="1">
+        <v>44929.52076388889</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>4494715</v>
+      </c>
+      <c r="B322" t="s">
+        <v>607</v>
+      </c>
+      <c r="C322" t="s">
+        <v>608</v>
+      </c>
+      <c r="D322">
+        <v>95</v>
+      </c>
+      <c r="E322">
+        <v>3500</v>
+      </c>
+      <c r="F322" s="1">
+        <v>44929.5190162037</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>4476243</v>
+      </c>
+      <c r="B323" t="s">
+        <v>609</v>
+      </c>
+      <c r="C323" t="s">
+        <v>610</v>
+      </c>
+      <c r="D323">
+        <v>130</v>
+      </c>
+      <c r="E323">
+        <v>2000</v>
+      </c>
+      <c r="F323" s="1">
+        <v>44910.54949074074</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>4467237</v>
+      </c>
+      <c r="B324" t="s">
+        <v>611</v>
+      </c>
+      <c r="C324" t="s">
+        <v>612</v>
+      </c>
+      <c r="D324">
+        <v>90</v>
+      </c>
+      <c r="E324">
+        <v>2500</v>
+      </c>
+      <c r="F324" s="1">
+        <v>44903.88076388889</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>4459839</v>
+      </c>
+      <c r="B325" t="s">
+        <v>440</v>
+      </c>
+      <c r="C325" t="s">
+        <v>613</v>
+      </c>
+      <c r="D325">
+        <v>110</v>
+      </c>
+      <c r="E325">
+        <v>1800</v>
+      </c>
+      <c r="F325" s="1">
+        <v>44897.88931712963</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>4445170</v>
+      </c>
+      <c r="B326" t="s">
+        <v>614</v>
+      </c>
+      <c r="C326" t="s">
+        <v>615</v>
+      </c>
+      <c r="D326">
+        <v>180</v>
+      </c>
+      <c r="E326">
+        <v>2500</v>
+      </c>
+      <c r="F326" s="1">
+        <v>44893.58607638889</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>4422479</v>
+      </c>
+      <c r="B327" t="s">
+        <v>616</v>
+      </c>
+      <c r="C327" t="s">
+        <v>617</v>
+      </c>
+      <c r="D327">
+        <v>180</v>
+      </c>
+      <c r="E327">
+        <v>5000</v>
+      </c>
+      <c r="F327" s="1">
+        <v>44882.884664351855</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>4422478</v>
+      </c>
+      <c r="B328" t="s">
+        <v>618</v>
+      </c>
+      <c r="C328" t="s">
+        <v>619</v>
+      </c>
+      <c r="D328">
+        <v>87</v>
+      </c>
+      <c r="E328">
+        <v>1100</v>
+      </c>
+      <c r="F328" s="1">
+        <v>44882.8846412037</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>4420748</v>
+      </c>
+      <c r="B329" t="s">
+        <v>620</v>
+      </c>
+      <c r="C329" t="s">
+        <v>621</v>
+      </c>
+      <c r="D329">
+        <v>200</v>
+      </c>
+      <c r="E329">
+        <v>3000</v>
+      </c>
+      <c r="F329" s="1">
+        <v>44881.64565972222</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>4404117</v>
+      </c>
+      <c r="B330" t="s">
+        <v>622</v>
+      </c>
+      <c r="C330" t="s">
+        <v>623</v>
+      </c>
+      <c r="D330">
+        <v>95</v>
+      </c>
+      <c r="E330">
+        <v>1900</v>
+      </c>
+      <c r="F330" s="1">
+        <v>44868.542395833334</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>4391971</v>
+      </c>
+      <c r="B331" t="s">
+        <v>624</v>
+      </c>
+      <c r="C331" t="s">
+        <v>625</v>
+      </c>
+      <c r="D331">
+        <v>170</v>
+      </c>
+      <c r="E331">
+        <v>3100</v>
+      </c>
+      <c r="F331" s="1">
+        <v>44860.887083333335</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>4374399</v>
+      </c>
+      <c r="B332" t="s">
+        <v>626</v>
+      </c>
+      <c r="C332" t="s">
+        <v>627</v>
+      </c>
+      <c r="D332">
+        <v>124</v>
+      </c>
+      <c r="E332">
+        <v>2800</v>
+      </c>
+      <c r="F332" s="1">
+        <v>44846.76306712963</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>4248799</v>
+      </c>
+      <c r="B333" t="s">
+        <v>129</v>
+      </c>
+      <c r="C333" t="s">
+        <v>628</v>
+      </c>
+      <c r="D333">
+        <v>207</v>
+      </c>
+      <c r="E333">
+        <v>9000</v>
+      </c>
+      <c r="F333" s="1">
+        <v>44755.40729166667</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>4182284</v>
+      </c>
+      <c r="B334" t="s">
+        <v>629</v>
+      </c>
+      <c r="C334" t="s">
+        <v>630</v>
+      </c>
+      <c r="D334">
+        <v>170</v>
+      </c>
+      <c r="E334">
+        <v>650</v>
+      </c>
+      <c r="F334" s="1">
+        <v>44702.75950231482</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>3661363</v>
+      </c>
+      <c r="B335" t="s">
+        <v>631</v>
+      </c>
+      <c r="C335" t="s">
+        <v>632</v>
+      </c>
+      <c r="D335">
+        <v>171</v>
+      </c>
+      <c r="E335">
+        <v>6000</v>
+      </c>
+      <c r="F335" s="1">
+        <v>44330.26909722222</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>3259755</v>
+      </c>
+      <c r="B336" t="s">
+        <v>633</v>
+      </c>
+      <c r="C336" t="s">
+        <v>634</v>
+      </c>
+      <c r="D336">
+        <v>232</v>
+      </c>
+      <c r="E336">
+        <v>10000</v>
+      </c>
+      <c r="F336" s="1">
+        <v>44112.38516203704</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>2931028</v>
+      </c>
+      <c r="B337" t="s">
+        <v>635</v>
+      </c>
+      <c r="C337" t="s">
+        <v>636</v>
+      </c>
+      <c r="D337">
+        <v>50</v>
+      </c>
+      <c r="E337">
+        <v>600</v>
+      </c>
+      <c r="F337" s="1">
+        <v>43995.52462962963</v>
       </c>
     </row>
   </sheetData>

--- a/Bazaraki.xlsx
+++ b/Bazaraki.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="638">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,12 @@
     <t>Дата создания объявления</t>
   </si>
   <si>
+    <t>177sqm office in city centre for investment</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4724725_177sqm-office-in-city-centre-for-investment/</t>
+  </si>
+  <si>
     <t>Shop in leoforos omonoias limassol</t>
   </si>
   <si>
@@ -484,9 +490,6 @@
     <t>https://www.bazaraki.com/adv/4506739_shop-in-limassol/</t>
   </si>
   <si>
-    <t>https://www.bazaraki.com/adv/4499649_office-in-limassol-cyprus/</t>
-  </si>
-  <si>
     <t>Office space in mesa geitonia area, limassol</t>
   </si>
   <si>
@@ -703,6 +706,24 @@
     <t>https://www.bazaraki.com/adv/2798457_shop-at-fayza-house-limassol/</t>
   </si>
   <si>
+    <t>Griva digeni office space 160m2</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4725808_griva-digeni-office-space-160m2/</t>
+  </si>
+  <si>
+    <t>Γραφείο στη λεωφόρο ομονοίας</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4724483_grapheio-ste-leophoro-omonoias/</t>
+  </si>
+  <si>
+    <t>Modern office with nice location</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4724155_modern-office-with-nice-location/</t>
+  </si>
+  <si>
     <t>Modern office space in neapolis area</t>
   </si>
   <si>
@@ -799,162 +820,153 @@
     <t>https://www.bazaraki.com/adv/4719731_offices-in-nafi-area-limassol-id4531/</t>
   </si>
   <si>
+    <t>150 τ.μ στην θεκλας λυσιωτου 23α</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4719420_enoikiazetai-e-polete-150-t-m-sten-theklas-lusiotou-23a/</t>
+  </si>
+  <si>
+    <t>Αίθουσες διδασκαλίας μέσα γειτονιά λεμεσός</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4719366_aithouses-didaskalias-mesa-geitonia-lemesos/</t>
+  </si>
+  <si>
+    <t>Office potamos germasogias</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4719188_office-potamos-germasogias/</t>
+  </si>
+  <si>
+    <t>Office in agia zoni</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4718330_office-in-agia-zoni/</t>
+  </si>
+  <si>
+    <t>Office or shop</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4718101_office-or-shop/</t>
+  </si>
+  <si>
+    <t>110m2 office city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4717320_110m2-office-city-center/</t>
+  </si>
+  <si>
+    <t>Office in agios nicolaos area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4717225_office-in-agios-nicolaos-area/</t>
+  </si>
+  <si>
+    <t>Prime location office space in central limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4717061_prime-location-office-space-in-central-limassol/</t>
+  </si>
+  <si>
+    <t>Ground floor office in limassol, makariou avenue</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4713887_ground-floor-office-in-limassol-makariou-avenue/</t>
+  </si>
+  <si>
+    <t>Restaurant/bar in limassol, agios tychonas</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4713524_restaurant-bar-in-limassol-agios-tychonas/</t>
+  </si>
+  <si>
+    <t>Renovated office space of 53sq.m.+23sq.m. in agias zonis area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4713087_renovated-office-space-of-53sq-m-23sq-m-in-agias-zonis-area/</t>
+  </si>
+  <si>
+    <t>Offices in neapolis area</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4712769_offices-in-neapolis-area/</t>
+  </si>
+  <si>
+    <t>Immaculate</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4712137_immaculate/</t>
+  </si>
+  <si>
+    <t>Office in kapsalos limassol cyprus</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711882_office-in-kapsalos-limassol-cyprus/</t>
+  </si>
+  <si>
+    <t>Office space in limassol, omonia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711596_office-space-in-limassol-omonia/</t>
+  </si>
+  <si>
+    <t>Office in kapsalos</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711560_office-in-kapsalos/</t>
+  </si>
+  <si>
+    <t>Shop / office in monovolikos area, kato polemidia</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711460_shop-office-in-monovolikos-area-kato-polemidia/</t>
+  </si>
+  <si>
+    <t>Modern office in ayios nicolaos area limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711429_modern-office-in-ayios-nicolaos-area-limassol/</t>
+  </si>
+  <si>
+    <t>Luxury commercial office</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711152_luxury-commercial-office/</t>
+  </si>
+  <si>
+    <t>Luxury commercial office on business centre</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4711102_luxury-commercial-office-on-business-centre/</t>
+  </si>
+  <si>
+    <t>Office 60 sq. meters</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4710626_office-60-sq-meters/</t>
+  </si>
+  <si>
+    <t>Ενοικιάζετε γραφειακός χώρος στο κέντρο λεμεσού/ αγία ζώνη.</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4710542_enoikiazete-grapheiakos-khoros-sto-kentro-lemesou-agia-zone/</t>
+  </si>
+  <si>
+    <t>Office in katholiki limassol cyprus</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4710432_office-in-katholiki-limassol-cyprus/</t>
+  </si>
+  <si>
+    <t>Shop in agia zoni limassol cyprus</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4710431_shop-in-agia-zoni-limassol-cyprus/</t>
+  </si>
+  <si>
     <t>Office in agia zoni limassol cyprus</t>
   </si>
   <si>
-    <t>https://www.bazaraki.com/adv/4719650_office-in-agia-zoni-limassol-cyprus/</t>
-  </si>
-  <si>
-    <t>150 τ.μ στην θεκλας λυσιωτου 23α</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4719420_enoikiazetai-e-polete-150-t-m-sten-theklas-lusiotou-23a/</t>
-  </si>
-  <si>
-    <t>Αίθουσες διδασκαλίας μέσα γειτονιά λεμεσός</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4719366_aithouses-didaskalias-mesa-geitonia-lemesos/</t>
-  </si>
-  <si>
-    <t>Office potamos germasogias</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4719188_office-potamos-germasogias/</t>
-  </si>
-  <si>
-    <t>Office in agia zoni</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4718330_office-in-agia-zoni/</t>
-  </si>
-  <si>
-    <t>Office or shop</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4718101_office-or-shop/</t>
-  </si>
-  <si>
-    <t>110m2 office city center</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4717320_110m2-office-city-center/</t>
-  </si>
-  <si>
-    <t>Office in agios nicolaos area</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4717225_office-in-agios-nicolaos-area/</t>
-  </si>
-  <si>
-    <t>Prime location office space in central limassol</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4717061_prime-location-office-space-in-central-limassol/</t>
-  </si>
-  <si>
-    <t>Ground floor office in limassol, makariou avenue</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4713887_ground-floor-office-in-limassol-makariou-avenue/</t>
-  </si>
-  <si>
-    <t>Restaurant/bar in limassol, agios tychonas</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4713524_restaurant-bar-in-limassol-agios-tychonas/</t>
-  </si>
-  <si>
-    <t>Renovated office space of 53sq.m.+23sq.m. in agias zonis area</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4713087_renovated-office-space-of-53sq-m-23sq-m-in-agias-zonis-area/</t>
-  </si>
-  <si>
-    <t>Offices in neapolis area</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4712769_offices-in-neapolis-area/</t>
-  </si>
-  <si>
-    <t>Immaculate</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4712137_immaculate/</t>
-  </si>
-  <si>
-    <t>Office in kapsalos limassol cyprus</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4711882_office-in-kapsalos-limassol-cyprus/</t>
-  </si>
-  <si>
-    <t>Office space in limassol, omonia</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4711596_office-space-in-limassol-omonia/</t>
-  </si>
-  <si>
-    <t>Office in kapsalos</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4711560_office-in-kapsalos/</t>
-  </si>
-  <si>
-    <t>Shop / office in monovolikos area, kato polemidia</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4711460_shop-office-in-monovolikos-area-kato-polemidia/</t>
-  </si>
-  <si>
-    <t>Modern office in ayios nicolaos area limassol</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4711429_modern-office-in-ayios-nicolaos-area-limassol/</t>
-  </si>
-  <si>
-    <t>Office spaces in limassol, agias zonis</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4711167_office-spaces-in-limassol-agias-zonis/</t>
-  </si>
-  <si>
-    <t>Luxury commercial office</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4711152_luxury-commercial-office/</t>
-  </si>
-  <si>
-    <t>Luxury commercial office on business centre</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4711102_luxury-commercial-office-on-business-centre/</t>
-  </si>
-  <si>
-    <t>Office 60 sq. meters</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4710626_office-60-sq-meters/</t>
-  </si>
-  <si>
-    <t>Ενοικιάζετε γραφειακός χώρος στο κέντρο λεμεσού/ αγία ζώνη.</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4710542_enoikiazete-grapheiakos-khoros-sto-kentro-lemesou-agia-zone/</t>
-  </si>
-  <si>
-    <t>Office in katholiki limassol cyprus</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4710432_office-in-katholiki-limassol-cyprus/</t>
-  </si>
-  <si>
-    <t>Shop in agia zoni limassol cyprus</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4710431_shop-in-agia-zoni-limassol-cyprus/</t>
-  </si>
-  <si>
     <t>https://www.bazaraki.com/adv/4710416_office-in-agia-zoni-limassol-cyprus/</t>
   </si>
   <si>
@@ -1078,10 +1090,10 @@
     <t>https://www.bazaraki.com/adv/4700582_shop-in-trachoni-main-street/</t>
   </si>
   <si>
-    <t>Shop in pyrgos lemesou limassol cyprus</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4699992_shop-in-pyrgos-lemesou-limassol-cyprus/</t>
+    <t>Office in city center</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4698681_office-in-city-center/</t>
   </si>
   <si>
     <t>Office space with walking distance to the beach - city centre</t>
@@ -1090,9 +1102,6 @@
     <t>https://www.bazaraki.com/adv/4698292_office-space-with-walking-distance-to-the-beach-city-centre/</t>
   </si>
   <si>
-    <t>https://www.bazaraki.com/adv/4698269_shop-in-agia-zoni-limassol-cyprus/</t>
-  </si>
-  <si>
     <t>220sqm top floor office in anexartisias, limassol</t>
   </si>
   <si>
@@ -1108,12 +1117,6 @@
     <t>https://www.bazaraki.com/adv/4697052_office-140-sqm-next-to-district-court-and-municipality-park/</t>
   </si>
   <si>
-    <t>Shop/office space potamos germasogeia</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4696462_shop-office-space-potamos-germasogeia/</t>
-  </si>
-  <si>
     <t>Office in agios nicolaos</t>
   </si>
   <si>
@@ -1399,7 +1402,7 @@
     <t>https://www.bazaraki.com/adv/4662181_office-space-in-limassol-center/</t>
   </si>
   <si>
-    <t>Showroom / office - 200m²</t>
+    <t>Showroom/office - 200m² available from 01/06/23</t>
   </si>
   <si>
     <t>https://www.bazaraki.com/adv/4660560_showroom-at-vassileos-konstantinou-200sqm/</t>
@@ -1819,12 +1822,6 @@
     <t>https://www.bazaraki.com/adv/4505275_city-center-offices-250sq-meters/</t>
   </si>
   <si>
-    <t>Fully furnished serviced offices</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4501342_fully-furnished-serviced-offices/</t>
-  </si>
-  <si>
     <t>Office, top floor, whole floor, central location</t>
   </si>
   <si>
@@ -1855,6 +1852,12 @@
     <t>https://www.bazaraki.com/adv/4467237_office-of-90-sqm-in-neapoli-area/</t>
   </si>
   <si>
+    <t>Clinic/office in the center of limassol</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4462856_clinic-office-in-the-center-of-limassol/</t>
+  </si>
+  <si>
     <t>https://www.bazaraki.com/adv/4459839_brand-new-office-or-showroom-of110-sqm/</t>
   </si>
   <si>
@@ -1882,16 +1885,16 @@
     <t>https://www.bazaraki.com/adv/4420748_whole-floor-office-in-limassol-town/</t>
   </si>
   <si>
-    <t>New offices near limassol marina</t>
-  </si>
-  <si>
-    <t>https://www.bazaraki.com/adv/4404117_new-offices-near-limassol-marina/</t>
-  </si>
-  <si>
     <t>170m² office for by the sea</t>
   </si>
   <si>
     <t>https://www.bazaraki.com/adv/4391971_170m2-office-for-by-the-sea/</t>
+  </si>
+  <si>
+    <t>250 office in the center of the city</t>
+  </si>
+  <si>
+    <t>https://www.bazaraki.com/adv/4381745_250-office-in-the-center-of-the-city/</t>
   </si>
   <si>
     <t>Whole floor office of 124sqm in agia zoni</t>
@@ -2259,7 +2262,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>4721374</v>
+        <v>4724725</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2268,18 +2271,18 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="E2">
-        <v>120000</v>
+        <v>365000</v>
       </c>
       <c r="F2" s="1">
-        <v>45070.55881944444</v>
+        <v>45072.753067129626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>4719261</v>
+        <v>4721374</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2288,18 +2291,18 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>1200000</v>
+        <v>120000</v>
       </c>
       <c r="F3" s="1">
-        <v>45069.36518518518</v>
+        <v>45070.55881944444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4717864</v>
+        <v>4719261</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2308,18 +2311,18 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="E4">
-        <v>368000</v>
+        <v>1200000</v>
       </c>
       <c r="F4" s="1">
-        <v>45068.51038194444</v>
+        <v>45069.36518518518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4717282</v>
+        <v>4717864</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -2334,12 +2337,12 @@
         <v>368000</v>
       </c>
       <c r="F5" s="1">
-        <v>45068.34438657408</v>
+        <v>45068.51038194444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>4716944</v>
+        <v>4717282</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2354,12 +2357,12 @@
         <v>368000</v>
       </c>
       <c r="F6" s="1">
-        <v>45067.76037037037</v>
+        <v>45068.34438657408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>4714020</v>
+        <v>4716944</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -2368,78 +2371,78 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="E7">
-        <v>660000</v>
+        <v>368000</v>
       </c>
       <c r="F7" s="1">
-        <v>45066.25599537037</v>
+        <v>45067.76037037037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>4714009</v>
+        <v>4714020</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E8">
-        <v>910000</v>
+        <v>660000</v>
       </c>
       <c r="F8" s="1">
-        <v>45066.254953703705</v>
+        <v>45066.25599537037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>4714008</v>
+        <v>4714009</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="E9">
-        <v>880000</v>
+        <v>910000</v>
       </c>
       <c r="F9" s="1">
-        <v>45066.25488425926</v>
+        <v>45066.254953703705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>4712422</v>
+        <v>4714008</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="E10">
-        <v>265000</v>
+        <v>880000</v>
       </c>
       <c r="F10" s="1">
-        <v>45064.75734953704</v>
+        <v>45066.25488425926</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>4710450</v>
+        <v>4712422</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -2448,18 +2451,18 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="E11">
-        <v>280000</v>
+        <v>265000</v>
       </c>
       <c r="F11" s="1">
-        <v>45063.50707175926</v>
+        <v>45064.75734953704</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>4707466</v>
+        <v>4710450</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -2468,18 +2471,18 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="E12">
-        <v>611000</v>
+        <v>280000</v>
       </c>
       <c r="F12" s="1">
-        <v>45062.751608796294</v>
+        <v>45063.50707175926</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>4707171</v>
+        <v>4707466</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -2488,18 +2491,18 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="E13">
-        <v>370000</v>
+        <v>611000</v>
       </c>
       <c r="F13" s="1">
-        <v>45062.64212962963</v>
+        <v>45062.751608796294</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>4707148</v>
+        <v>4707171</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -2508,18 +2511,18 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E14">
-        <v>550000</v>
+        <v>370000</v>
       </c>
       <c r="F14" s="1">
-        <v>45062.640752314815</v>
+        <v>45062.64212962963</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>4704575</v>
+        <v>4707148</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -2528,18 +2531,18 @@
         <v>31</v>
       </c>
       <c r="D15">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="E15">
-        <v>368000</v>
+        <v>550000</v>
       </c>
       <c r="F15" s="1">
-        <v>45061.41887731481</v>
+        <v>45062.640752314815</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>4701709</v>
+        <v>4704575</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -2548,18 +2551,18 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="E16">
-        <v>1600000</v>
+        <v>368000</v>
       </c>
       <c r="F16" s="1">
-        <v>45058.62601851852</v>
+        <v>45061.41887731481</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>4701313</v>
+        <v>4701709</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -2568,18 +2571,18 @@
         <v>35</v>
       </c>
       <c r="D17">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="E17">
-        <v>660000</v>
+        <v>1600000</v>
       </c>
       <c r="F17" s="1">
-        <v>45058.42391203704</v>
+        <v>45058.62601851852</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>4701114</v>
+        <v>4701313</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -2588,18 +2591,18 @@
         <v>37</v>
       </c>
       <c r="D18">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E18">
-        <v>1600000</v>
+        <v>660000</v>
       </c>
       <c r="F18" s="1">
-        <v>45058.37673611111</v>
+        <v>45058.42391203704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>4700356</v>
+        <v>4701114</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -2608,18 +2611,18 @@
         <v>39</v>
       </c>
       <c r="D19">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="E19">
-        <v>280000</v>
+        <v>1600000</v>
       </c>
       <c r="F19" s="1">
-        <v>45057.62741898148</v>
+        <v>45058.37673611111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>4699442</v>
+        <v>4700356</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -2634,12 +2637,12 @@
         <v>280000</v>
       </c>
       <c r="F20" s="1">
-        <v>45057.377222222225</v>
+        <v>45057.62741898148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>4699342</v>
+        <v>4699442</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -2648,18 +2651,18 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="E21">
-        <v>500000</v>
+        <v>280000</v>
       </c>
       <c r="F21" s="1">
-        <v>45057.33484953704</v>
+        <v>45057.377222222225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>4698805</v>
+        <v>4699342</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
@@ -2668,58 +2671,58 @@
         <v>45</v>
       </c>
       <c r="D22">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="E22">
-        <v>850000</v>
+        <v>500000</v>
       </c>
       <c r="F22" s="1">
-        <v>45056.751655092594</v>
+        <v>45057.33484953704</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>4698554</v>
+        <v>4698805</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>138</v>
       </c>
       <c r="E23">
-        <v>805000</v>
+        <v>850000</v>
       </c>
       <c r="F23" s="1">
-        <v>45056.62635416666</v>
+        <v>45056.751655092594</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>4697055</v>
+        <v>4698554</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="D24">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E24">
-        <v>300000</v>
+        <v>805000</v>
       </c>
       <c r="F24" s="1">
-        <v>45055.605844907404</v>
+        <v>45056.62635416666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>4696705</v>
+        <v>4697055</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -2728,18 +2731,18 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="E25">
-        <v>540000</v>
+        <v>300000</v>
       </c>
       <c r="F25" s="1">
-        <v>45055.50114583333</v>
+        <v>45055.605844907404</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4696508</v>
+        <v>4696705</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
@@ -2748,18 +2751,18 @@
         <v>52</v>
       </c>
       <c r="D26">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="E26">
-        <v>1200000</v>
+        <v>540000</v>
       </c>
       <c r="F26" s="1">
-        <v>45055.407534722224</v>
+        <v>45055.50114583333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>4696481</v>
+        <v>4696508</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
@@ -2768,18 +2771,18 @@
         <v>54</v>
       </c>
       <c r="D27">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="E27">
-        <v>480000</v>
+        <v>1200000</v>
       </c>
       <c r="F27" s="1">
-        <v>45055.40008101852</v>
+        <v>45055.407534722224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>4696385</v>
+        <v>4696481</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
@@ -2788,18 +2791,18 @@
         <v>56</v>
       </c>
       <c r="D28">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="E28">
-        <v>2200000</v>
+        <v>480000</v>
       </c>
       <c r="F28" s="1">
-        <v>45055.369791666664</v>
+        <v>45055.40008101852</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>4696376</v>
+        <v>4696385</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -2808,18 +2811,18 @@
         <v>58</v>
       </c>
       <c r="D29">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="E29">
-        <v>600000</v>
+        <v>2200000</v>
       </c>
       <c r="F29" s="1">
-        <v>45055.365949074076</v>
+        <v>45055.369791666664</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>4696237</v>
+        <v>4696376</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -2828,18 +2831,18 @@
         <v>60</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E30">
-        <v>360000</v>
+        <v>600000</v>
       </c>
       <c r="F30" s="1">
-        <v>45055.29398148148</v>
+        <v>45055.365949074076</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>4691228</v>
+        <v>4696237</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -2848,58 +2851,58 @@
         <v>62</v>
       </c>
       <c r="D31">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E31">
-        <v>600000</v>
+        <v>360000</v>
       </c>
       <c r="F31" s="1">
-        <v>45051.376435185186</v>
+        <v>45055.29398148148</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>4687890</v>
+        <v>4691228</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E32">
-        <v>1500000</v>
+        <v>600000</v>
       </c>
       <c r="F32" s="1">
-        <v>45048.75144675926</v>
+        <v>45051.376435185186</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>4686980</v>
+        <v>4687890</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
       </c>
       <c r="D33">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="E33">
-        <v>1237186</v>
+        <v>1500000</v>
       </c>
       <c r="F33" s="1">
-        <v>45048.37636574074</v>
+        <v>45048.75144675926</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>4686827</v>
+        <v>4686980</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
@@ -2908,18 +2911,18 @@
         <v>67</v>
       </c>
       <c r="D34">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="E34">
-        <v>95000</v>
+        <v>1237186</v>
       </c>
       <c r="F34" s="1">
-        <v>45048.295949074076</v>
+        <v>45048.37636574074</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>4684174</v>
+        <v>4686827</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
@@ -2928,18 +2931,18 @@
         <v>69</v>
       </c>
       <c r="D35">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="E35">
-        <v>1500000</v>
+        <v>95000</v>
       </c>
       <c r="F35" s="1">
-        <v>45045.50996527778</v>
+        <v>45048.295949074076</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>4683331</v>
+        <v>4684174</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
@@ -2948,18 +2951,18 @@
         <v>71</v>
       </c>
       <c r="D36">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="E36">
-        <v>2210200</v>
+        <v>1500000</v>
       </c>
       <c r="F36" s="1">
-        <v>45044.62634259259</v>
+        <v>45045.50996527778</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>4682762</v>
+        <v>4683331</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -2968,18 +2971,18 @@
         <v>73</v>
       </c>
       <c r="D37">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="E37">
-        <v>565000</v>
+        <v>2210200</v>
       </c>
       <c r="F37" s="1">
-        <v>45044.375810185185</v>
+        <v>45044.62634259259</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>4679181</v>
+        <v>4682762</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
@@ -2988,18 +2991,18 @@
         <v>75</v>
       </c>
       <c r="D38">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="E38">
-        <v>1000000</v>
+        <v>565000</v>
       </c>
       <c r="F38" s="1">
-        <v>45041.756875</v>
+        <v>45044.375810185185</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>4676005</v>
+        <v>4679181</v>
       </c>
       <c r="B39" t="s">
         <v>76</v>
@@ -3008,58 +3011,58 @@
         <v>77</v>
       </c>
       <c r="D39">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E39">
-        <v>180000</v>
+        <v>1000000</v>
       </c>
       <c r="F39" s="1">
-        <v>45040.37637731482</v>
+        <v>45041.756875</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4676002</v>
+        <v>4676005</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D40">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E40">
-        <v>1009483</v>
+        <v>180000</v>
       </c>
       <c r="F40" s="1">
-        <v>45040.37619212963</v>
+        <v>45040.37637731482</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>4673588</v>
+        <v>4676002</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
       </c>
       <c r="D41">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="E41">
-        <v>611000</v>
+        <v>1009483</v>
       </c>
       <c r="F41" s="1">
-        <v>45037.75806712963</v>
+        <v>45040.37619212963</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>4672684</v>
+        <v>4673588</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
@@ -3068,18 +3071,18 @@
         <v>82</v>
       </c>
       <c r="D42">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="E42">
-        <v>1600000</v>
+        <v>611000</v>
       </c>
       <c r="F42" s="1">
-        <v>45037.414189814815</v>
+        <v>45037.75806712963</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>4668267</v>
+        <v>4672684</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -3088,18 +3091,18 @@
         <v>84</v>
       </c>
       <c r="D43">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E43">
-        <v>450000</v>
+        <v>1600000</v>
       </c>
       <c r="F43" s="1">
-        <v>45034.28559027778</v>
+        <v>45037.414189814815</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>4664079</v>
+        <v>4668267</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
@@ -3108,18 +3111,18 @@
         <v>86</v>
       </c>
       <c r="D44">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="E44">
-        <v>360000</v>
+        <v>450000</v>
       </c>
       <c r="F44" s="1">
-        <v>45029.50099537037</v>
+        <v>45034.28559027778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>4662382</v>
+        <v>4664079</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -3128,18 +3131,18 @@
         <v>88</v>
       </c>
       <c r="D45">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E45">
         <v>360000</v>
       </c>
       <c r="F45" s="1">
-        <v>45028.376388888886</v>
+        <v>45029.50099537037</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>4654221</v>
+        <v>4662382</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
@@ -3148,18 +3151,18 @@
         <v>90</v>
       </c>
       <c r="D46">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="E46">
-        <v>565000</v>
+        <v>360000</v>
       </c>
       <c r="F46" s="1">
-        <v>45022.37645833333</v>
+        <v>45028.376388888886</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>4652937</v>
+        <v>4654221</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
@@ -3174,12 +3177,12 @@
         <v>565000</v>
       </c>
       <c r="F47" s="1">
-        <v>45021.500972222224</v>
+        <v>45022.37645833333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>4644332</v>
+        <v>4652937</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -3188,18 +3191,18 @@
         <v>94</v>
       </c>
       <c r="D48">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E48">
-        <v>1517000</v>
+        <v>565000</v>
       </c>
       <c r="F48" s="1">
-        <v>45015.38422453704</v>
+        <v>45021.500972222224</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>4644331</v>
+        <v>4644332</v>
       </c>
       <c r="B49" t="s">
         <v>95</v>
@@ -3208,10 +3211,10 @@
         <v>96</v>
       </c>
       <c r="D49">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E49">
-        <v>1532000</v>
+        <v>1517000</v>
       </c>
       <c r="F49" s="1">
         <v>45015.38422453704</v>
@@ -3219,7 +3222,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>4644329</v>
+        <v>4644331</v>
       </c>
       <c r="B50" t="s">
         <v>97</v>
@@ -3228,18 +3231,18 @@
         <v>98</v>
       </c>
       <c r="D50">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E50">
-        <v>1215000</v>
+        <v>1532000</v>
       </c>
       <c r="F50" s="1">
-        <v>45015.384201388886</v>
+        <v>45015.38422453704</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>4644328</v>
+        <v>4644329</v>
       </c>
       <c r="B51" t="s">
         <v>99</v>
@@ -3248,10 +3251,10 @@
         <v>100</v>
       </c>
       <c r="D51">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="E51">
-        <v>611000</v>
+        <v>1215000</v>
       </c>
       <c r="F51" s="1">
         <v>45015.384201388886</v>
@@ -3259,67 +3262,67 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>4633169</v>
+        <v>4644328</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D52">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="E52">
-        <v>1115000</v>
+        <v>611000</v>
       </c>
       <c r="F52" s="1">
-        <v>45013.75430555556</v>
+        <v>45015.384201388886</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>4633167</v>
+        <v>4633169</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D53">
         <v>206</v>
       </c>
       <c r="E53">
-        <v>920000</v>
+        <v>1115000</v>
       </c>
       <c r="F53" s="1">
-        <v>45013.754270833335</v>
+        <v>45013.75430555556</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>4632180</v>
+        <v>4633167</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>104</v>
       </c>
       <c r="D54">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E54">
-        <v>540000</v>
+        <v>920000</v>
       </c>
       <c r="F54" s="1">
-        <v>45013.63730324074</v>
+        <v>45013.754270833335</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>4617232</v>
+        <v>4632180</v>
       </c>
       <c r="B55" t="s">
         <v>105</v>
@@ -3328,18 +3331,18 @@
         <v>106</v>
       </c>
       <c r="D55">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E55">
-        <v>2527435</v>
+        <v>540000</v>
       </c>
       <c r="F55" s="1">
-        <v>45009.50215277778</v>
+        <v>45013.63730324074</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>4617230</v>
+        <v>4617232</v>
       </c>
       <c r="B56" t="s">
         <v>107</v>
@@ -3348,18 +3351,18 @@
         <v>108</v>
       </c>
       <c r="D56">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E56">
-        <v>3188280</v>
+        <v>2527435</v>
       </c>
       <c r="F56" s="1">
-        <v>45009.502071759256</v>
+        <v>45009.50215277778</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>4611644</v>
+        <v>4617230</v>
       </c>
       <c r="B57" t="s">
         <v>109</v>
@@ -3368,18 +3371,18 @@
         <v>110</v>
       </c>
       <c r="D57">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="E57">
-        <v>1047434</v>
+        <v>3188280</v>
       </c>
       <c r="F57" s="1">
-        <v>45008.37600694445</v>
+        <v>45009.502071759256</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>4604346</v>
+        <v>4611644</v>
       </c>
       <c r="B58" t="s">
         <v>111</v>
@@ -3388,18 +3391,18 @@
         <v>112</v>
       </c>
       <c r="D58">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="E58">
-        <v>2500000</v>
+        <v>1047434</v>
       </c>
       <c r="F58" s="1">
-        <v>45005.37855324074</v>
+        <v>45008.37600694445</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>4601359</v>
+        <v>4604346</v>
       </c>
       <c r="B59" t="s">
         <v>113</v>
@@ -3408,18 +3411,18 @@
         <v>114</v>
       </c>
       <c r="D59">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="E59">
-        <v>600000</v>
+        <v>2500000</v>
       </c>
       <c r="F59" s="1">
-        <v>45002.758472222224</v>
+        <v>45005.37855324074</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>4591859</v>
+        <v>4601359</v>
       </c>
       <c r="B60" t="s">
         <v>115</v>
@@ -3428,18 +3431,18 @@
         <v>116</v>
       </c>
       <c r="D60">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E60">
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="F60" s="1">
-        <v>45000.357881944445</v>
+        <v>45002.758472222224</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>4591367</v>
+        <v>4591859</v>
       </c>
       <c r="B61" t="s">
         <v>117</v>
@@ -3448,18 +3451,18 @@
         <v>118</v>
       </c>
       <c r="D61">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="E61">
-        <v>2012000</v>
+        <v>750000</v>
       </c>
       <c r="F61" s="1">
-        <v>44999.756898148145</v>
+        <v>45000.357881944445</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>4582432</v>
+        <v>4591367</v>
       </c>
       <c r="B62" t="s">
         <v>119</v>
@@ -3468,18 +3471,18 @@
         <v>120</v>
       </c>
       <c r="D62">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="E62">
-        <v>360000</v>
+        <v>2012000</v>
       </c>
       <c r="F62" s="1">
-        <v>44994.38015046297</v>
+        <v>44999.756898148145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>4579437</v>
+        <v>4582432</v>
       </c>
       <c r="B63" t="s">
         <v>121</v>
@@ -3488,18 +3491,18 @@
         <v>122</v>
       </c>
       <c r="D63">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="E63">
-        <v>520000</v>
+        <v>360000</v>
       </c>
       <c r="F63" s="1">
-        <v>44992.501493055555</v>
+        <v>44994.38015046297</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>4559059</v>
+        <v>4579437</v>
       </c>
       <c r="B64" t="s">
         <v>123</v>
@@ -3508,18 +3511,18 @@
         <v>124</v>
       </c>
       <c r="D64">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="E64">
-        <v>395000</v>
+        <v>520000</v>
       </c>
       <c r="F64" s="1">
-        <v>44977.801782407405</v>
+        <v>44992.501493055555</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>4558998</v>
+        <v>4559059</v>
       </c>
       <c r="B65" t="s">
         <v>125</v>
@@ -3528,18 +3531,18 @@
         <v>126</v>
       </c>
       <c r="D65">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E65">
-        <v>495000</v>
+        <v>395000</v>
       </c>
       <c r="F65" s="1">
-        <v>44977.76740740741</v>
+        <v>44977.801782407405</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>4535313</v>
+        <v>4558998</v>
       </c>
       <c r="B66" t="s">
         <v>127</v>
@@ -3548,18 +3551,18 @@
         <v>128</v>
       </c>
       <c r="D66">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E66">
         <v>495000</v>
       </c>
       <c r="F66" s="1">
-        <v>44960.231261574074</v>
+        <v>44977.76740740741</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>4522275</v>
+        <v>4535313</v>
       </c>
       <c r="B67" t="s">
         <v>129</v>
@@ -3568,278 +3571,278 @@
         <v>130</v>
       </c>
       <c r="D67">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E67">
-        <v>2015000</v>
+        <v>495000</v>
       </c>
       <c r="F67" s="1">
-        <v>44950.8783912037</v>
+        <v>44960.231261574074</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>4521842</v>
+        <v>4522275</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D68">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="E68">
-        <v>607000</v>
+        <v>2015000</v>
       </c>
       <c r="F68" s="1">
-        <v>44950.769791666666</v>
+        <v>44950.8783912037</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>4521833</v>
+        <v>4521842</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D69">
         <v>85</v>
       </c>
       <c r="E69">
-        <v>632000</v>
+        <v>607000</v>
       </c>
       <c r="F69" s="1">
-        <v>44950.76898148148</v>
+        <v>44950.769791666666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>4521832</v>
+        <v>4521833</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D70">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E70">
-        <v>688000</v>
+        <v>632000</v>
       </c>
       <c r="F70" s="1">
-        <v>44950.76887731482</v>
+        <v>44950.76898148148</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>4521826</v>
+        <v>4521832</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D71">
         <v>100</v>
       </c>
       <c r="E71">
-        <v>698000</v>
+        <v>688000</v>
       </c>
       <c r="F71" s="1">
-        <v>44950.76829861111</v>
+        <v>44950.76887731482</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>4521821</v>
+        <v>4521826</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D72">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>622000</v>
+        <v>698000</v>
       </c>
       <c r="F72" s="1">
-        <v>44950.7678125</v>
+        <v>44950.76829861111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>4521820</v>
+        <v>4521821</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D73">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E73">
-        <v>2016000</v>
+        <v>622000</v>
       </c>
       <c r="F73" s="1">
-        <v>44950.767696759256</v>
+        <v>44950.7678125</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>4521817</v>
+        <v>4521820</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D74">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E74">
-        <v>1245000</v>
+        <v>2016000</v>
       </c>
       <c r="F74" s="1">
-        <v>44950.7674537037</v>
+        <v>44950.767696759256</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>4521808</v>
+        <v>4521817</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D75">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E75">
-        <v>725000</v>
+        <v>1245000</v>
       </c>
       <c r="F75" s="1">
-        <v>44950.76645833333</v>
+        <v>44950.7674537037</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>4521800</v>
+        <v>4521808</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D76">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E76">
-        <v>673000</v>
+        <v>725000</v>
       </c>
       <c r="F76" s="1">
-        <v>44950.7659375</v>
+        <v>44950.76645833333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>4521781</v>
+        <v>4521800</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D77">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E77">
-        <v>735037</v>
+        <v>673000</v>
       </c>
       <c r="F77" s="1">
-        <v>44950.76415509259</v>
+        <v>44950.7659375</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>4521774</v>
+        <v>4521781</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D78">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E78">
-        <v>1243000</v>
+        <v>735037</v>
       </c>
       <c r="F78" s="1">
-        <v>44950.76336805556</v>
+        <v>44950.76415509259</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>4521767</v>
+        <v>4521774</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D79">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E79">
-        <v>710000</v>
+        <v>1243000</v>
       </c>
       <c r="F79" s="1">
-        <v>44950.762777777774</v>
+        <v>44950.76336805556</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>4520216</v>
+        <v>4521767</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
         <v>144</v>
       </c>
       <c r="D80">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="E80">
-        <v>220000</v>
+        <v>710000</v>
       </c>
       <c r="F80" s="1">
-        <v>44950.326840277776</v>
+        <v>44950.762777777774</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>4516435</v>
+        <v>4520216</v>
       </c>
       <c r="B81" t="s">
         <v>145</v>
@@ -3848,58 +3851,58 @@
         <v>146</v>
       </c>
       <c r="D81">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="E81">
-        <v>2460000</v>
+        <v>220000</v>
       </c>
       <c r="F81" s="1">
-        <v>44946.761608796296</v>
+        <v>44950.326840277776</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>4516434</v>
+        <v>4516435</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D82">
         <v>206</v>
       </c>
       <c r="E82">
-        <v>1410000</v>
+        <v>2460000</v>
       </c>
       <c r="F82" s="1">
-        <v>44946.7615625</v>
+        <v>44946.761608796296</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>4516433</v>
+        <v>4516434</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
         <v>149</v>
       </c>
       <c r="D83">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="E83">
-        <v>1648000</v>
+        <v>1410000</v>
       </c>
       <c r="F83" s="1">
-        <v>44946.76150462963</v>
+        <v>44946.7615625</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>4516432</v>
+        <v>4516433</v>
       </c>
       <c r="B84" t="s">
         <v>150</v>
@@ -3908,18 +3911,18 @@
         <v>151</v>
       </c>
       <c r="D84">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="E84">
-        <v>1660000</v>
+        <v>1648000</v>
       </c>
       <c r="F84" s="1">
-        <v>44946.76144675926</v>
+        <v>44946.76150462963</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>4514111</v>
+        <v>4516432</v>
       </c>
       <c r="B85" t="s">
         <v>152</v>
@@ -3928,18 +3931,18 @@
         <v>153</v>
       </c>
       <c r="D85">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="E85">
-        <v>350000</v>
+        <v>1660000</v>
       </c>
       <c r="F85" s="1">
-        <v>44945.50115740741</v>
+        <v>44946.76144675926</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>4506739</v>
+        <v>4514111</v>
       </c>
       <c r="B86" t="s">
         <v>154</v>
@@ -3948,33 +3951,33 @@
         <v>155</v>
       </c>
       <c r="D86">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="E86">
-        <v>170000</v>
+        <v>350000</v>
       </c>
       <c r="F86" s="1">
-        <v>44939.50289351852</v>
+        <v>44945.50115740741</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>4499649</v>
+        <v>4506739</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D87">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E87">
-        <v>698000</v>
+        <v>170000</v>
       </c>
       <c r="F87" s="1">
-        <v>44933.751296296294</v>
+        <v>44939.50289351852</v>
       </c>
     </row>
     <row r="88">
@@ -3982,10 +3985,10 @@
         <v>4497393</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D88">
         <v>173</v>
@@ -4002,10 +4005,10 @@
         <v>4497223</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D89">
         <v>98</v>
@@ -4022,10 +4025,10 @@
         <v>4496890</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D90">
         <v>175</v>
@@ -4042,10 +4045,10 @@
         <v>4496881</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C91" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D91">
         <v>153</v>
@@ -4062,10 +4065,10 @@
         <v>4496874</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D92">
         <v>173</v>
@@ -4082,10 +4085,10 @@
         <v>4488254</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D93">
         <v>240</v>
@@ -4102,10 +4105,10 @@
         <v>4484881</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D94">
         <v>210</v>
@@ -4122,10 +4125,10 @@
         <v>4434038</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D95">
         <v>250</v>
@@ -4142,10 +4145,10 @@
         <v>4429787</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D96">
         <v>120</v>
@@ -4162,10 +4165,10 @@
         <v>4418604</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D97">
         <v>50</v>
@@ -4182,10 +4185,10 @@
         <v>4413895</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D98">
         <v>237</v>
@@ -4202,10 +4205,10 @@
         <v>4381872</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D99">
         <v>160</v>
@@ -4222,10 +4225,10 @@
         <v>4381871</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D100">
         <v>159</v>
@@ -4242,10 +4245,10 @@
         <v>4381322</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D101">
         <v>175</v>
@@ -4262,10 +4265,10 @@
         <v>4373595</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D102">
         <v>108</v>
@@ -4282,10 +4285,10 @@
         <v>4373594</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C103" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D103">
         <v>107</v>
@@ -4302,10 +4305,10 @@
         <v>4373543</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D104">
         <v>246</v>
@@ -4322,10 +4325,10 @@
         <v>4372789</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D105">
         <v>160</v>
@@ -4342,10 +4345,10 @@
         <v>4371249</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D106">
         <v>216</v>
@@ -4362,10 +4365,10 @@
         <v>4371208</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C107" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D107">
         <v>250</v>
@@ -4382,10 +4385,10 @@
         <v>4368905</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C108" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D108">
         <v>94</v>
@@ -4402,10 +4405,10 @@
         <v>4320354</v>
       </c>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C109" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D109">
         <v>128</v>
@@ -4422,10 +4425,10 @@
         <v>4320275</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C110" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D110">
         <v>175</v>
@@ -4442,10 +4445,10 @@
         <v>4320244</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C111" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D111">
         <v>153</v>
@@ -4462,10 +4465,10 @@
         <v>4320241</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D112">
         <v>173</v>
@@ -4482,10 +4485,10 @@
         <v>4320234</v>
       </c>
       <c r="B113" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C113" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D113">
         <v>80</v>
@@ -4502,10 +4505,10 @@
         <v>4320208</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D114">
         <v>137</v>
@@ -4522,10 +4525,10 @@
         <v>4320206</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D115">
         <v>108</v>
@@ -4542,10 +4545,10 @@
         <v>4320205</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D116">
         <v>165</v>
@@ -4562,10 +4565,10 @@
         <v>4320181</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D117">
         <v>176</v>
@@ -4582,10 +4585,10 @@
         <v>4319975</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C118" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D118">
         <v>198</v>
@@ -4602,10 +4605,10 @@
         <v>4319904</v>
       </c>
       <c r="B119" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D119">
         <v>185</v>
@@ -4622,10 +4625,10 @@
         <v>4243364</v>
       </c>
       <c r="B120" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D120">
         <v>96</v>
@@ -4642,10 +4645,10 @@
         <v>4232186</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D121">
         <v>75</v>
@@ -4662,10 +4665,10 @@
         <v>4169238</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C122" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D122">
         <v>246</v>
@@ -4682,10 +4685,10 @@
         <v>4088917</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D123">
         <v>120</v>
@@ -4702,10 +4705,10 @@
         <v>3868167</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D124">
         <v>71</v>
@@ -4722,10 +4725,10 @@
         <v>3838209</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C125" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D125">
         <v>250</v>
@@ -4742,10 +4745,10 @@
         <v>3702715</v>
       </c>
       <c r="B126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C126" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D126">
         <v>184</v>
@@ -4762,10 +4765,10 @@
         <v>2798457</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D127">
         <v>107</v>
@@ -4779,1362 +4782,1362 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>4723936</v>
+        <v>4725808</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D128">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E128">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="F128" s="1">
-        <v>45072.41087962963</v>
+        <v>45073.600324074076</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>4722495</v>
+        <v>4724483</v>
       </c>
       <c r="B129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C129" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D129">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="E129">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="F129" s="1">
-        <v>45071.471030092594</v>
+        <v>45072.6322337963</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>4722195</v>
+        <v>4724155</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C130" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D130">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="E130">
-        <v>1750</v>
+        <v>6000</v>
       </c>
       <c r="F130" s="1">
-        <v>45071.33652777778</v>
+        <v>45072.5075</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>4721795</v>
+        <v>4723936</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D131">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="E131">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="F131" s="1">
-        <v>45070.755902777775</v>
+        <v>45072.41087962963</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>4721794</v>
+        <v>4722495</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C132" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D132">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="E132">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="F132" s="1">
-        <v>45070.75587962963</v>
+        <v>45071.471030092594</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>4721793</v>
+        <v>4722195</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D133">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="E133">
-        <v>15300</v>
+        <v>1750</v>
       </c>
       <c r="F133" s="1">
-        <v>45070.75585648148</v>
+        <v>45071.33652777778</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>4721790</v>
+        <v>4721795</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C134" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D134">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="E134">
         <v>14500</v>
       </c>
       <c r="F134" s="1">
-        <v>45070.75576388889</v>
+        <v>45070.755902777775</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>4721789</v>
+        <v>4721794</v>
       </c>
       <c r="B135" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C135" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D135">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="E135">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="F135" s="1">
-        <v>45070.755740740744</v>
+        <v>45070.75587962963</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>4721613</v>
+        <v>4721793</v>
       </c>
       <c r="B136" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C136" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D136">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E136">
-        <v>12000</v>
+        <v>15300</v>
       </c>
       <c r="F136" s="1">
-        <v>45070.64524305556</v>
+        <v>45070.75585648148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>4721480</v>
+        <v>4721790</v>
       </c>
       <c r="B137" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C137" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D137">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E137">
-        <v>2800</v>
+        <v>14500</v>
       </c>
       <c r="F137" s="1">
-        <v>45070.614120370374</v>
+        <v>45070.75576388889</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>4721253</v>
+        <v>4721789</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D138">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E138">
-        <v>3800</v>
+        <v>14500</v>
       </c>
       <c r="F138" s="1">
-        <v>45070.507199074076</v>
+        <v>45070.755740740744</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>4721119</v>
+        <v>4721613</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C139" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D139">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E139">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="F139" s="1">
-        <v>45070.45096064815</v>
+        <v>45070.64524305556</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>4720915</v>
+        <v>4721480</v>
       </c>
       <c r="B140" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C140" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D140">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="E140">
-        <v>7500</v>
+        <v>2800</v>
       </c>
       <c r="F140" s="1">
-        <v>45070.38480324074</v>
+        <v>45070.614120370374</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>4720588</v>
+        <v>4721253</v>
       </c>
       <c r="B141" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C141" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D141">
         <v>140</v>
       </c>
       <c r="E141">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="F141" s="1">
-        <v>45070.279375</v>
+        <v>45070.507199074076</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>4720201</v>
+        <v>4721119</v>
       </c>
       <c r="B142" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C142" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D142">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="E142">
-        <v>1650</v>
+        <v>1000</v>
       </c>
       <c r="F142" s="1">
-        <v>45069.75818287037</v>
+        <v>45070.45096064815</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>4720140</v>
+        <v>4720915</v>
       </c>
       <c r="B143" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C143" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D143">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E143">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="F143" s="1">
-        <v>45069.72641203704</v>
+        <v>45070.38480324074</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>4719731</v>
+        <v>4720588</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D144">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="E144">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="F144" s="1">
-        <v>45069.54398148148</v>
+        <v>45070.279375</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>4719650</v>
+        <v>4720201</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C145" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D145">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="E145">
-        <v>1200</v>
+        <v>1650</v>
       </c>
       <c r="F145" s="1">
-        <v>45069.504849537036</v>
+        <v>45069.75818287037</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>4719420</v>
+        <v>4720140</v>
       </c>
       <c r="B146" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C146" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D146">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="E146">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="F146" s="1">
-        <v>45069.41135416667</v>
+        <v>45069.72641203704</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>4719366</v>
+        <v>4719731</v>
       </c>
       <c r="B147" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C147" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D147">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E147">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="F147" s="1">
-        <v>45069.389918981484</v>
+        <v>45069.54398148148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>4719188</v>
+        <v>4719420</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D148">
         <v>150</v>
       </c>
       <c r="E148">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F148" s="1">
-        <v>45069.339583333334</v>
+        <v>45069.41135416667</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>4718330</v>
+        <v>4719366</v>
       </c>
       <c r="B149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C149" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D149">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E149">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="F149" s="1">
-        <v>45068.63511574074</v>
+        <v>45069.389918981484</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>4718101</v>
+        <v>4719188</v>
       </c>
       <c r="B150" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C150" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D150">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E150">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F150" s="1">
-        <v>45068.57240740741</v>
+        <v>45069.339583333334</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>4717320</v>
+        <v>4718330</v>
       </c>
       <c r="B151" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C151" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D151">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E151">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="F151" s="1">
-        <v>45068.35759259259</v>
+        <v>45068.63511574074</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>4717225</v>
+        <v>4718101</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C152" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D152">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="E152">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="F152" s="1">
-        <v>45068.305289351854</v>
+        <v>45068.57240740741</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>4717061</v>
+        <v>4717320</v>
       </c>
       <c r="B153" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C153" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D153">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E153">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="F153" s="1">
-        <v>45067.88045138889</v>
+        <v>45068.35759259259</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>4713887</v>
+        <v>4717225</v>
       </c>
       <c r="B154" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C154" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D154">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E154">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="F154" s="1">
-        <v>45065.87633101852</v>
+        <v>45068.305289351854</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>4713524</v>
+        <v>4717061</v>
       </c>
       <c r="B155" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C155" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D155">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="E155">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="F155" s="1">
-        <v>45065.62619212963</v>
+        <v>45067.88045138889</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>4713087</v>
+        <v>4713887</v>
       </c>
       <c r="B156" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D156">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E156">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="F156" s="1">
-        <v>45065.39444444444</v>
+        <v>45065.87633101852</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>4712769</v>
+        <v>4713524</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C157" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D157">
         <v>200</v>
       </c>
       <c r="E157">
-        <v>5900</v>
+        <v>4500</v>
       </c>
       <c r="F157" s="1">
-        <v>45065.30401620371</v>
+        <v>45065.62619212963</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>4712137</v>
+        <v>4713087</v>
       </c>
       <c r="B158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C158" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D158">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="E158">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F158" s="1">
-        <v>45064.60967592592</v>
+        <v>45065.39444444444</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>4711882</v>
+        <v>4712769</v>
       </c>
       <c r="B159" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C159" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D159">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="E159">
-        <v>2500</v>
+        <v>5900</v>
       </c>
       <c r="F159" s="1">
-        <v>45064.504016203704</v>
+        <v>45065.30401620371</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>4711596</v>
+        <v>4712137</v>
       </c>
       <c r="B160" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D160">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="E160">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="F160" s="1">
-        <v>45064.37658564815</v>
+        <v>45064.60967592592</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>4711560</v>
+        <v>4711882</v>
       </c>
       <c r="B161" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C161" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D161">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="E161">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="F161" s="1">
-        <v>45064.36488425926</v>
+        <v>45064.504016203704</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>4711460</v>
+        <v>4711596</v>
       </c>
       <c r="B162" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C162" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D162">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E162">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="F162" s="1">
-        <v>45064.3052662037</v>
+        <v>45064.37658564815</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>4711429</v>
+        <v>4711560</v>
       </c>
       <c r="B163" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D163">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="E163">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="F163" s="1">
-        <v>45064.29462962963</v>
+        <v>45064.36488425926</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>4711167</v>
+        <v>4711460</v>
       </c>
       <c r="B164" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C164" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D164">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="E164">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="F164" s="1">
-        <v>45063.876284722224</v>
+        <v>45064.3052662037</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>4711152</v>
+        <v>4711429</v>
       </c>
       <c r="B165" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C165" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D165">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E165">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="F165" s="1">
-        <v>45063.856828703705</v>
+        <v>45064.29462962963</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>4711102</v>
+        <v>4711152</v>
       </c>
       <c r="B166" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C166" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D166">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E166">
-        <v>2250</v>
+        <v>1900</v>
       </c>
       <c r="F166" s="1">
-        <v>45063.81564814815</v>
+        <v>45063.856828703705</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>4710626</v>
+        <v>4711102</v>
       </c>
       <c r="B167" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C167" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D167">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E167">
-        <v>890</v>
+        <v>2250</v>
       </c>
       <c r="F167" s="1">
-        <v>45063.59134259259</v>
+        <v>45063.81564814815</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>4710542</v>
+        <v>4710626</v>
       </c>
       <c r="B168" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C168" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D168">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="E168">
-        <v>2000</v>
+        <v>890</v>
       </c>
       <c r="F168" s="1">
-        <v>45063.54615740741</v>
+        <v>45063.59134259259</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>4710432</v>
+        <v>4710542</v>
       </c>
       <c r="B169" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C169" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D169">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E169">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="F169" s="1">
-        <v>45063.50506944444</v>
+        <v>45063.54615740741</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>4710431</v>
+        <v>4710432</v>
       </c>
       <c r="B170" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C170" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D170">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E170">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="F170" s="1">
-        <v>45063.50498842593</v>
+        <v>45063.50506944444</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>4710416</v>
+        <v>4710431</v>
       </c>
       <c r="B171" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="C171" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D171">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E171">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="F171" s="1">
-        <v>45063.50252314815</v>
+        <v>45063.50498842593</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>4710166</v>
+        <v>4710416</v>
       </c>
       <c r="B172" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C172" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D172">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="E172">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="F172" s="1">
-        <v>45063.39581018518</v>
+        <v>45063.50252314815</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>4707269</v>
+        <v>4710166</v>
       </c>
       <c r="B173" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C173" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D173">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="E173">
-        <v>11500</v>
+        <v>1900</v>
       </c>
       <c r="F173" s="1">
-        <v>45062.646261574075</v>
+        <v>45063.39581018518</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>4707268</v>
+        <v>4707269</v>
       </c>
       <c r="B174" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C174" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D174">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E174">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="F174" s="1">
-        <v>45062.64623842593</v>
+        <v>45062.646261574075</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>4707237</v>
+        <v>4707268</v>
       </c>
       <c r="B175" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C175" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D175">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E175">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="F175" s="1">
-        <v>45062.645219907405</v>
+        <v>45062.64623842593</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>4707168</v>
+        <v>4707237</v>
       </c>
       <c r="B176" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C176" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D176">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="E176">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="F176" s="1">
-        <v>45062.64197916666</v>
+        <v>45062.645219907405</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>4707116</v>
+        <v>4707168</v>
       </c>
       <c r="B177" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C177" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D177">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E177">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="F177" s="1">
-        <v>45062.63930555555</v>
+        <v>45062.64197916666</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>4706499</v>
+        <v>4707116</v>
       </c>
       <c r="B178" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C178" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D178">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E178">
-        <v>1800</v>
+        <v>1250</v>
       </c>
       <c r="F178" s="1">
-        <v>45062.5291087963</v>
+        <v>45062.63930555555</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>4706408</v>
+        <v>4706499</v>
       </c>
       <c r="B179" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C179" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D179">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E179">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="F179" s="1">
-        <v>45062.493680555555</v>
+        <v>45062.5291087963</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>4706383</v>
+        <v>4706408</v>
       </c>
       <c r="B180" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C180" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D180">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="E180">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="F180" s="1">
-        <v>45062.48297453704</v>
+        <v>45062.493680555555</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>4706268</v>
+        <v>4706383</v>
       </c>
       <c r="B181" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C181" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D181">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="E181">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="F181" s="1">
-        <v>45062.41405092592</v>
+        <v>45062.48297453704</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>4705490</v>
+        <v>4706268</v>
       </c>
       <c r="B182" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C182" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D182">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E182">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F182" s="1">
-        <v>45061.76017361111</v>
+        <v>45062.41405092592</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>4705267</v>
+        <v>4705490</v>
       </c>
       <c r="B183" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C183" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D183">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E183">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="F183" s="1">
-        <v>45061.67539351852</v>
+        <v>45061.76017361111</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>4705092</v>
+        <v>4705267</v>
       </c>
       <c r="B184" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C184" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D184">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="E184">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="F184" s="1">
-        <v>45061.62679398148</v>
+        <v>45061.67539351852</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>4704936</v>
+        <v>4705092</v>
       </c>
       <c r="B185" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C185" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D185">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="E185">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="F185" s="1">
-        <v>45061.55820601852</v>
+        <v>45061.62679398148</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>4703810</v>
+        <v>4704936</v>
       </c>
       <c r="B186" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C186" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D186">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E186">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="F186" s="1">
-        <v>45060.73459490741</v>
+        <v>45061.55820601852</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>4703525</v>
+        <v>4703810</v>
       </c>
       <c r="B187" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C187" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D187">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E187">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="F187" s="1">
-        <v>45060.550891203704</v>
+        <v>45060.73459490741</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>4703191</v>
+        <v>4703525</v>
       </c>
       <c r="B188" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C188" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D188">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E188">
-        <v>60</v>
+        <v>1600</v>
       </c>
       <c r="F188" s="1">
-        <v>45060.30123842593</v>
+        <v>45060.550891203704</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>4702337</v>
+        <v>4703191</v>
       </c>
       <c r="B189" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C189" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D189">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E189">
-        <v>3000</v>
+        <v>60</v>
       </c>
       <c r="F189" s="1">
-        <v>45059.365636574075</v>
+        <v>45060.30123842593</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>4701751</v>
+        <v>4702337</v>
       </c>
       <c r="B190" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C190" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D190">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="E190">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="F190" s="1">
-        <v>45058.632731481484</v>
+        <v>45059.365636574075</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>4700643</v>
+        <v>4701751</v>
       </c>
       <c r="B191" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C191" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D191">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="E191">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="F191" s="1">
-        <v>45057.757743055554</v>
+        <v>45058.632731481484</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>4700582</v>
+        <v>4700643</v>
       </c>
       <c r="B192" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C192" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D192">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E192">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F192" s="1">
-        <v>45057.73494212963</v>
+        <v>45057.757743055554</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>4699992</v>
+        <v>4700582</v>
       </c>
       <c r="B193" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C193" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D193">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="E193">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F193" s="1">
-        <v>45057.50497685185</v>
+        <v>45057.73494212963</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>4698292</v>
+        <v>4698681</v>
       </c>
       <c r="B194" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C194" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D194">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="E194">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="F194" s="1">
-        <v>45056.509409722225</v>
+        <v>45056.68693287037</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>4698269</v>
+        <v>4698292</v>
       </c>
       <c r="B195" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="C195" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D195">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E195">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="F195" s="1">
-        <v>45056.504953703705</v>
+        <v>45056.509409722225</v>
       </c>
     </row>
     <row r="196">
@@ -6142,10 +6145,10 @@
         <v>4697928</v>
       </c>
       <c r="B196" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C196" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D196">
         <v>220</v>
@@ -6162,10 +6165,10 @@
         <v>4697766</v>
       </c>
       <c r="B197" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C197" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D197">
         <v>120</v>
@@ -6182,10 +6185,10 @@
         <v>4697052</v>
       </c>
       <c r="B198" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C198" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D198">
         <v>140</v>
@@ -6199,413 +6202,413 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>4696462</v>
+        <v>4696446</v>
       </c>
       <c r="B199" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C199" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D199">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="E199">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F199" s="1">
-        <v>45055.392175925925</v>
+        <v>45055.38334490741</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>4696446</v>
+        <v>4696407</v>
       </c>
       <c r="B200" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C200" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D200">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E200">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="F200" s="1">
-        <v>45055.38334490741</v>
+        <v>45055.37633101852</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>4696407</v>
+        <v>4696360</v>
       </c>
       <c r="B201" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C201" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D201">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E201">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="F201" s="1">
-        <v>45055.37633101852</v>
+        <v>45055.35885416667</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>4696360</v>
+        <v>4695763</v>
       </c>
       <c r="B202" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C202" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D202">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E202">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="F202" s="1">
-        <v>45055.35885416667</v>
+        <v>45054.75917824074</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>4695763</v>
+        <v>4695387</v>
       </c>
       <c r="B203" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C203" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D203">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E203">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="F203" s="1">
-        <v>45054.75917824074</v>
+        <v>45054.5871412037</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>4695387</v>
+        <v>4695084</v>
       </c>
       <c r="B204" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C204" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D204">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="E204">
-        <v>1000</v>
+        <v>2750</v>
       </c>
       <c r="F204" s="1">
-        <v>45054.5871412037</v>
+        <v>45054.48168981481</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>4695084</v>
+        <v>4692710</v>
       </c>
       <c r="B205" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C205" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D205">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E205">
-        <v>2750</v>
+        <v>1500</v>
       </c>
       <c r="F205" s="1">
-        <v>45054.48168981481</v>
+        <v>45052.4168287037</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>4692710</v>
+        <v>4692100</v>
       </c>
       <c r="B206" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C206" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D206">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E206">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F206" s="1">
-        <v>45052.4168287037</v>
+        <v>45051.86070601852</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>4692100</v>
+        <v>4690701</v>
       </c>
       <c r="B207" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C207" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D207">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E207">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="F207" s="1">
-        <v>45051.86070601852</v>
+        <v>45050.74841435185</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>4690701</v>
+        <v>4689993</v>
       </c>
       <c r="B208" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C208" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D208">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E208">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="F208" s="1">
-        <v>45050.74841435185</v>
+        <v>45050.471284722225</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>4689993</v>
+        <v>4688816</v>
       </c>
       <c r="B209" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C209" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D209">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E209">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="F209" s="1">
-        <v>45050.471284722225</v>
+        <v>45049.54421296297</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>4688816</v>
+        <v>4688684</v>
       </c>
       <c r="B210" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C210" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D210">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E210">
-        <v>2200</v>
+        <v>10000</v>
       </c>
       <c r="F210" s="1">
-        <v>45049.54421296297</v>
+        <v>45049.50144675926</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>4688684</v>
+        <v>4688454</v>
       </c>
       <c r="B211" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C211" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D211">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="E211">
-        <v>10000</v>
+        <v>700</v>
       </c>
       <c r="F211" s="1">
-        <v>45049.50144675926</v>
+        <v>45049.37850694444</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>4688454</v>
+        <v>4688449</v>
       </c>
       <c r="B212" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C212" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D212">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E212">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="F212" s="1">
-        <v>45049.37850694444</v>
+        <v>45049.37798611111</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>4688449</v>
+        <v>4687591</v>
       </c>
       <c r="B213" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C213" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D213">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E213">
         <v>2000</v>
       </c>
       <c r="F213" s="1">
-        <v>45049.37798611111</v>
+        <v>45048.61287037037</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>4687591</v>
+        <v>4686986</v>
       </c>
       <c r="B214" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C214" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D214">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E214">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="F214" s="1">
-        <v>45048.61287037037</v>
+        <v>45048.37650462963</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>4686986</v>
+        <v>4686838</v>
       </c>
       <c r="B215" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C215" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D215">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="E215">
-        <v>5500</v>
+        <v>1600</v>
       </c>
       <c r="F215" s="1">
-        <v>45048.37650462963</v>
+        <v>45048.30594907407</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>4686838</v>
+        <v>4686637</v>
       </c>
       <c r="B216" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C216" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D216">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="E216">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="F216" s="1">
-        <v>45048.30594907407</v>
+        <v>45047.88444444445</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>4686637</v>
+        <v>4683654</v>
       </c>
       <c r="B217" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C217" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D217">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="E217">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="F217" s="1">
-        <v>45047.88444444445</v>
+        <v>45044.832094907404</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>4683654</v>
+        <v>4683579</v>
       </c>
       <c r="B218" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C218" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D218">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="E218">
-        <v>700</v>
+        <v>8000</v>
       </c>
       <c r="F218" s="1">
-        <v>45044.832094907404</v>
+        <v>45044.75787037037</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>4683579</v>
+        <v>4683575</v>
       </c>
       <c r="B219" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C219" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D219">
         <v>243</v>
@@ -6614,2366 +6617,2346 @@
         <v>8000</v>
       </c>
       <c r="F219" s="1">
-        <v>45044.75787037037</v>
+        <v>45044.75771990741</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>4683575</v>
+        <v>4683254</v>
       </c>
       <c r="B220" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C220" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D220">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="E220">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="F220" s="1">
-        <v>45044.75771990741</v>
+        <v>45044.57325231482</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>4683254</v>
+        <v>4683110</v>
       </c>
       <c r="B221" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="C221" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D221">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="E221">
-        <v>1000</v>
+        <v>9400</v>
       </c>
       <c r="F221" s="1">
-        <v>45044.57325231482</v>
+        <v>45044.50791666667</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>4683110</v>
+        <v>4681967</v>
       </c>
       <c r="B222" t="s">
-        <v>316</v>
+        <v>411</v>
       </c>
       <c r="C222" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D222">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E222">
-        <v>9400</v>
+        <v>2200</v>
       </c>
       <c r="F222" s="1">
-        <v>45044.50791666667</v>
+        <v>45043.629016203704</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>4681967</v>
+        <v>4681409</v>
       </c>
       <c r="B223" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C223" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D223">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E223">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="F223" s="1">
-        <v>45043.629016203704</v>
+        <v>45043.40069444444</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>4681409</v>
+        <v>4681336</v>
       </c>
       <c r="B224" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C224" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D224">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E224">
-        <v>3300</v>
+        <v>750</v>
       </c>
       <c r="F224" s="1">
-        <v>45043.40069444444</v>
+        <v>45043.381157407406</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>4681336</v>
+        <v>4681110</v>
       </c>
       <c r="B225" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C225" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D225">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E225">
-        <v>750</v>
+        <v>1750</v>
       </c>
       <c r="F225" s="1">
-        <v>45043.381157407406</v>
+        <v>45043.30708333333</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>4681110</v>
+        <v>4680521</v>
       </c>
       <c r="B226" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C226" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D226">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E226">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="F226" s="1">
-        <v>45043.30708333333</v>
+        <v>45042.679074074076</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>4680521</v>
+        <v>4680392</v>
       </c>
       <c r="B227" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C227" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D227">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="E227">
-        <v>1800</v>
+        <v>7000</v>
       </c>
       <c r="F227" s="1">
-        <v>45042.679074074076</v>
+        <v>45042.626238425924</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>4680392</v>
+        <v>4679953</v>
       </c>
       <c r="B228" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C228" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D228">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="E228">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="F228" s="1">
-        <v>45042.626238425924</v>
+        <v>45042.47043981482</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>4679953</v>
+        <v>4679729</v>
       </c>
       <c r="B229" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C229" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D229">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="E229">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="F229" s="1">
-        <v>45042.47043981482</v>
+        <v>45042.37626157407</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>4679729</v>
+        <v>4679670</v>
       </c>
       <c r="B230" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C230" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D230">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="E230">
-        <v>3500</v>
+        <v>1650</v>
       </c>
       <c r="F230" s="1">
-        <v>45042.37626157407</v>
+        <v>45042.347708333335</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>4679670</v>
+        <v>4679434</v>
       </c>
       <c r="B231" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C231" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D231">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="E231">
-        <v>1650</v>
+        <v>12300</v>
       </c>
       <c r="F231" s="1">
-        <v>45042.347708333335</v>
+        <v>45042.159004629626</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>4679434</v>
+        <v>4679189</v>
       </c>
       <c r="B232" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C232" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D232">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="E232">
-        <v>12300</v>
+        <v>1200</v>
       </c>
       <c r="F232" s="1">
-        <v>45042.159004629626</v>
+        <v>45041.75714120371</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>4679189</v>
+        <v>4678899</v>
       </c>
       <c r="B233" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C233" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D233">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="E233">
-        <v>1200</v>
+        <v>3800</v>
       </c>
       <c r="F233" s="1">
-        <v>45041.75714120371</v>
+        <v>45041.632523148146</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>4678899</v>
+        <v>4678319</v>
       </c>
       <c r="B234" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C234" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D234">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E234">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="F234" s="1">
-        <v>45041.632523148146</v>
+        <v>45041.423842592594</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>4678319</v>
+        <v>4677573</v>
       </c>
       <c r="B235" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C235" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D235">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="E235">
-        <v>6000</v>
+        <v>2700</v>
       </c>
       <c r="F235" s="1">
-        <v>45041.423842592594</v>
+        <v>45040.75896990741</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>4677573</v>
+        <v>4676001</v>
       </c>
       <c r="B236" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C236" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D236">
         <v>90</v>
       </c>
       <c r="E236">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="F236" s="1">
-        <v>45040.75896990741</v>
+        <v>45040.37614583333</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>4676001</v>
+        <v>4673759</v>
       </c>
       <c r="B237" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C237" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D237">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E237">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="F237" s="1">
-        <v>45040.37614583333</v>
+        <v>45037.8815625</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>4673759</v>
+        <v>4673259</v>
       </c>
       <c r="B238" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C238" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D238">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E238">
         <v>1800</v>
       </c>
       <c r="F238" s="1">
-        <v>45037.8815625</v>
+        <v>45037.63260416667</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>4673259</v>
+        <v>4673033</v>
       </c>
       <c r="B239" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C239" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D239">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="E239">
-        <v>1800</v>
+        <v>7000</v>
       </c>
       <c r="F239" s="1">
-        <v>45037.63260416667</v>
+        <v>45037.553125</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>4673033</v>
+        <v>4672532</v>
       </c>
       <c r="B240" t="s">
-        <v>444</v>
+        <v>83</v>
       </c>
       <c r="C240" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D240">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E240">
-        <v>7000</v>
+        <v>8900</v>
       </c>
       <c r="F240" s="1">
-        <v>45037.553125</v>
+        <v>45037.375763888886</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>4672532</v>
+        <v>4671703</v>
       </c>
       <c r="B241" t="s">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="C241" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D241">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E241">
-        <v>8900</v>
+        <v>800</v>
       </c>
       <c r="F241" s="1">
-        <v>45037.375763888886</v>
+        <v>45036.61329861111</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>4671703</v>
+        <v>4668330</v>
       </c>
       <c r="B242" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C242" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D242">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E242">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="F242" s="1">
-        <v>45036.61329861111</v>
+        <v>45034.33684027778</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>4668330</v>
+        <v>4665935</v>
       </c>
       <c r="B243" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C243" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D243">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="E243">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="F243" s="1">
-        <v>45034.33684027778</v>
+        <v>45030.87898148148</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>4665935</v>
+        <v>4663856</v>
       </c>
       <c r="B244" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C244" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D244">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="E244">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="F244" s="1">
-        <v>45030.87898148148</v>
+        <v>45029.38229166667</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>4663856</v>
+        <v>4663757</v>
       </c>
       <c r="B245" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C245" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D245">
         <v>250</v>
       </c>
       <c r="E245">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="F245" s="1">
-        <v>45029.38229166667</v>
+        <v>45029.360625</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>4663757</v>
+        <v>4662532</v>
       </c>
       <c r="B246" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C246" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D246">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="E246">
-        <v>8000</v>
+        <v>8280</v>
       </c>
       <c r="F246" s="1">
-        <v>45029.360625</v>
+        <v>45028.44076388889</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>4662532</v>
+        <v>4662181</v>
       </c>
       <c r="B247" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C247" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D247">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E247">
-        <v>8280</v>
+        <v>5000</v>
       </c>
       <c r="F247" s="1">
-        <v>45028.44076388889</v>
+        <v>45028.275416666664</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>4662181</v>
+        <v>4660560</v>
       </c>
       <c r="B248" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C248" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D248">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E248">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="F248" s="1">
-        <v>45028.275416666664</v>
+        <v>45026.819131944445</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>4660560</v>
+        <v>4659959</v>
       </c>
       <c r="B249" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C249" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D249">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="E249">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="F249" s="1">
-        <v>45026.819131944445</v>
+        <v>45026.62637731482</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>4659959</v>
+        <v>4659345</v>
       </c>
       <c r="B250" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C250" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D250">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E250">
-        <v>2000</v>
+        <v>450</v>
       </c>
       <c r="F250" s="1">
-        <v>45026.62637731482</v>
+        <v>45026.35430555556</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>4659345</v>
+        <v>4658506</v>
       </c>
       <c r="B251" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C251" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D251">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E251">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="F251" s="1">
-        <v>45026.35430555556</v>
+        <v>45025.460277777776</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>4658506</v>
+        <v>4657742</v>
       </c>
       <c r="B252" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C252" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D252">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E252">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F252" s="1">
-        <v>45025.460277777776</v>
+        <v>45024.57142361111</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>4657742</v>
+        <v>4655383</v>
       </c>
       <c r="B253" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C253" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D253">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E253">
-        <v>700</v>
+        <v>7000</v>
       </c>
       <c r="F253" s="1">
-        <v>45024.57142361111</v>
+        <v>45022.81700231481</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>4655383</v>
+        <v>4654874</v>
       </c>
       <c r="B254" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C254" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D254">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E254">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F254" s="1">
-        <v>45022.81700231481</v>
+        <v>45022.6300462963</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>4654874</v>
+        <v>4653732</v>
       </c>
       <c r="B255" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C255" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D255">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="E255">
-        <v>6700</v>
+        <v>2000</v>
       </c>
       <c r="F255" s="1">
-        <v>45022.6300462963</v>
+        <v>45021.88130787037</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>4653732</v>
+        <v>4652665</v>
       </c>
       <c r="B256" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C256" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D256">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="E256">
-        <v>2000</v>
+        <v>7900</v>
       </c>
       <c r="F256" s="1">
-        <v>45021.88130787037</v>
+        <v>45021.376388888886</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>4652665</v>
+        <v>4647865</v>
       </c>
       <c r="B257" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C257" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D257">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="E257">
-        <v>7900</v>
+        <v>2200</v>
       </c>
       <c r="F257" s="1">
-        <v>45021.376388888886</v>
+        <v>45017.56010416667</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>4647865</v>
+        <v>4647012</v>
       </c>
       <c r="B258" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C258" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D258">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E258">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="F258" s="1">
-        <v>45017.56010416667</v>
+        <v>45016.758425925924</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>4647012</v>
+        <v>4646748</v>
       </c>
       <c r="B259" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C259" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D259">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="E259">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="F259" s="1">
-        <v>45016.758425925924</v>
+        <v>45016.60166666667</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>4646748</v>
+        <v>4645054</v>
       </c>
       <c r="B260" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C260" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D260">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="E260">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="F260" s="1">
-        <v>45016.60166666667</v>
+        <v>45015.480219907404</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>4645054</v>
+        <v>4640217</v>
       </c>
       <c r="B261" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C261" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D261">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="E261">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="F261" s="1">
-        <v>45015.480219907404</v>
+        <v>45014.758680555555</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>4640217</v>
+        <v>4639367</v>
       </c>
       <c r="B262" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C262" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D262">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E262">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="F262" s="1">
-        <v>45014.758680555555</v>
+        <v>45014.62956018518</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>4639367</v>
+        <v>4637617</v>
       </c>
       <c r="B263" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C263" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D263">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="E263">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="F263" s="1">
-        <v>45014.62956018518</v>
+        <v>45014.37644675926</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>4637617</v>
+        <v>4632407</v>
       </c>
       <c r="B264" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C264" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D264">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E264">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="F264" s="1">
-        <v>45014.37644675926</v>
+        <v>45013.668229166666</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>4632407</v>
+        <v>4631962</v>
       </c>
       <c r="B265" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C265" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D265">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E265">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="F265" s="1">
-        <v>45013.668229166666</v>
+        <v>45013.62644675926</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>4631962</v>
+        <v>4631439</v>
       </c>
       <c r="B266" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C266" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D266">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E266">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="F266" s="1">
-        <v>45013.62644675926</v>
+        <v>45013.50712962963</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>4631439</v>
+        <v>4631438</v>
       </c>
       <c r="B267" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C267" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D267">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E267">
-        <v>3500</v>
+        <v>3175</v>
       </c>
       <c r="F267" s="1">
-        <v>45013.50712962963</v>
+        <v>45013.50711805555</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>4631438</v>
+        <v>4631270</v>
       </c>
       <c r="B268" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C268" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D268">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="E268">
-        <v>3175</v>
+        <v>3900</v>
       </c>
       <c r="F268" s="1">
-        <v>45013.50711805555</v>
+        <v>45013.43356481481</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>4631270</v>
+        <v>4628767</v>
       </c>
       <c r="B269" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C269" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D269">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E269">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="F269" s="1">
-        <v>45013.43356481481</v>
+        <v>45012.78556712963</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>4628767</v>
+        <v>4628489</v>
       </c>
       <c r="B270" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C270" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D270">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>3125</v>
       </c>
       <c r="F270" s="1">
-        <v>45012.78556712963</v>
+        <v>45012.632835648146</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>4628489</v>
+        <v>4619919</v>
       </c>
       <c r="B271" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C271" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D271">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="E271">
-        <v>3125</v>
+        <v>2300</v>
       </c>
       <c r="F271" s="1">
-        <v>45012.632835648146</v>
+        <v>45010.18960648148</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>4619919</v>
+        <v>4616926</v>
       </c>
       <c r="B272" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C272" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D272">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E272">
-        <v>2300</v>
+        <v>7250</v>
       </c>
       <c r="F272" s="1">
-        <v>45010.18960648148</v>
+        <v>45009.37609953704</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>4616926</v>
+        <v>4611646</v>
       </c>
       <c r="B273" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C273" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D273">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="E273">
-        <v>7250</v>
+        <v>1800</v>
       </c>
       <c r="F273" s="1">
-        <v>45009.37609953704</v>
+        <v>45008.37611111111</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>4611646</v>
+        <v>4607495</v>
       </c>
       <c r="B274" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C274" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D274">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="E274">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="F274" s="1">
-        <v>45008.37611111111</v>
+        <v>45007.40866898148</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>4607495</v>
+        <v>4606874</v>
       </c>
       <c r="B275" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C275" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D275">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="E275">
-        <v>3800</v>
+        <v>9500</v>
       </c>
       <c r="F275" s="1">
-        <v>45007.40866898148</v>
+        <v>45006.75342592593</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>4606874</v>
+        <v>4601404</v>
       </c>
       <c r="B276" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C276" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D276">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E276">
-        <v>9500</v>
+        <v>1200</v>
       </c>
       <c r="F276" s="1">
-        <v>45006.75342592593</v>
+        <v>45002.760046296295</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>4601404</v>
+        <v>4601171</v>
       </c>
       <c r="B277" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C277" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D277">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E277">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F277" s="1">
-        <v>45002.760046296295</v>
+        <v>45002.68777777778</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>4601171</v>
+        <v>4594442</v>
       </c>
       <c r="B278" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C278" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D278">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="E278">
-        <v>2000</v>
+        <v>5700</v>
       </c>
       <c r="F278" s="1">
-        <v>45002.68777777778</v>
+        <v>45001.714375</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>4594442</v>
+        <v>4593204</v>
       </c>
       <c r="B279" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C279" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D279">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="E279">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="F279" s="1">
-        <v>45001.714375</v>
+        <v>45000.88165509259</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>4593204</v>
+        <v>4592891</v>
       </c>
       <c r="B280" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C280" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D280">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="E280">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="F280" s="1">
-        <v>45000.88165509259</v>
+        <v>45000.75145833333</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>4592891</v>
+        <v>4590061</v>
       </c>
       <c r="B281" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C281" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D281">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="E281">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="F281" s="1">
-        <v>45000.75145833333</v>
+        <v>44999.34207175926</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>4590061</v>
+        <v>4588392</v>
       </c>
       <c r="B282" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C282" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D282">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E282">
-        <v>1800</v>
+        <v>1250</v>
       </c>
       <c r="F282" s="1">
-        <v>44999.34207175926</v>
+        <v>44998.30988425926</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>4588392</v>
+        <v>4587429</v>
       </c>
       <c r="B283" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C283" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D283">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E283">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="F283" s="1">
-        <v>44998.30988425926</v>
+        <v>44997.573958333334</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>4587429</v>
+        <v>4585142</v>
       </c>
       <c r="B284" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C284" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D284">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E284">
-        <v>500</v>
+        <v>7500</v>
       </c>
       <c r="F284" s="1">
-        <v>44997.573958333334</v>
+        <v>44995.667708333334</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>4585142</v>
+        <v>4585039</v>
       </c>
       <c r="B285" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C285" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D285">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E285">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="F285" s="1">
-        <v>44995.667708333334</v>
+        <v>44995.61684027778</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>4585039</v>
+        <v>4582065</v>
       </c>
       <c r="B286" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C286" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D286">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="E286">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="F286" s="1">
-        <v>44995.61684027778</v>
+        <v>44993.88177083333</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>4582065</v>
+        <v>4580931</v>
       </c>
       <c r="B287" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C287" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D287">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E287">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="F287" s="1">
-        <v>44993.88177083333</v>
+        <v>44993.426875</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>4580931</v>
+        <v>4579554</v>
       </c>
       <c r="B288" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C288" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D288">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="E288">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="F288" s="1">
-        <v>44993.426875</v>
+        <v>44992.51069444444</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>4579554</v>
+        <v>4579140</v>
       </c>
       <c r="B289" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C289" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D289">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="E289">
-        <v>8500</v>
+        <v>3200</v>
       </c>
       <c r="F289" s="1">
-        <v>44992.51069444444</v>
+        <v>44992.37783564815</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>4579140</v>
+        <v>4578282</v>
       </c>
       <c r="B290" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C290" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D290">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E290">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="F290" s="1">
-        <v>44992.37783564815</v>
+        <v>44991.65756944445</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>4578282</v>
+        <v>4577534</v>
       </c>
       <c r="B291" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C291" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D291">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="E291">
-        <v>10000</v>
+        <v>7900</v>
       </c>
       <c r="F291" s="1">
-        <v>44991.65756944445</v>
+        <v>44991.3659837963</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>4577534</v>
+        <v>4577518</v>
       </c>
       <c r="B292" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C292" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D292">
         <v>220</v>
       </c>
       <c r="E292">
-        <v>7900</v>
+        <v>2800</v>
       </c>
       <c r="F292" s="1">
-        <v>44991.3659837963</v>
+        <v>44991.36114583333</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>4577518</v>
+        <v>4575205</v>
       </c>
       <c r="B293" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C293" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D293">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E293">
-        <v>2800</v>
+        <v>2750</v>
       </c>
       <c r="F293" s="1">
-        <v>44991.36114583333</v>
+        <v>44989.5177662037</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>4575205</v>
+        <v>4571212</v>
       </c>
       <c r="B294" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C294" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D294">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E294">
-        <v>2750</v>
+        <v>1300</v>
       </c>
       <c r="F294" s="1">
-        <v>44989.5177662037</v>
+        <v>44986.8334837963</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>4571212</v>
+        <v>4569368</v>
       </c>
       <c r="B295" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C295" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D295">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E295">
-        <v>1300</v>
+        <v>3200</v>
       </c>
       <c r="F295" s="1">
-        <v>44986.8334837963</v>
+        <v>44985.64115740741</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>4569368</v>
+        <v>4563228</v>
       </c>
       <c r="B296" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C296" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D296">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="E296">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="F296" s="1">
-        <v>44985.64115740741</v>
+        <v>44980.5096875</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>4563228</v>
+        <v>4561774</v>
       </c>
       <c r="B297" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C297" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D297">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="E297">
-        <v>1600</v>
+        <v>7900</v>
       </c>
       <c r="F297" s="1">
-        <v>44980.5096875</v>
+        <v>44979.567928240744</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>4561774</v>
+        <v>4561195</v>
       </c>
       <c r="B298" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C298" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D298">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E298">
-        <v>7900</v>
+        <v>5000</v>
       </c>
       <c r="F298" s="1">
-        <v>44979.567928240744</v>
+        <v>44979.37684027778</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>4561195</v>
+        <v>4560400</v>
       </c>
       <c r="B299" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C299" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D299">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="E299">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="F299" s="1">
-        <v>44979.37684027778</v>
+        <v>44978.633414351854</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>4560400</v>
+        <v>4557524</v>
       </c>
       <c r="B300" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C300" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D300">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E300">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="F300" s="1">
-        <v>44978.633414351854</v>
+        <v>44976.737129629626</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>4557524</v>
+        <v>4555943</v>
       </c>
       <c r="B301" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C301" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D301">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="E301">
         <v>5000</v>
       </c>
       <c r="F301" s="1">
-        <v>44976.737129629626</v>
+        <v>44975.48908564815</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>4555943</v>
+        <v>4551277</v>
       </c>
       <c r="B302" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C302" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D302">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="E302">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="F302" s="1">
-        <v>44975.48908564815</v>
+        <v>44972.63381944445</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>4551277</v>
+        <v>4544179</v>
       </c>
       <c r="B303" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C303" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D303">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E303">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="F303" s="1">
-        <v>44972.63381944445</v>
+        <v>44966.73915509259</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>4544179</v>
+        <v>4540806</v>
       </c>
       <c r="B304" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C304" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D304">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="E304">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="F304" s="1">
-        <v>44966.73915509259</v>
+        <v>44964.51273148148</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>4540806</v>
+        <v>4539710</v>
       </c>
       <c r="B305" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C305" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D305">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E305">
-        <v>4500</v>
+        <v>2700</v>
       </c>
       <c r="F305" s="1">
-        <v>44964.51273148148</v>
+        <v>44963.63670138889</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>4539710</v>
+        <v>4539288</v>
       </c>
       <c r="B306" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C306" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D306">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="E306">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="F306" s="1">
-        <v>44963.63670138889</v>
+        <v>44963.452893518515</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>4539288</v>
+        <v>4536675</v>
       </c>
       <c r="B307" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C307" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D307">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E307">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F307" s="1">
-        <v>44963.452893518515</v>
+        <v>44961.00623842593</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>4536675</v>
+        <v>4535243</v>
       </c>
       <c r="B308" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C308" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D308">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="E308">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="F308" s="1">
-        <v>44961.00623842593</v>
+        <v>44959.878229166665</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>4535243</v>
+        <v>4535242</v>
       </c>
       <c r="B309" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C309" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D309">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E309">
         <v>2500</v>
       </c>
       <c r="F309" s="1">
-        <v>44959.878229166665</v>
+        <v>44959.87820601852</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>4535242</v>
+        <v>4533322</v>
       </c>
       <c r="B310" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C310" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D310">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E310">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="F310" s="1">
-        <v>44959.87820601852</v>
+        <v>44958.63348379629</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>4533322</v>
+        <v>4529400</v>
       </c>
       <c r="B311" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C311" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D311">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="E311">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="F311" s="1">
-        <v>44958.63348379629</v>
+        <v>44956.3852662037</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>4529400</v>
+        <v>4511395</v>
       </c>
       <c r="B312" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C312" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D312">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="E312">
-        <v>6500</v>
+        <v>1900</v>
       </c>
       <c r="F312" s="1">
-        <v>44956.3852662037</v>
+        <v>44943.632685185185</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>4511395</v>
+        <v>4511392</v>
       </c>
       <c r="B313" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C313" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D313">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E313">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F313" s="1">
-        <v>44943.632685185185</v>
+        <v>44943.632569444446</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>4511392</v>
+        <v>4510556</v>
       </c>
       <c r="B314" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C314" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D314">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E314">
         <v>2000</v>
       </c>
       <c r="F314" s="1">
-        <v>44943.632569444446</v>
+        <v>44943.32041666667</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>4510556</v>
+        <v>4509683</v>
       </c>
       <c r="B315" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C315" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D315">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E315">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="F315" s="1">
-        <v>44943.32041666667</v>
+        <v>44942.499456018515</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>4509683</v>
+        <v>4505502</v>
       </c>
       <c r="B316" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C316" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D316">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E316">
-        <v>2300</v>
+        <v>12000</v>
       </c>
       <c r="F316" s="1">
-        <v>44942.499456018515</v>
+        <v>44938.511099537034</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>4505502</v>
+        <v>4505275</v>
       </c>
       <c r="B317" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C317" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D317">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E317">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="F317" s="1">
-        <v>44938.511099537034</v>
+        <v>44938.42350694445</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>4505275</v>
+        <v>4494784</v>
       </c>
       <c r="B318" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C318" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D318">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="E318">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="F318" s="1">
-        <v>44938.42350694445</v>
+        <v>44929.52101851852</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>4501342</v>
+        <v>4494774</v>
       </c>
       <c r="B319" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C319" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D319">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="E319">
-        <v>350</v>
+        <v>3900</v>
       </c>
       <c r="F319" s="1">
-        <v>44935.524097222224</v>
+        <v>44929.52076388889</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>4494784</v>
+        <v>4494715</v>
       </c>
       <c r="B320" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C320" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D320">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="E320">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="F320" s="1">
-        <v>44929.52101851852</v>
+        <v>44929.5190162037</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>4494774</v>
+        <v>4476243</v>
       </c>
       <c r="B321" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C321" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D321">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="E321">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="F321" s="1">
-        <v>44929.52076388889</v>
+        <v>44910.54949074074</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>4494715</v>
+        <v>4467237</v>
       </c>
       <c r="B322" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C322" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D322">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E322">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="F322" s="1">
-        <v>44929.5190162037</v>
+        <v>44903.88076388889</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>4476243</v>
+        <v>4462856</v>
       </c>
       <c r="B323" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C323" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D323">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E323">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F323" s="1">
-        <v>44910.54949074074</v>
+        <v>44900.661574074074</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>4467237</v>
+        <v>4459839</v>
       </c>
       <c r="B324" t="s">
-        <v>611</v>
+        <v>441</v>
       </c>
       <c r="C324" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D324">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E324">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="F324" s="1">
-        <v>44903.88076388889</v>
+        <v>44897.88931712963</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>4459839</v>
+        <v>4445170</v>
       </c>
       <c r="B325" t="s">
-        <v>440</v>
+        <v>615</v>
       </c>
       <c r="C325" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D325">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="E325">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="F325" s="1">
-        <v>44897.88931712963</v>
+        <v>44893.58607638889</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>4445170</v>
+        <v>4422479</v>
       </c>
       <c r="B326" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C326" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D326">
         <v>180</v>
       </c>
       <c r="E326">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="F326" s="1">
-        <v>44893.58607638889</v>
+        <v>44882.884664351855</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>4422479</v>
+        <v>4422478</v>
       </c>
       <c r="B327" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C327" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D327">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="E327">
-        <v>5000</v>
+        <v>1100</v>
       </c>
       <c r="F327" s="1">
-        <v>44882.884664351855</v>
+        <v>44882.8846412037</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>4422478</v>
+        <v>4420748</v>
       </c>
       <c r="B328" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C328" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D328">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="E328">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="F328" s="1">
-        <v>44882.8846412037</v>
+        <v>44881.64565972222</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>4420748</v>
+        <v>4391971</v>
       </c>
       <c r="B329" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C329" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D329">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E329">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F329" s="1">
-        <v>44881.64565972222</v>
+        <v>44860.887083333335</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>4404117</v>
+        <v>4381745</v>
       </c>
       <c r="B330" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C330" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D330">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="E330">
-        <v>1900</v>
+        <v>4750</v>
       </c>
       <c r="F330" s="1">
-        <v>44868.542395833334</v>
+        <v>44852.582291666666</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>4391971</v>
+        <v>4374399</v>
       </c>
       <c r="B331" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C331" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D331">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E331">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="F331" s="1">
-        <v>44860.887083333335</v>
+        <v>44846.76306712963</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>4374399</v>
+        <v>4248799</v>
       </c>
       <c r="B332" t="s">
-        <v>626</v>
+        <v>131</v>
       </c>
       <c r="C332" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D332">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="E332">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="F332" s="1">
-        <v>44846.76306712963</v>
+        <v>44755.40729166667</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>4248799</v>
+        <v>4182284</v>
       </c>
       <c r="B333" t="s">
-        <v>129</v>
+        <v>630</v>
       </c>
       <c r="C333" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D333">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="E333">
-        <v>9000</v>
+        <v>650</v>
       </c>
       <c r="F333" s="1">
-        <v>44755.40729166667</v>
+        <v>44702.75950231482</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>4182284</v>
+        <v>3661363</v>
       </c>
       <c r="B334" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C334" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D334">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E334">
-        <v>650</v>
+        <v>6000</v>
       </c>
       <c r="F334" s="1">
-        <v>44702.75950231482</v>
+        <v>44330.26909722222</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>3661363</v>
+        <v>3259755</v>
       </c>
       <c r="B335" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C335" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D335">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="E335">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F335" s="1">
-        <v>44330.26909722222</v>
+        <v>44112.38516203704</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>3259755</v>
+        <v>2931028</v>
       </c>
       <c r="B336" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C336" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D336">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="E336">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="F336" s="1">
-        <v>44112.38516203704</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337">
-        <v>2931028</v>
-      </c>
-      <c r="B337" t="s">
-        <v>635</v>
-      </c>
-      <c r="C337" t="s">
-        <v>636</v>
-      </c>
-      <c r="D337">
-        <v>50</v>
-      </c>
-      <c r="E337">
-        <v>600</v>
-      </c>
-      <c r="F337" s="1">
         <v>43995.52462962963</v>
       </c>
     </row>
